--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Scotland Premiership_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Scotland Premiership_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="333">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -706,6 +706,15 @@
     <t>['26', '68', '78', '84']</t>
   </si>
   <si>
+    <t>['44', '73']</t>
+  </si>
+  <si>
+    <t>['36', '69']</t>
+  </si>
+  <si>
+    <t>['39', '40', '48']</t>
+  </si>
+  <si>
     <t>['18', '79']</t>
   </si>
   <si>
@@ -995,6 +1004,15 @@
   </si>
   <si>
     <t>['49', '90+6']</t>
+  </si>
+  <si>
+    <t>['30', '38', '45+3', '47', '58']</t>
+  </si>
+  <si>
+    <t>['42', '52']</t>
+  </si>
+  <si>
+    <t>['6', '66']</t>
   </si>
 </sst>
 </file>
@@ -1356,7 +1374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP199"/>
+  <dimension ref="A1:BP205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1693,10 +1711,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ2">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1899,10 +1917,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ3">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2027,7 +2045,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -2105,10 +2123,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ4">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2311,10 +2329,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ5">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2645,7 +2663,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q7">
         <v>3.6</v>
@@ -3057,7 +3075,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q9">
         <v>3.2</v>
@@ -3469,7 +3487,7 @@
         <v>82</v>
       </c>
       <c r="P11" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3550,7 +3568,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ11">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3675,7 +3693,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3753,7 +3771,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ12">
         <v>1.06</v>
@@ -3881,7 +3899,7 @@
         <v>82</v>
       </c>
       <c r="P13" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q13">
         <v>2.4</v>
@@ -3959,10 +3977,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ13">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4168,7 +4186,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ14">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR14">
         <v>2.02</v>
@@ -4371,10 +4389,10 @@
         <v>3</v>
       </c>
       <c r="AP15">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ15">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR15">
         <v>2.04</v>
@@ -4499,7 +4517,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4580,7 +4598,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ16">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR16">
         <v>0.53</v>
@@ -4705,7 +4723,7 @@
         <v>82</v>
       </c>
       <c r="P17" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q17">
         <v>7.5</v>
@@ -4783,10 +4801,10 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ17">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AR17">
         <v>1.07</v>
@@ -4989,7 +5007,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ18">
         <v>0.9399999999999999</v>
@@ -5195,7 +5213,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ19">
         <v>0.53</v>
@@ -5323,7 +5341,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q20">
         <v>2.75</v>
@@ -5529,7 +5547,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5735,7 +5753,7 @@
         <v>82</v>
       </c>
       <c r="P22" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -6022,7 +6040,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ23">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR23">
         <v>3.1</v>
@@ -6147,7 +6165,7 @@
         <v>82</v>
       </c>
       <c r="P24" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q24">
         <v>2.38</v>
@@ -6225,7 +6243,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ24">
         <v>1.53</v>
@@ -6353,7 +6371,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6431,10 +6449,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ25">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR25">
         <v>1.41</v>
@@ -6640,7 +6658,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ26">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR26">
         <v>1.33</v>
@@ -6846,7 +6864,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ27">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR27">
         <v>0.85</v>
@@ -6971,7 +6989,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -7049,7 +7067,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ28">
         <v>0.53</v>
@@ -7461,7 +7479,7 @@
         <v>1.5</v>
       </c>
       <c r="AP30">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ30">
         <v>0.9399999999999999</v>
@@ -7667,10 +7685,10 @@
         <v>0.5</v>
       </c>
       <c r="AP31">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ31">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR31">
         <v>1.46</v>
@@ -7873,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ32">
         <v>0.9399999999999999</v>
@@ -8001,7 +8019,7 @@
         <v>106</v>
       </c>
       <c r="P33" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q33">
         <v>2.75</v>
@@ -8082,7 +8100,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ33">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR33">
         <v>1.31</v>
@@ -8207,7 +8225,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q34">
         <v>3.5</v>
@@ -8491,10 +8509,10 @@
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ35">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR35">
         <v>1.25</v>
@@ -8619,7 +8637,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8697,7 +8715,7 @@
         <v>2</v>
       </c>
       <c r="AP36">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ36">
         <v>1.53</v>
@@ -8825,7 +8843,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8903,7 +8921,7 @@
         <v>0.5</v>
       </c>
       <c r="AP37">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ37">
         <v>1.06</v>
@@ -9031,7 +9049,7 @@
         <v>82</v>
       </c>
       <c r="P38" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q38">
         <v>10</v>
@@ -9112,7 +9130,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ38">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AR38">
         <v>1.42</v>
@@ -9318,7 +9336,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ39">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR39">
         <v>2.01</v>
@@ -9443,7 +9461,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9649,7 +9667,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q41">
         <v>2.63</v>
@@ -9855,7 +9873,7 @@
         <v>82</v>
       </c>
       <c r="P42" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9933,7 +9951,7 @@
         <v>1.67</v>
       </c>
       <c r="AP42">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ42">
         <v>1.53</v>
@@ -10061,7 +10079,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q43">
         <v>9.5</v>
@@ -10142,7 +10160,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ43">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AR43">
         <v>1.4</v>
@@ -10267,7 +10285,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q44">
         <v>2.25</v>
@@ -10345,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="AP44">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ44">
         <v>0.9399999999999999</v>
@@ -10554,7 +10572,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ45">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR45">
         <v>1.85</v>
@@ -10760,7 +10778,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ46">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR46">
         <v>1.16</v>
@@ -10885,7 +10903,7 @@
         <v>118</v>
       </c>
       <c r="P47" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q47">
         <v>1.67</v>
@@ -11169,7 +11187,7 @@
         <v>0.33</v>
       </c>
       <c r="AP48">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ48">
         <v>1.06</v>
@@ -11297,7 +11315,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11375,10 +11393,10 @@
         <v>0.33</v>
       </c>
       <c r="AP49">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ49">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR49">
         <v>1.19</v>
@@ -11503,7 +11521,7 @@
         <v>82</v>
       </c>
       <c r="P50" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q50">
         <v>2.63</v>
@@ -11581,10 +11599,10 @@
         <v>0.67</v>
       </c>
       <c r="AP50">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ50">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR50">
         <v>1.3</v>
@@ -11787,10 +11805,10 @@
         <v>1.33</v>
       </c>
       <c r="AP51">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ51">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR51">
         <v>1.31</v>
@@ -11915,7 +11933,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -11996,7 +12014,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ52">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR52">
         <v>1.52</v>
@@ -12121,7 +12139,7 @@
         <v>123</v>
       </c>
       <c r="P53" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q53">
         <v>3.75</v>
@@ -12405,7 +12423,7 @@
         <v>2</v>
       </c>
       <c r="AP54">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ54">
         <v>1.53</v>
@@ -12739,7 +12757,7 @@
         <v>82</v>
       </c>
       <c r="P56" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q56">
         <v>7.5</v>
@@ -12817,10 +12835,10 @@
         <v>3</v>
       </c>
       <c r="AP56">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ56">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AR56">
         <v>1.24</v>
@@ -12945,7 +12963,7 @@
         <v>126</v>
       </c>
       <c r="P57" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q57">
         <v>1.62</v>
@@ -13151,7 +13169,7 @@
         <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q58">
         <v>2.38</v>
@@ -13229,10 +13247,10 @@
         <v>1.17</v>
       </c>
       <c r="AP58">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ58">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR58">
         <v>1.06</v>
@@ -13357,7 +13375,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q59">
         <v>2.4</v>
@@ -13435,7 +13453,7 @@
         <v>0.8</v>
       </c>
       <c r="AP59">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ59">
         <v>0.53</v>
@@ -13563,7 +13581,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q60">
         <v>2.75</v>
@@ -13641,7 +13659,7 @@
         <v>1.5</v>
       </c>
       <c r="AP60">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ60">
         <v>0.9399999999999999</v>
@@ -13850,7 +13868,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ61">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR61">
         <v>2.17</v>
@@ -14056,7 +14074,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ62">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR62">
         <v>1.31</v>
@@ -14181,7 +14199,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q63">
         <v>4.33</v>
@@ -14259,10 +14277,10 @@
         <v>1</v>
       </c>
       <c r="AP63">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ63">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR63">
         <v>1.25</v>
@@ -14387,7 +14405,7 @@
         <v>132</v>
       </c>
       <c r="P64" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q64">
         <v>4.5</v>
@@ -14671,10 +14689,10 @@
         <v>0.5</v>
       </c>
       <c r="AP65">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ65">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR65">
         <v>1.13</v>
@@ -14799,7 +14817,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q66">
         <v>2.4</v>
@@ -15005,7 +15023,7 @@
         <v>134</v>
       </c>
       <c r="P67" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -15211,7 +15229,7 @@
         <v>135</v>
       </c>
       <c r="P68" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q68">
         <v>2.5</v>
@@ -15289,10 +15307,10 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ68">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR68">
         <v>1.19</v>
@@ -15417,7 +15435,7 @@
         <v>136</v>
       </c>
       <c r="P69" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q69">
         <v>2.5</v>
@@ -15701,10 +15719,10 @@
         <v>0.6</v>
       </c>
       <c r="AP70">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ70">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR70">
         <v>1.22</v>
@@ -15829,7 +15847,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q71">
         <v>2.25</v>
@@ -15907,10 +15925,10 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ71">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR71">
         <v>1.32</v>
@@ -16035,7 +16053,7 @@
         <v>82</v>
       </c>
       <c r="P72" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -16113,10 +16131,10 @@
         <v>3</v>
       </c>
       <c r="AP72">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ72">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AR72">
         <v>1.22</v>
@@ -16447,7 +16465,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q74">
         <v>3.4</v>
@@ -17065,7 +17083,7 @@
         <v>143</v>
       </c>
       <c r="P77" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q77">
         <v>3.6</v>
@@ -17143,7 +17161,7 @@
         <v>2.5</v>
       </c>
       <c r="AP77">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ77">
         <v>1.19</v>
@@ -17271,7 +17289,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q78">
         <v>3.25</v>
@@ -17352,7 +17370,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ78">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR78">
         <v>1.42</v>
@@ -17477,7 +17495,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q79">
         <v>6.5</v>
@@ -17555,10 +17573,10 @@
         <v>3</v>
       </c>
       <c r="AP79">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ79">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AR79">
         <v>1.56</v>
@@ -17683,7 +17701,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q80">
         <v>3.4</v>
@@ -17967,7 +17985,7 @@
         <v>0.67</v>
       </c>
       <c r="AP81">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ81">
         <v>1.06</v>
@@ -18095,7 +18113,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q82">
         <v>2.63</v>
@@ -18173,10 +18191,10 @@
         <v>0.83</v>
       </c>
       <c r="AP82">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ82">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR82">
         <v>1.34</v>
@@ -18301,7 +18319,7 @@
         <v>82</v>
       </c>
       <c r="P83" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q83">
         <v>3.25</v>
@@ -18379,10 +18397,10 @@
         <v>0.33</v>
       </c>
       <c r="AP83">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ83">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR83">
         <v>1.24</v>
@@ -18588,7 +18606,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ84">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR84">
         <v>2.21</v>
@@ -18713,7 +18731,7 @@
         <v>82</v>
       </c>
       <c r="P85" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q85">
         <v>7.5</v>
@@ -18794,7 +18812,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ85">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR85">
         <v>1.36</v>
@@ -18919,7 +18937,7 @@
         <v>150</v>
       </c>
       <c r="P86" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -18997,7 +19015,7 @@
         <v>1.83</v>
       </c>
       <c r="AP86">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ86">
         <v>1.19</v>
@@ -19537,7 +19555,7 @@
         <v>82</v>
       </c>
       <c r="P89" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -19615,10 +19633,10 @@
         <v>3</v>
       </c>
       <c r="AP89">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ89">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AR89">
         <v>1.42</v>
@@ -19821,10 +19839,10 @@
         <v>0.88</v>
       </c>
       <c r="AP90">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ90">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR90">
         <v>1.37</v>
@@ -20030,7 +20048,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ91">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR91">
         <v>2.19</v>
@@ -20233,7 +20251,7 @@
         <v>0.78</v>
       </c>
       <c r="AP92">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ92">
         <v>0.53</v>
@@ -20439,10 +20457,10 @@
         <v>0.86</v>
       </c>
       <c r="AP93">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ93">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR93">
         <v>1.63</v>
@@ -20645,7 +20663,7 @@
         <v>1.29</v>
       </c>
       <c r="AP94">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ94">
         <v>0.9399999999999999</v>
@@ -20773,7 +20791,7 @@
         <v>82</v>
       </c>
       <c r="P95" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q95">
         <v>10</v>
@@ -20854,7 +20872,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ95">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR95">
         <v>1.29</v>
@@ -20979,7 +20997,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -21057,7 +21075,7 @@
         <v>1.43</v>
       </c>
       <c r="AP96">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ96">
         <v>1.53</v>
@@ -21185,7 +21203,7 @@
         <v>158</v>
       </c>
       <c r="P97" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q97">
         <v>3.5</v>
@@ -21391,7 +21409,7 @@
         <v>159</v>
       </c>
       <c r="P98" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q98">
         <v>2.05</v>
@@ -21472,7 +21490,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ98">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR98">
         <v>1.38</v>
@@ -21675,7 +21693,7 @@
         <v>0.5</v>
       </c>
       <c r="AP99">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ99">
         <v>0.9399999999999999</v>
@@ -21803,7 +21821,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q100">
         <v>3.1</v>
@@ -21881,7 +21899,7 @@
         <v>0.8</v>
       </c>
       <c r="AP100">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ100">
         <v>0.53</v>
@@ -22090,7 +22108,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ101">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR101">
         <v>2.07</v>
@@ -22215,7 +22233,7 @@
         <v>162</v>
       </c>
       <c r="P102" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q102">
         <v>4</v>
@@ -22421,7 +22439,7 @@
         <v>163</v>
       </c>
       <c r="P103" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -22499,10 +22517,10 @@
         <v>0.63</v>
       </c>
       <c r="AP103">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ103">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR103">
         <v>1.34</v>
@@ -22705,10 +22723,10 @@
         <v>3</v>
       </c>
       <c r="AP104">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ104">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AR104">
         <v>1.42</v>
@@ -22911,10 +22929,10 @@
         <v>0.89</v>
       </c>
       <c r="AP105">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ105">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR105">
         <v>1.69</v>
@@ -23039,7 +23057,7 @@
         <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q106">
         <v>2.75</v>
@@ -23117,10 +23135,10 @@
         <v>0.89</v>
       </c>
       <c r="AP106">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ106">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR106">
         <v>1.67</v>
@@ -23245,7 +23263,7 @@
         <v>128</v>
       </c>
       <c r="P107" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23529,7 +23547,7 @@
         <v>1.71</v>
       </c>
       <c r="AP108">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ108">
         <v>1.19</v>
@@ -23657,7 +23675,7 @@
         <v>82</v>
       </c>
       <c r="P109" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q109">
         <v>2.38</v>
@@ -23738,7 +23756,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ109">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR109">
         <v>1.38</v>
@@ -24147,10 +24165,10 @@
         <v>1.43</v>
       </c>
       <c r="AP111">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ111">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR111">
         <v>1.24</v>
@@ -24275,7 +24293,7 @@
         <v>169</v>
       </c>
       <c r="P112" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -24481,7 +24499,7 @@
         <v>170</v>
       </c>
       <c r="P113" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q113">
         <v>2.65</v>
@@ -24559,10 +24577,10 @@
         <v>0.67</v>
       </c>
       <c r="AP113">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ113">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR113">
         <v>1.2</v>
@@ -24687,7 +24705,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q114">
         <v>7</v>
@@ -24765,10 +24783,10 @@
         <v>1.25</v>
       </c>
       <c r="AP114">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ114">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR114">
         <v>1.18</v>
@@ -25180,7 +25198,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ116">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR116">
         <v>2.24</v>
@@ -25383,7 +25401,7 @@
         <v>1.5</v>
       </c>
       <c r="AP117">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ117">
         <v>1.19</v>
@@ -25511,7 +25529,7 @@
         <v>174</v>
       </c>
       <c r="P118" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q118">
         <v>2</v>
@@ -25589,10 +25607,10 @@
         <v>0.67</v>
       </c>
       <c r="AP118">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ118">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR118">
         <v>1.36</v>
@@ -25795,7 +25813,7 @@
         <v>1.33</v>
       </c>
       <c r="AP119">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ119">
         <v>0.9399999999999999</v>
@@ -26001,7 +26019,7 @@
         <v>1.11</v>
       </c>
       <c r="AP120">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ120">
         <v>1.06</v>
@@ -26210,7 +26228,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ121">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AR121">
         <v>2.04</v>
@@ -26416,7 +26434,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ122">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR122">
         <v>1.24</v>
@@ -26541,7 +26559,7 @@
         <v>179</v>
       </c>
       <c r="P123" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q123">
         <v>3.2</v>
@@ -26747,7 +26765,7 @@
         <v>180</v>
       </c>
       <c r="P124" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q124">
         <v>6.5</v>
@@ -26828,7 +26846,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ124">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR124">
         <v>1.42</v>
@@ -27031,7 +27049,7 @@
         <v>1.33</v>
       </c>
       <c r="AP125">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ125">
         <v>1.19</v>
@@ -27159,7 +27177,7 @@
         <v>82</v>
       </c>
       <c r="P126" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q126">
         <v>3</v>
@@ -27237,7 +27255,7 @@
         <v>0.5</v>
       </c>
       <c r="AP126">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ126">
         <v>0.9399999999999999</v>
@@ -27365,7 +27383,7 @@
         <v>182</v>
       </c>
       <c r="P127" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q127">
         <v>3.2</v>
@@ -27446,7 +27464,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ127">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR127">
         <v>1.19</v>
@@ -27571,7 +27589,7 @@
         <v>82</v>
       </c>
       <c r="P128" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q128">
         <v>2.05</v>
@@ -27649,10 +27667,10 @@
         <v>0.9</v>
       </c>
       <c r="AP128">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ128">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR128">
         <v>1.42</v>
@@ -28267,7 +28285,7 @@
         <v>1.2</v>
       </c>
       <c r="AP131">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ131">
         <v>0.9399999999999999</v>
@@ -28476,7 +28494,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ132">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR132">
         <v>1.37</v>
@@ -28601,7 +28619,7 @@
         <v>185</v>
       </c>
       <c r="P133" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q133">
         <v>10</v>
@@ -28682,7 +28700,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ133">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AR133">
         <v>1.25</v>
@@ -28807,7 +28825,7 @@
         <v>186</v>
       </c>
       <c r="P134" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q134">
         <v>2.35</v>
@@ -29091,7 +29109,7 @@
         <v>1.45</v>
       </c>
       <c r="AP135">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ135">
         <v>1.53</v>
@@ -29297,7 +29315,7 @@
         <v>0.73</v>
       </c>
       <c r="AP136">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ136">
         <v>0.9399999999999999</v>
@@ -29506,7 +29524,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ137">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR137">
         <v>2.05</v>
@@ -29631,7 +29649,7 @@
         <v>188</v>
       </c>
       <c r="P138" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q138">
         <v>10</v>
@@ -29712,7 +29730,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ138">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AR138">
         <v>1.32</v>
@@ -30043,7 +30061,7 @@
         <v>190</v>
       </c>
       <c r="P140" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q140">
         <v>2.5</v>
@@ -30121,7 +30139,7 @@
         <v>0.75</v>
       </c>
       <c r="AP140">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ140">
         <v>0.53</v>
@@ -30455,7 +30473,7 @@
         <v>121</v>
       </c>
       <c r="P142" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q142">
         <v>4</v>
@@ -30536,7 +30554,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ142">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR142">
         <v>1.21</v>
@@ -30661,7 +30679,7 @@
         <v>82</v>
       </c>
       <c r="P143" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q143">
         <v>2.63</v>
@@ -30739,7 +30757,7 @@
         <v>0.91</v>
       </c>
       <c r="AP143">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ143">
         <v>1.06</v>
@@ -30867,7 +30885,7 @@
         <v>192</v>
       </c>
       <c r="P144" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q144">
         <v>5.5</v>
@@ -30945,10 +30963,10 @@
         <v>1.18</v>
       </c>
       <c r="AP144">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ144">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR144">
         <v>1.31</v>
@@ -31073,7 +31091,7 @@
         <v>82</v>
       </c>
       <c r="P145" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q145">
         <v>3.5</v>
@@ -31485,7 +31503,7 @@
         <v>82</v>
       </c>
       <c r="P147" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q147">
         <v>2.5</v>
@@ -31563,10 +31581,10 @@
         <v>0.67</v>
       </c>
       <c r="AP147">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ147">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR147">
         <v>1.26</v>
@@ -31769,7 +31787,7 @@
         <v>1.58</v>
       </c>
       <c r="AP148">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ148">
         <v>1.53</v>
@@ -31897,7 +31915,7 @@
         <v>195</v>
       </c>
       <c r="P149" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q149">
         <v>10</v>
@@ -31975,10 +31993,10 @@
         <v>2.42</v>
       </c>
       <c r="AP149">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ149">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AR149">
         <v>1.15</v>
@@ -32184,7 +32202,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ150">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR150">
         <v>2.11</v>
@@ -32390,7 +32408,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ151">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR151">
         <v>2.26</v>
@@ -32515,7 +32533,7 @@
         <v>198</v>
       </c>
       <c r="P152" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q152">
         <v>3.2</v>
@@ -32927,7 +32945,7 @@
         <v>82</v>
       </c>
       <c r="P154" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q154">
         <v>2.75</v>
@@ -33005,10 +33023,10 @@
         <v>1</v>
       </c>
       <c r="AP154">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ154">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR154">
         <v>1.1</v>
@@ -33211,10 +33229,10 @@
         <v>0.85</v>
       </c>
       <c r="AP155">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ155">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR155">
         <v>1.41</v>
@@ -33339,7 +33357,7 @@
         <v>201</v>
       </c>
       <c r="P156" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q156">
         <v>5</v>
@@ -33417,10 +33435,10 @@
         <v>1.33</v>
       </c>
       <c r="AP156">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ156">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR156">
         <v>1.65</v>
@@ -33623,10 +33641,10 @@
         <v>1.08</v>
       </c>
       <c r="AP157">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ157">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR157">
         <v>1.3</v>
@@ -33832,7 +33850,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ158">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AR158">
         <v>1.37</v>
@@ -34035,7 +34053,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP159">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ159">
         <v>0.53</v>
@@ -34241,7 +34259,7 @@
         <v>1</v>
       </c>
       <c r="AP160">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ160">
         <v>0.9399999999999999</v>
@@ -34450,7 +34468,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ161">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR161">
         <v>1.18</v>
@@ -34575,7 +34593,7 @@
         <v>82</v>
       </c>
       <c r="P162" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q162">
         <v>1.57</v>
@@ -34781,7 +34799,7 @@
         <v>141</v>
       </c>
       <c r="P163" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q163">
         <v>4.33</v>
@@ -34987,7 +35005,7 @@
         <v>206</v>
       </c>
       <c r="P164" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q164">
         <v>1.57</v>
@@ -35271,10 +35289,10 @@
         <v>0.92</v>
       </c>
       <c r="AP165">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ165">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR165">
         <v>1.16</v>
@@ -35399,7 +35417,7 @@
         <v>139</v>
       </c>
       <c r="P166" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q166">
         <v>3.4</v>
@@ -35477,10 +35495,10 @@
         <v>1.08</v>
       </c>
       <c r="AP166">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ166">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR166">
         <v>1.35</v>
@@ -35605,7 +35623,7 @@
         <v>208</v>
       </c>
       <c r="P167" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q167">
         <v>2.4</v>
@@ -35683,7 +35701,7 @@
         <v>1.23</v>
       </c>
       <c r="AP167">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ167">
         <v>1.06</v>
@@ -35892,7 +35910,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ168">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR168">
         <v>1.32</v>
@@ -36017,7 +36035,7 @@
         <v>209</v>
       </c>
       <c r="P169" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q169">
         <v>5.5</v>
@@ -36095,10 +36113,10 @@
         <v>1.46</v>
       </c>
       <c r="AP169">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ169">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR169">
         <v>1.42</v>
@@ -36223,7 +36241,7 @@
         <v>198</v>
       </c>
       <c r="P170" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q170">
         <v>1.53</v>
@@ -36510,7 +36528,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ171">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR171">
         <v>1.39</v>
@@ -36841,7 +36859,7 @@
         <v>211</v>
       </c>
       <c r="P173" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q173">
         <v>10</v>
@@ -36919,10 +36937,10 @@
         <v>2.29</v>
       </c>
       <c r="AP173">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ173">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AR173">
         <v>1.32</v>
@@ -37047,7 +37065,7 @@
         <v>212</v>
       </c>
       <c r="P174" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q174">
         <v>3</v>
@@ -37253,7 +37271,7 @@
         <v>213</v>
       </c>
       <c r="P175" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q175">
         <v>2.88</v>
@@ -37331,7 +37349,7 @@
         <v>1.36</v>
       </c>
       <c r="AP175">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ175">
         <v>1.53</v>
@@ -37537,10 +37555,10 @@
         <v>1.07</v>
       </c>
       <c r="AP176">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ176">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR176">
         <v>1.74</v>
@@ -37743,10 +37761,10 @@
         <v>1.21</v>
       </c>
       <c r="AP177">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ177">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR177">
         <v>1.42</v>
@@ -37871,7 +37889,7 @@
         <v>215</v>
       </c>
       <c r="P178" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q178">
         <v>3.4</v>
@@ -37949,7 +37967,7 @@
         <v>1.14</v>
       </c>
       <c r="AP178">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ178">
         <v>1.06</v>
@@ -38283,7 +38301,7 @@
         <v>216</v>
       </c>
       <c r="P180" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q180">
         <v>2.25</v>
@@ -38364,7 +38382,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ180">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR180">
         <v>2.25</v>
@@ -38489,7 +38507,7 @@
         <v>217</v>
       </c>
       <c r="P181" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q181">
         <v>2.4</v>
@@ -38567,10 +38585,10 @@
         <v>0.86</v>
       </c>
       <c r="AP181">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ181">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR181">
         <v>1.35</v>
@@ -38982,7 +39000,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ183">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR183">
         <v>1.38</v>
@@ -39185,7 +39203,7 @@
         <v>0.6</v>
       </c>
       <c r="AP184">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ184">
         <v>0.53</v>
@@ -39313,7 +39331,7 @@
         <v>221</v>
       </c>
       <c r="P185" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q185">
         <v>2.3</v>
@@ -39391,7 +39409,7 @@
         <v>1.07</v>
       </c>
       <c r="AP185">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ185">
         <v>0.9399999999999999</v>
@@ -39519,7 +39537,7 @@
         <v>222</v>
       </c>
       <c r="P186" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q186">
         <v>6.5</v>
@@ -39600,7 +39618,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ186">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR186">
         <v>1.42</v>
@@ -39725,7 +39743,7 @@
         <v>82</v>
       </c>
       <c r="P187" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q187">
         <v>3.6</v>
@@ -39931,7 +39949,7 @@
         <v>82</v>
       </c>
       <c r="P188" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q188">
         <v>1.95</v>
@@ -40012,7 +40030,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ188">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR188">
         <v>2.18</v>
@@ -40137,7 +40155,7 @@
         <v>82</v>
       </c>
       <c r="P189" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q189">
         <v>3.75</v>
@@ -40421,7 +40439,7 @@
         <v>1</v>
       </c>
       <c r="AP190">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ190">
         <v>0.9399999999999999</v>
@@ -40836,7 +40854,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ192">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AR192">
         <v>1.34</v>
@@ -41039,7 +41057,7 @@
         <v>1.44</v>
       </c>
       <c r="AP193">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ193">
         <v>1.53</v>
@@ -41167,7 +41185,7 @@
         <v>226</v>
       </c>
       <c r="P194" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q194">
         <v>1.57</v>
@@ -41451,10 +41469,10 @@
         <v>0.75</v>
       </c>
       <c r="AP195">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ195">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR195">
         <v>1.38</v>
@@ -41657,7 +41675,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP196">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ196">
         <v>0.9399999999999999</v>
@@ -41785,7 +41803,7 @@
         <v>227</v>
       </c>
       <c r="P197" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q197">
         <v>2.3</v>
@@ -41863,10 +41881,10 @@
         <v>1</v>
       </c>
       <c r="AP197">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ197">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR197">
         <v>1.37</v>
@@ -41991,7 +42009,7 @@
         <v>228</v>
       </c>
       <c r="P198" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q198">
         <v>4.33</v>
@@ -42069,10 +42087,10 @@
         <v>1.75</v>
       </c>
       <c r="AP198">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ198">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR198">
         <v>1.47</v>
@@ -42278,7 +42296,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ199">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR199">
         <v>1.41</v>
@@ -42354,6 +42372,1242 @@
       </c>
       <c r="BP199">
         <v>1.65</v>
+      </c>
+    </row>
+    <row r="200" spans="1:68">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>7881837</v>
+      </c>
+      <c r="C200" t="s">
+        <v>68</v>
+      </c>
+      <c r="D200" t="s">
+        <v>69</v>
+      </c>
+      <c r="E200" s="2">
+        <v>45773.35416666666</v>
+      </c>
+      <c r="F200">
+        <v>34</v>
+      </c>
+      <c r="G200" t="s">
+        <v>72</v>
+      </c>
+      <c r="H200" t="s">
+        <v>74</v>
+      </c>
+      <c r="I200">
+        <v>0</v>
+      </c>
+      <c r="J200">
+        <v>3</v>
+      </c>
+      <c r="K200">
+        <v>3</v>
+      </c>
+      <c r="L200">
+        <v>0</v>
+      </c>
+      <c r="M200">
+        <v>5</v>
+      </c>
+      <c r="N200">
+        <v>5</v>
+      </c>
+      <c r="O200" t="s">
+        <v>82</v>
+      </c>
+      <c r="P200" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q200">
+        <v>7.5</v>
+      </c>
+      <c r="R200">
+        <v>2.75</v>
+      </c>
+      <c r="S200">
+        <v>1.73</v>
+      </c>
+      <c r="T200">
+        <v>1.25</v>
+      </c>
+      <c r="U200">
+        <v>3.75</v>
+      </c>
+      <c r="V200">
+        <v>2.1</v>
+      </c>
+      <c r="W200">
+        <v>1.67</v>
+      </c>
+      <c r="X200">
+        <v>4.5</v>
+      </c>
+      <c r="Y200">
+        <v>1.18</v>
+      </c>
+      <c r="Z200">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AA200">
+        <v>5</v>
+      </c>
+      <c r="AB200">
+        <v>1.32</v>
+      </c>
+      <c r="AC200">
+        <v>1.01</v>
+      </c>
+      <c r="AD200">
+        <v>17</v>
+      </c>
+      <c r="AE200">
+        <v>1.14</v>
+      </c>
+      <c r="AF200">
+        <v>5.5</v>
+      </c>
+      <c r="AG200">
+        <v>1.45</v>
+      </c>
+      <c r="AH200">
+        <v>2.56</v>
+      </c>
+      <c r="AI200">
+        <v>1.8</v>
+      </c>
+      <c r="AJ200">
+        <v>1.95</v>
+      </c>
+      <c r="AK200">
+        <v>3.3</v>
+      </c>
+      <c r="AL200">
+        <v>1.1</v>
+      </c>
+      <c r="AM200">
+        <v>1.06</v>
+      </c>
+      <c r="AN200">
+        <v>1.5</v>
+      </c>
+      <c r="AO200">
+        <v>2.19</v>
+      </c>
+      <c r="AP200">
+        <v>1.41</v>
+      </c>
+      <c r="AQ200">
+        <v>2.24</v>
+      </c>
+      <c r="AR200">
+        <v>1.39</v>
+      </c>
+      <c r="AS200">
+        <v>2</v>
+      </c>
+      <c r="AT200">
+        <v>3.39</v>
+      </c>
+      <c r="AU200">
+        <v>5</v>
+      </c>
+      <c r="AV200">
+        <v>8</v>
+      </c>
+      <c r="AW200">
+        <v>3</v>
+      </c>
+      <c r="AX200">
+        <v>10</v>
+      </c>
+      <c r="AY200">
+        <v>8</v>
+      </c>
+      <c r="AZ200">
+        <v>18</v>
+      </c>
+      <c r="BA200">
+        <v>1</v>
+      </c>
+      <c r="BB200">
+        <v>8</v>
+      </c>
+      <c r="BC200">
+        <v>9</v>
+      </c>
+      <c r="BD200">
+        <v>4.9</v>
+      </c>
+      <c r="BE200">
+        <v>9.5</v>
+      </c>
+      <c r="BF200">
+        <v>1.19</v>
+      </c>
+      <c r="BG200">
+        <v>1.17</v>
+      </c>
+      <c r="BH200">
+        <v>4.35</v>
+      </c>
+      <c r="BI200">
+        <v>1.29</v>
+      </c>
+      <c r="BJ200">
+        <v>3.15</v>
+      </c>
+      <c r="BK200">
+        <v>1.47</v>
+      </c>
+      <c r="BL200">
+        <v>2.43</v>
+      </c>
+      <c r="BM200">
+        <v>1.74</v>
+      </c>
+      <c r="BN200">
+        <v>1.95</v>
+      </c>
+      <c r="BO200">
+        <v>2.12</v>
+      </c>
+      <c r="BP200">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="201" spans="1:68">
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>7881838</v>
+      </c>
+      <c r="C201" t="s">
+        <v>68</v>
+      </c>
+      <c r="D201" t="s">
+        <v>69</v>
+      </c>
+      <c r="E201" s="2">
+        <v>45773.45833333334</v>
+      </c>
+      <c r="F201">
+        <v>34</v>
+      </c>
+      <c r="G201" t="s">
+        <v>80</v>
+      </c>
+      <c r="H201" t="s">
+        <v>79</v>
+      </c>
+      <c r="I201">
+        <v>0</v>
+      </c>
+      <c r="J201">
+        <v>0</v>
+      </c>
+      <c r="K201">
+        <v>0</v>
+      </c>
+      <c r="L201">
+        <v>1</v>
+      </c>
+      <c r="M201">
+        <v>0</v>
+      </c>
+      <c r="N201">
+        <v>1</v>
+      </c>
+      <c r="O201" t="s">
+        <v>148</v>
+      </c>
+      <c r="P201" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q201">
+        <v>3</v>
+      </c>
+      <c r="R201">
+        <v>2.2</v>
+      </c>
+      <c r="S201">
+        <v>3.5</v>
+      </c>
+      <c r="T201">
+        <v>1.36</v>
+      </c>
+      <c r="U201">
+        <v>3</v>
+      </c>
+      <c r="V201">
+        <v>2.75</v>
+      </c>
+      <c r="W201">
+        <v>1.4</v>
+      </c>
+      <c r="X201">
+        <v>8</v>
+      </c>
+      <c r="Y201">
+        <v>1.08</v>
+      </c>
+      <c r="Z201">
+        <v>2.32</v>
+      </c>
+      <c r="AA201">
+        <v>3.26</v>
+      </c>
+      <c r="AB201">
+        <v>3.02</v>
+      </c>
+      <c r="AC201">
+        <v>1.05</v>
+      </c>
+      <c r="AD201">
+        <v>9</v>
+      </c>
+      <c r="AE201">
+        <v>1.28</v>
+      </c>
+      <c r="AF201">
+        <v>3.5</v>
+      </c>
+      <c r="AG201">
+        <v>1.83</v>
+      </c>
+      <c r="AH201">
+        <v>1.91</v>
+      </c>
+      <c r="AI201">
+        <v>1.7</v>
+      </c>
+      <c r="AJ201">
+        <v>2.05</v>
+      </c>
+      <c r="AK201">
+        <v>1.38</v>
+      </c>
+      <c r="AL201">
+        <v>1.25</v>
+      </c>
+      <c r="AM201">
+        <v>1.57</v>
+      </c>
+      <c r="AN201">
+        <v>1.82</v>
+      </c>
+      <c r="AO201">
+        <v>1.31</v>
+      </c>
+      <c r="AP201">
+        <v>1.89</v>
+      </c>
+      <c r="AQ201">
+        <v>1.24</v>
+      </c>
+      <c r="AR201">
+        <v>1.52</v>
+      </c>
+      <c r="AS201">
+        <v>1.4</v>
+      </c>
+      <c r="AT201">
+        <v>2.92</v>
+      </c>
+      <c r="AU201">
+        <v>7</v>
+      </c>
+      <c r="AV201">
+        <v>0</v>
+      </c>
+      <c r="AW201">
+        <v>9</v>
+      </c>
+      <c r="AX201">
+        <v>13</v>
+      </c>
+      <c r="AY201">
+        <v>16</v>
+      </c>
+      <c r="AZ201">
+        <v>13</v>
+      </c>
+      <c r="BA201">
+        <v>10</v>
+      </c>
+      <c r="BB201">
+        <v>5</v>
+      </c>
+      <c r="BC201">
+        <v>15</v>
+      </c>
+      <c r="BD201">
+        <v>2</v>
+      </c>
+      <c r="BE201">
+        <v>7</v>
+      </c>
+      <c r="BF201">
+        <v>1.94</v>
+      </c>
+      <c r="BG201">
+        <v>1.16</v>
+      </c>
+      <c r="BH201">
+        <v>4.3</v>
+      </c>
+      <c r="BI201">
+        <v>1.3</v>
+      </c>
+      <c r="BJ201">
+        <v>3.05</v>
+      </c>
+      <c r="BK201">
+        <v>1.5</v>
+      </c>
+      <c r="BL201">
+        <v>2.33</v>
+      </c>
+      <c r="BM201">
+        <v>1.81</v>
+      </c>
+      <c r="BN201">
+        <v>1.88</v>
+      </c>
+      <c r="BO201">
+        <v>2.23</v>
+      </c>
+      <c r="BP201">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="202" spans="1:68">
+      <c r="A202" s="1">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>7881839</v>
+      </c>
+      <c r="C202" t="s">
+        <v>68</v>
+      </c>
+      <c r="D202" t="s">
+        <v>69</v>
+      </c>
+      <c r="E202" s="2">
+        <v>45773.45833333334</v>
+      </c>
+      <c r="F202">
+        <v>34</v>
+      </c>
+      <c r="G202" t="s">
+        <v>73</v>
+      </c>
+      <c r="H202" t="s">
+        <v>76</v>
+      </c>
+      <c r="I202">
+        <v>1</v>
+      </c>
+      <c r="J202">
+        <v>1</v>
+      </c>
+      <c r="K202">
+        <v>2</v>
+      </c>
+      <c r="L202">
+        <v>2</v>
+      </c>
+      <c r="M202">
+        <v>2</v>
+      </c>
+      <c r="N202">
+        <v>4</v>
+      </c>
+      <c r="O202" t="s">
+        <v>230</v>
+      </c>
+      <c r="P202" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q202">
+        <v>4.33</v>
+      </c>
+      <c r="R202">
+        <v>2.25</v>
+      </c>
+      <c r="S202">
+        <v>2.5</v>
+      </c>
+      <c r="T202">
+        <v>1.36</v>
+      </c>
+      <c r="U202">
+        <v>3</v>
+      </c>
+      <c r="V202">
+        <v>2.63</v>
+      </c>
+      <c r="W202">
+        <v>1.44</v>
+      </c>
+      <c r="X202">
+        <v>7</v>
+      </c>
+      <c r="Y202">
+        <v>1.1</v>
+      </c>
+      <c r="Z202">
+        <v>3.93</v>
+      </c>
+      <c r="AA202">
+        <v>3.83</v>
+      </c>
+      <c r="AB202">
+        <v>1.81</v>
+      </c>
+      <c r="AC202">
+        <v>1.04</v>
+      </c>
+      <c r="AD202">
+        <v>10</v>
+      </c>
+      <c r="AE202">
+        <v>1.25</v>
+      </c>
+      <c r="AF202">
+        <v>3.75</v>
+      </c>
+      <c r="AG202">
+        <v>1.77</v>
+      </c>
+      <c r="AH202">
+        <v>1.98</v>
+      </c>
+      <c r="AI202">
+        <v>1.7</v>
+      </c>
+      <c r="AJ202">
+        <v>2.05</v>
+      </c>
+      <c r="AK202">
+        <v>1.77</v>
+      </c>
+      <c r="AL202">
+        <v>1.22</v>
+      </c>
+      <c r="AM202">
+        <v>1.3</v>
+      </c>
+      <c r="AN202">
+        <v>1.41</v>
+      </c>
+      <c r="AO202">
+        <v>1.71</v>
+      </c>
+      <c r="AP202">
+        <v>1.39</v>
+      </c>
+      <c r="AQ202">
+        <v>1.67</v>
+      </c>
+      <c r="AR202">
+        <v>1.37</v>
+      </c>
+      <c r="AS202">
+        <v>1.92</v>
+      </c>
+      <c r="AT202">
+        <v>3.29</v>
+      </c>
+      <c r="AU202">
+        <v>4</v>
+      </c>
+      <c r="AV202">
+        <v>5</v>
+      </c>
+      <c r="AW202">
+        <v>7</v>
+      </c>
+      <c r="AX202">
+        <v>6</v>
+      </c>
+      <c r="AY202">
+        <v>11</v>
+      </c>
+      <c r="AZ202">
+        <v>11</v>
+      </c>
+      <c r="BA202">
+        <v>3</v>
+      </c>
+      <c r="BB202">
+        <v>3</v>
+      </c>
+      <c r="BC202">
+        <v>6</v>
+      </c>
+      <c r="BD202">
+        <v>2.65</v>
+      </c>
+      <c r="BE202">
+        <v>6.75</v>
+      </c>
+      <c r="BF202">
+        <v>1.55</v>
+      </c>
+      <c r="BG202">
+        <v>1.21</v>
+      </c>
+      <c r="BH202">
+        <v>3.8</v>
+      </c>
+      <c r="BI202">
+        <v>1.4</v>
+      </c>
+      <c r="BJ202">
+        <v>2.7</v>
+      </c>
+      <c r="BK202">
+        <v>1.65</v>
+      </c>
+      <c r="BL202">
+        <v>2.08</v>
+      </c>
+      <c r="BM202">
+        <v>1.98</v>
+      </c>
+      <c r="BN202">
+        <v>1.72</v>
+      </c>
+      <c r="BO202">
+        <v>2.48</v>
+      </c>
+      <c r="BP202">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="203" spans="1:68">
+      <c r="A203" s="1">
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>7881840</v>
+      </c>
+      <c r="C203" t="s">
+        <v>68</v>
+      </c>
+      <c r="D203" t="s">
+        <v>69</v>
+      </c>
+      <c r="E203" s="2">
+        <v>45773.45833333334</v>
+      </c>
+      <c r="F203">
+        <v>34</v>
+      </c>
+      <c r="G203" t="s">
+        <v>70</v>
+      </c>
+      <c r="H203" t="s">
+        <v>78</v>
+      </c>
+      <c r="I203">
+        <v>0</v>
+      </c>
+      <c r="J203">
+        <v>1</v>
+      </c>
+      <c r="K203">
+        <v>1</v>
+      </c>
+      <c r="L203">
+        <v>0</v>
+      </c>
+      <c r="M203">
+        <v>1</v>
+      </c>
+      <c r="N203">
+        <v>1</v>
+      </c>
+      <c r="O203" t="s">
+        <v>82</v>
+      </c>
+      <c r="P203" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q203">
+        <v>2.05</v>
+      </c>
+      <c r="R203">
+        <v>2.4</v>
+      </c>
+      <c r="S203">
+        <v>6</v>
+      </c>
+      <c r="T203">
+        <v>1.33</v>
+      </c>
+      <c r="U203">
+        <v>3.25</v>
+      </c>
+      <c r="V203">
+        <v>2.5</v>
+      </c>
+      <c r="W203">
+        <v>1.5</v>
+      </c>
+      <c r="X203">
+        <v>6.5</v>
+      </c>
+      <c r="Y203">
+        <v>1.11</v>
+      </c>
+      <c r="Z203">
+        <v>1.51</v>
+      </c>
+      <c r="AA203">
+        <v>4.3</v>
+      </c>
+      <c r="AB203">
+        <v>5.7</v>
+      </c>
+      <c r="AC203">
+        <v>1.04</v>
+      </c>
+      <c r="AD203">
+        <v>10</v>
+      </c>
+      <c r="AE203">
+        <v>1.2</v>
+      </c>
+      <c r="AF203">
+        <v>4.33</v>
+      </c>
+      <c r="AG203">
+        <v>1.73</v>
+      </c>
+      <c r="AH203">
+        <v>2</v>
+      </c>
+      <c r="AI203">
+        <v>1.8</v>
+      </c>
+      <c r="AJ203">
+        <v>1.95</v>
+      </c>
+      <c r="AK203">
+        <v>1.14</v>
+      </c>
+      <c r="AL203">
+        <v>1.17</v>
+      </c>
+      <c r="AM203">
+        <v>2.4</v>
+      </c>
+      <c r="AN203">
+        <v>1.5</v>
+      </c>
+      <c r="AO203">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP203">
+        <v>1.41</v>
+      </c>
+      <c r="AQ203">
+        <v>1.06</v>
+      </c>
+      <c r="AR203">
+        <v>1.75</v>
+      </c>
+      <c r="AS203">
+        <v>1.16</v>
+      </c>
+      <c r="AT203">
+        <v>2.91</v>
+      </c>
+      <c r="AU203">
+        <v>6</v>
+      </c>
+      <c r="AV203">
+        <v>4</v>
+      </c>
+      <c r="AW203">
+        <v>9</v>
+      </c>
+      <c r="AX203">
+        <v>8</v>
+      </c>
+      <c r="AY203">
+        <v>15</v>
+      </c>
+      <c r="AZ203">
+        <v>12</v>
+      </c>
+      <c r="BA203">
+        <v>7</v>
+      </c>
+      <c r="BB203">
+        <v>3</v>
+      </c>
+      <c r="BC203">
+        <v>10</v>
+      </c>
+      <c r="BD203">
+        <v>1.41</v>
+      </c>
+      <c r="BE203">
+        <v>7.5</v>
+      </c>
+      <c r="BF203">
+        <v>3.2</v>
+      </c>
+      <c r="BG203">
+        <v>1.19</v>
+      </c>
+      <c r="BH203">
+        <v>4</v>
+      </c>
+      <c r="BI203">
+        <v>1.34</v>
+      </c>
+      <c r="BJ203">
+        <v>2.9</v>
+      </c>
+      <c r="BK203">
+        <v>1.56</v>
+      </c>
+      <c r="BL203">
+        <v>2.23</v>
+      </c>
+      <c r="BM203">
+        <v>1.89</v>
+      </c>
+      <c r="BN203">
+        <v>1.8</v>
+      </c>
+      <c r="BO203">
+        <v>2.33</v>
+      </c>
+      <c r="BP203">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="204" spans="1:68">
+      <c r="A204" s="1">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>7881841</v>
+      </c>
+      <c r="C204" t="s">
+        <v>68</v>
+      </c>
+      <c r="D204" t="s">
+        <v>69</v>
+      </c>
+      <c r="E204" s="2">
+        <v>45773.45833333334</v>
+      </c>
+      <c r="F204">
+        <v>34</v>
+      </c>
+      <c r="G204" t="s">
+        <v>81</v>
+      </c>
+      <c r="H204" t="s">
+        <v>77</v>
+      </c>
+      <c r="I204">
+        <v>1</v>
+      </c>
+      <c r="J204">
+        <v>0</v>
+      </c>
+      <c r="K204">
+        <v>1</v>
+      </c>
+      <c r="L204">
+        <v>2</v>
+      </c>
+      <c r="M204">
+        <v>0</v>
+      </c>
+      <c r="N204">
+        <v>2</v>
+      </c>
+      <c r="O204" t="s">
+        <v>231</v>
+      </c>
+      <c r="P204" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q204">
+        <v>2.2</v>
+      </c>
+      <c r="R204">
+        <v>2.25</v>
+      </c>
+      <c r="S204">
+        <v>5.5</v>
+      </c>
+      <c r="T204">
+        <v>1.4</v>
+      </c>
+      <c r="U204">
+        <v>2.75</v>
+      </c>
+      <c r="V204">
+        <v>2.75</v>
+      </c>
+      <c r="W204">
+        <v>1.4</v>
+      </c>
+      <c r="X204">
+        <v>8</v>
+      </c>
+      <c r="Y204">
+        <v>1.08</v>
+      </c>
+      <c r="Z204">
+        <v>1.56</v>
+      </c>
+      <c r="AA204">
+        <v>3.83</v>
+      </c>
+      <c r="AB204">
+        <v>6</v>
+      </c>
+      <c r="AC204">
+        <v>1.05</v>
+      </c>
+      <c r="AD204">
+        <v>9</v>
+      </c>
+      <c r="AE204">
+        <v>1.3</v>
+      </c>
+      <c r="AF204">
+        <v>3.45</v>
+      </c>
+      <c r="AG204">
+        <v>1.87</v>
+      </c>
+      <c r="AH204">
+        <v>1.87</v>
+      </c>
+      <c r="AI204">
+        <v>1.95</v>
+      </c>
+      <c r="AJ204">
+        <v>1.8</v>
+      </c>
+      <c r="AK204">
+        <v>1.12</v>
+      </c>
+      <c r="AL204">
+        <v>1.2</v>
+      </c>
+      <c r="AM204">
+        <v>2.35</v>
+      </c>
+      <c r="AN204">
+        <v>1.63</v>
+      </c>
+      <c r="AO204">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP204">
+        <v>1.71</v>
+      </c>
+      <c r="AQ204">
+        <v>0.88</v>
+      </c>
+      <c r="AR204">
+        <v>1.46</v>
+      </c>
+      <c r="AS204">
+        <v>0.99</v>
+      </c>
+      <c r="AT204">
+        <v>2.45</v>
+      </c>
+      <c r="AU204">
+        <v>4</v>
+      </c>
+      <c r="AV204">
+        <v>2</v>
+      </c>
+      <c r="AW204">
+        <v>10</v>
+      </c>
+      <c r="AX204">
+        <v>7</v>
+      </c>
+      <c r="AY204">
+        <v>14</v>
+      </c>
+      <c r="AZ204">
+        <v>9</v>
+      </c>
+      <c r="BA204">
+        <v>5</v>
+      </c>
+      <c r="BB204">
+        <v>4</v>
+      </c>
+      <c r="BC204">
+        <v>9</v>
+      </c>
+      <c r="BD204">
+        <v>1.29</v>
+      </c>
+      <c r="BE204">
+        <v>8</v>
+      </c>
+      <c r="BF204">
+        <v>3.8</v>
+      </c>
+      <c r="BG204">
+        <v>1.17</v>
+      </c>
+      <c r="BH204">
+        <v>4.35</v>
+      </c>
+      <c r="BI204">
+        <v>1.29</v>
+      </c>
+      <c r="BJ204">
+        <v>3.15</v>
+      </c>
+      <c r="BK204">
+        <v>1.48</v>
+      </c>
+      <c r="BL204">
+        <v>2.43</v>
+      </c>
+      <c r="BM204">
+        <v>1.76</v>
+      </c>
+      <c r="BN204">
+        <v>1.93</v>
+      </c>
+      <c r="BO204">
+        <v>2.15</v>
+      </c>
+      <c r="BP204">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="205" spans="1:68">
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>7881842</v>
+      </c>
+      <c r="C205" t="s">
+        <v>68</v>
+      </c>
+      <c r="D205" t="s">
+        <v>69</v>
+      </c>
+      <c r="E205" s="2">
+        <v>45773.45833333334</v>
+      </c>
+      <c r="F205">
+        <v>34</v>
+      </c>
+      <c r="G205" t="s">
+        <v>71</v>
+      </c>
+      <c r="H205" t="s">
+        <v>75</v>
+      </c>
+      <c r="I205">
+        <v>2</v>
+      </c>
+      <c r="J205">
+        <v>1</v>
+      </c>
+      <c r="K205">
+        <v>3</v>
+      </c>
+      <c r="L205">
+        <v>3</v>
+      </c>
+      <c r="M205">
+        <v>2</v>
+      </c>
+      <c r="N205">
+        <v>5</v>
+      </c>
+      <c r="O205" t="s">
+        <v>232</v>
+      </c>
+      <c r="P205" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q205">
+        <v>3.1</v>
+      </c>
+      <c r="R205">
+        <v>2.05</v>
+      </c>
+      <c r="S205">
+        <v>3.75</v>
+      </c>
+      <c r="T205">
+        <v>1.5</v>
+      </c>
+      <c r="U205">
+        <v>2.5</v>
+      </c>
+      <c r="V205">
+        <v>3.4</v>
+      </c>
+      <c r="W205">
+        <v>1.3</v>
+      </c>
+      <c r="X205">
+        <v>10</v>
+      </c>
+      <c r="Y205">
+        <v>1.06</v>
+      </c>
+      <c r="Z205">
+        <v>2.33</v>
+      </c>
+      <c r="AA205">
+        <v>3.17</v>
+      </c>
+      <c r="AB205">
+        <v>3.07</v>
+      </c>
+      <c r="AC205">
+        <v>1.07</v>
+      </c>
+      <c r="AD205">
+        <v>8</v>
+      </c>
+      <c r="AE205">
+        <v>1.4</v>
+      </c>
+      <c r="AF205">
+        <v>2.9</v>
+      </c>
+      <c r="AG205">
+        <v>1.95</v>
+      </c>
+      <c r="AH205">
+        <v>1.75</v>
+      </c>
+      <c r="AI205">
+        <v>1.95</v>
+      </c>
+      <c r="AJ205">
+        <v>1.8</v>
+      </c>
+      <c r="AK205">
+        <v>1.36</v>
+      </c>
+      <c r="AL205">
+        <v>1.28</v>
+      </c>
+      <c r="AM205">
+        <v>1.6</v>
+      </c>
+      <c r="AN205">
+        <v>1.44</v>
+      </c>
+      <c r="AO205">
+        <v>0.71</v>
+      </c>
+      <c r="AP205">
+        <v>1.53</v>
+      </c>
+      <c r="AQ205">
+        <v>0.67</v>
+      </c>
+      <c r="AR205">
+        <v>1.1</v>
+      </c>
+      <c r="AS205">
+        <v>1.01</v>
+      </c>
+      <c r="AT205">
+        <v>2.11</v>
+      </c>
+      <c r="AU205">
+        <v>8</v>
+      </c>
+      <c r="AV205">
+        <v>5</v>
+      </c>
+      <c r="AW205">
+        <v>11</v>
+      </c>
+      <c r="AX205">
+        <v>11</v>
+      </c>
+      <c r="AY205">
+        <v>19</v>
+      </c>
+      <c r="AZ205">
+        <v>16</v>
+      </c>
+      <c r="BA205">
+        <v>5</v>
+      </c>
+      <c r="BB205">
+        <v>9</v>
+      </c>
+      <c r="BC205">
+        <v>14</v>
+      </c>
+      <c r="BD205">
+        <v>1.75</v>
+      </c>
+      <c r="BE205">
+        <v>6.4</v>
+      </c>
+      <c r="BF205">
+        <v>2.3</v>
+      </c>
+      <c r="BG205">
+        <v>1.26</v>
+      </c>
+      <c r="BH205">
+        <v>3.4</v>
+      </c>
+      <c r="BI205">
+        <v>1.46</v>
+      </c>
+      <c r="BJ205">
+        <v>2.48</v>
+      </c>
+      <c r="BK205">
+        <v>1.76</v>
+      </c>
+      <c r="BL205">
+        <v>1.93</v>
+      </c>
+      <c r="BM205">
+        <v>2.18</v>
+      </c>
+      <c r="BN205">
+        <v>1.58</v>
+      </c>
+      <c r="BO205">
+        <v>2.8</v>
+      </c>
+      <c r="BP205">
+        <v>1.37</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Scotland Premiership_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Scotland Premiership_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="337">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -715,6 +715,12 @@
     <t>['39', '40', '48']</t>
   </si>
   <si>
+    <t>['3', '14', '87']</t>
+  </si>
+  <si>
+    <t>['26']</t>
+  </si>
+  <si>
     <t>['18', '79']</t>
   </si>
   <si>
@@ -803,9 +809,6 @@
   </si>
   <si>
     <t>['27', '56', '88']</t>
-  </si>
-  <si>
-    <t>['26']</t>
   </si>
   <si>
     <t>['8']</t>
@@ -1013,6 +1016,15 @@
   </si>
   <si>
     <t>['6', '66']</t>
+  </si>
+  <si>
+    <t>['59', '90+1']</t>
+  </si>
+  <si>
+    <t>['40', '58', '82']</t>
+  </si>
+  <si>
+    <t>['12', '53']</t>
   </si>
 </sst>
 </file>
@@ -1374,7 +1386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP205"/>
+  <dimension ref="A1:BP210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2045,7 +2057,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -2329,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ5">
         <v>1.24</v>
@@ -2538,7 +2550,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ6">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2663,7 +2675,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q7">
         <v>3.6</v>
@@ -2741,10 +2753,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ7">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2950,7 +2962,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ8">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3075,7 +3087,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q9">
         <v>3.2</v>
@@ -3153,10 +3165,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ9">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3359,10 +3371,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ10">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3487,7 +3499,7 @@
         <v>82</v>
       </c>
       <c r="P11" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3565,7 +3577,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ11">
         <v>2.24</v>
@@ -3693,7 +3705,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3899,7 +3911,7 @@
         <v>82</v>
       </c>
       <c r="P13" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q13">
         <v>2.4</v>
@@ -4517,7 +4529,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4595,7 +4607,7 @@
         <v>1</v>
       </c>
       <c r="AP16">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ16">
         <v>1.06</v>
@@ -4723,7 +4735,7 @@
         <v>82</v>
       </c>
       <c r="P17" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q17">
         <v>7.5</v>
@@ -4801,7 +4813,7 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ17">
         <v>2.24</v>
@@ -5010,7 +5022,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ18">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR18">
         <v>1.47</v>
@@ -5216,7 +5228,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ19">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="AR19">
         <v>1.1</v>
@@ -5341,7 +5353,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q20">
         <v>2.75</v>
@@ -5419,7 +5431,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ20">
         <v>1.06</v>
@@ -5547,7 +5559,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5625,10 +5637,10 @@
         <v>0</v>
       </c>
       <c r="AP21">
+        <v>1</v>
+      </c>
+      <c r="AQ21">
         <v>1.06</v>
-      </c>
-      <c r="AQ21">
-        <v>0.9399999999999999</v>
       </c>
       <c r="AR21">
         <v>1.39</v>
@@ -5753,7 +5765,7 @@
         <v>82</v>
       </c>
       <c r="P22" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5831,10 +5843,10 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ22">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR22">
         <v>1.66</v>
@@ -6165,7 +6177,7 @@
         <v>82</v>
       </c>
       <c r="P24" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q24">
         <v>2.38</v>
@@ -6246,7 +6258,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ24">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR24">
         <v>1.14</v>
@@ -6371,7 +6383,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6655,7 +6667,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ26">
         <v>1.06</v>
@@ -6861,7 +6873,7 @@
         <v>1.5</v>
       </c>
       <c r="AP27">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ27">
         <v>0.67</v>
@@ -6989,7 +7001,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -7067,10 +7079,10 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ28">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="AR28">
         <v>0.76</v>
@@ -7276,7 +7288,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ29">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR29">
         <v>2.21</v>
@@ -7482,7 +7494,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ30">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR30">
         <v>1.12</v>
@@ -7891,10 +7903,10 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ32">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR32">
         <v>0.87</v>
@@ -8019,7 +8031,7 @@
         <v>106</v>
       </c>
       <c r="P33" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q33">
         <v>2.75</v>
@@ -8097,7 +8109,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ33">
         <v>0.67</v>
@@ -8225,7 +8237,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q34">
         <v>3.5</v>
@@ -8303,10 +8315,10 @@
         <v>3</v>
       </c>
       <c r="AP34">
+        <v>1.06</v>
+      </c>
+      <c r="AQ34">
         <v>1.12</v>
-      </c>
-      <c r="AQ34">
-        <v>1.19</v>
       </c>
       <c r="AR34">
         <v>1.5</v>
@@ -8637,7 +8649,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8718,7 +8730,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ36">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR36">
         <v>1.32</v>
@@ -8843,7 +8855,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -9049,7 +9061,7 @@
         <v>82</v>
       </c>
       <c r="P38" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q38">
         <v>10</v>
@@ -9127,7 +9139,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ38">
         <v>2.24</v>
@@ -9461,7 +9473,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9539,10 +9551,10 @@
         <v>0.33</v>
       </c>
       <c r="AP40">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ40">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="AR40">
         <v>1.64</v>
@@ -9667,7 +9679,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q41">
         <v>2.63</v>
@@ -9745,10 +9757,10 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ41">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR41">
         <v>1.12</v>
@@ -9873,7 +9885,7 @@
         <v>82</v>
       </c>
       <c r="P42" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9951,10 +9963,10 @@
         <v>1.67</v>
       </c>
       <c r="AP42">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ42">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR42">
         <v>0.9399999999999999</v>
@@ -10079,7 +10091,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q43">
         <v>9.5</v>
@@ -10157,7 +10169,7 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ43">
         <v>2.24</v>
@@ -10285,7 +10297,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q44">
         <v>2.25</v>
@@ -10366,7 +10378,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ44">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR44">
         <v>1.19</v>
@@ -10775,7 +10787,7 @@
         <v>0.67</v>
       </c>
       <c r="AP46">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ46">
         <v>0.88</v>
@@ -10903,7 +10915,7 @@
         <v>118</v>
       </c>
       <c r="P47" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q47">
         <v>1.67</v>
@@ -10984,7 +10996,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ47">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR47">
         <v>2.16</v>
@@ -11315,7 +11327,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11521,7 +11533,7 @@
         <v>82</v>
       </c>
       <c r="P50" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q50">
         <v>2.63</v>
@@ -11933,7 +11945,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -12011,7 +12023,7 @@
         <v>0.8</v>
       </c>
       <c r="AP52">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ52">
         <v>0.67</v>
@@ -12139,7 +12151,7 @@
         <v>123</v>
       </c>
       <c r="P53" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q53">
         <v>3.75</v>
@@ -12217,10 +12229,10 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ53">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="AR53">
         <v>1.34</v>
@@ -12426,7 +12438,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ54">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR54">
         <v>1.17</v>
@@ -12629,10 +12641,10 @@
         <v>0</v>
       </c>
       <c r="AP55">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ55">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR55">
         <v>1.27</v>
@@ -12757,7 +12769,7 @@
         <v>82</v>
       </c>
       <c r="P56" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q56">
         <v>7.5</v>
@@ -12963,7 +12975,7 @@
         <v>126</v>
       </c>
       <c r="P57" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="Q57">
         <v>1.62</v>
@@ -13169,7 +13181,7 @@
         <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q58">
         <v>2.38</v>
@@ -13247,7 +13259,7 @@
         <v>1.17</v>
       </c>
       <c r="AP58">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ58">
         <v>0.67</v>
@@ -13375,7 +13387,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q59">
         <v>2.4</v>
@@ -13456,7 +13468,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ59">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="AR59">
         <v>1.54</v>
@@ -13581,7 +13593,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q60">
         <v>2.75</v>
@@ -13662,7 +13674,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ60">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR60">
         <v>1.15</v>
@@ -14071,7 +14083,7 @@
         <v>0.25</v>
       </c>
       <c r="AP62">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ62">
         <v>1.24</v>
@@ -14199,7 +14211,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q63">
         <v>4.33</v>
@@ -14405,7 +14417,7 @@
         <v>132</v>
       </c>
       <c r="P64" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q64">
         <v>4.5</v>
@@ -14483,10 +14495,10 @@
         <v>0.17</v>
       </c>
       <c r="AP64">
+        <v>1</v>
+      </c>
+      <c r="AQ64">
         <v>1.06</v>
-      </c>
-      <c r="AQ64">
-        <v>0.9399999999999999</v>
       </c>
       <c r="AR64">
         <v>1.33</v>
@@ -14689,7 +14701,7 @@
         <v>0.5</v>
       </c>
       <c r="AP65">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ65">
         <v>0.88</v>
@@ -14817,7 +14829,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q66">
         <v>2.4</v>
@@ -14895,10 +14907,10 @@
         <v>1.6</v>
       </c>
       <c r="AP66">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ66">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR66">
         <v>1.3</v>
@@ -15023,7 +15035,7 @@
         <v>134</v>
       </c>
       <c r="P67" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -15101,10 +15113,10 @@
         <v>1.17</v>
       </c>
       <c r="AP67">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ67">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="AR67">
         <v>1.42</v>
@@ -15229,7 +15241,7 @@
         <v>135</v>
       </c>
       <c r="P68" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q68">
         <v>2.5</v>
@@ -15435,7 +15447,7 @@
         <v>136</v>
       </c>
       <c r="P69" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q69">
         <v>2.5</v>
@@ -15513,7 +15525,7 @@
         <v>0.2</v>
       </c>
       <c r="AP69">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ69">
         <v>1.06</v>
@@ -15847,7 +15859,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q71">
         <v>2.25</v>
@@ -16053,7 +16065,7 @@
         <v>82</v>
       </c>
       <c r="P72" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -16340,7 +16352,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ73">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR73">
         <v>1.87</v>
@@ -16465,7 +16477,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q74">
         <v>3.4</v>
@@ -16543,10 +16555,10 @@
         <v>1.8</v>
       </c>
       <c r="AP74">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ74">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR74">
         <v>1.29</v>
@@ -16749,10 +16761,10 @@
         <v>1</v>
       </c>
       <c r="AP75">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ75">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="AR75">
         <v>1.37</v>
@@ -16958,7 +16970,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ76">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR76">
         <v>1.75</v>
@@ -17083,7 +17095,7 @@
         <v>143</v>
       </c>
       <c r="P77" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q77">
         <v>3.6</v>
@@ -17161,10 +17173,10 @@
         <v>2.5</v>
       </c>
       <c r="AP77">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ77">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR77">
         <v>1.13</v>
@@ -17289,7 +17301,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q78">
         <v>3.25</v>
@@ -17367,7 +17379,7 @@
         <v>0.4</v>
       </c>
       <c r="AP78">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ78">
         <v>1.24</v>
@@ -17495,7 +17507,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q79">
         <v>6.5</v>
@@ -17701,7 +17713,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q80">
         <v>3.4</v>
@@ -17779,10 +17791,10 @@
         <v>2</v>
       </c>
       <c r="AP80">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ80">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR80">
         <v>1.33</v>
@@ -18113,7 +18125,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q82">
         <v>2.63</v>
@@ -18319,7 +18331,7 @@
         <v>82</v>
       </c>
       <c r="P83" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q83">
         <v>3.25</v>
@@ -18731,7 +18743,7 @@
         <v>82</v>
       </c>
       <c r="P85" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q85">
         <v>7.5</v>
@@ -18809,7 +18821,7 @@
         <v>0.8</v>
       </c>
       <c r="AP85">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ85">
         <v>1.67</v>
@@ -18937,7 +18949,7 @@
         <v>150</v>
       </c>
       <c r="P86" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -19018,7 +19030,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ86">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR86">
         <v>1.56</v>
@@ -19221,10 +19233,10 @@
         <v>1.5</v>
       </c>
       <c r="AP87">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ87">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR87">
         <v>1.42</v>
@@ -19430,7 +19442,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ88">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="AR88">
         <v>1.99</v>
@@ -19555,7 +19567,7 @@
         <v>82</v>
       </c>
       <c r="P89" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -20254,7 +20266,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ92">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="AR92">
         <v>1.35</v>
@@ -20663,10 +20675,10 @@
         <v>1.29</v>
       </c>
       <c r="AP94">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ94">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR94">
         <v>1.21</v>
@@ -20791,7 +20803,7 @@
         <v>82</v>
       </c>
       <c r="P95" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q95">
         <v>10</v>
@@ -20869,7 +20881,7 @@
         <v>1.17</v>
       </c>
       <c r="AP95">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ95">
         <v>1.67</v>
@@ -20997,7 +21009,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -21078,7 +21090,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ96">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR96">
         <v>1.21</v>
@@ -21203,7 +21215,7 @@
         <v>158</v>
       </c>
       <c r="P97" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q97">
         <v>3.5</v>
@@ -21281,7 +21293,7 @@
         <v>0.57</v>
       </c>
       <c r="AP97">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ97">
         <v>1.06</v>
@@ -21409,7 +21421,7 @@
         <v>159</v>
       </c>
       <c r="P98" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q98">
         <v>2.05</v>
@@ -21487,7 +21499,7 @@
         <v>0.43</v>
       </c>
       <c r="AP98">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ98">
         <v>0.88</v>
@@ -21696,7 +21708,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ99">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR99">
         <v>1.4</v>
@@ -21821,7 +21833,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q100">
         <v>3.1</v>
@@ -21902,7 +21914,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ100">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="AR100">
         <v>1.24</v>
@@ -22233,7 +22245,7 @@
         <v>162</v>
       </c>
       <c r="P102" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q102">
         <v>4</v>
@@ -22311,7 +22323,7 @@
         <v>0.88</v>
       </c>
       <c r="AP102">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ102">
         <v>1.06</v>
@@ -22439,7 +22451,7 @@
         <v>163</v>
       </c>
       <c r="P103" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -23057,7 +23069,7 @@
         <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q106">
         <v>2.75</v>
@@ -23263,7 +23275,7 @@
         <v>128</v>
       </c>
       <c r="P107" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23341,10 +23353,10 @@
         <v>1.25</v>
       </c>
       <c r="AP107">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ107">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR107">
         <v>1.25</v>
@@ -23550,7 +23562,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ108">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR108">
         <v>1.35</v>
@@ -23675,7 +23687,7 @@
         <v>82</v>
       </c>
       <c r="P109" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q109">
         <v>2.38</v>
@@ -23753,7 +23765,7 @@
         <v>0.38</v>
       </c>
       <c r="AP109">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ109">
         <v>0.88</v>
@@ -23962,7 +23974,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ110">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR110">
         <v>2.23</v>
@@ -24165,7 +24177,7 @@
         <v>1.43</v>
       </c>
       <c r="AP111">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ111">
         <v>1.67</v>
@@ -24293,7 +24305,7 @@
         <v>169</v>
       </c>
       <c r="P112" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -24371,10 +24383,10 @@
         <v>0.44</v>
       </c>
       <c r="AP112">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ112">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR112">
         <v>1.24</v>
@@ -24499,7 +24511,7 @@
         <v>170</v>
       </c>
       <c r="P113" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q113">
         <v>2.65</v>
@@ -24577,7 +24589,7 @@
         <v>0.67</v>
       </c>
       <c r="AP113">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ113">
         <v>1.06</v>
@@ -24705,7 +24717,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q114">
         <v>7</v>
@@ -24989,10 +25001,10 @@
         <v>0.82</v>
       </c>
       <c r="AP115">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ115">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="AR115">
         <v>1.47</v>
@@ -25404,7 +25416,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ117">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR117">
         <v>1.33</v>
@@ -25529,7 +25541,7 @@
         <v>174</v>
       </c>
       <c r="P118" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q118">
         <v>2</v>
@@ -25816,7 +25828,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ119">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR119">
         <v>1.65</v>
@@ -26431,7 +26443,7 @@
         <v>1.1</v>
       </c>
       <c r="AP122">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ122">
         <v>1.24</v>
@@ -26559,7 +26571,7 @@
         <v>179</v>
       </c>
       <c r="P123" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q123">
         <v>3.2</v>
@@ -26637,10 +26649,10 @@
         <v>1.44</v>
       </c>
       <c r="AP123">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ123">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR123">
         <v>1.36</v>
@@ -26765,7 +26777,7 @@
         <v>180</v>
       </c>
       <c r="P124" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q124">
         <v>6.5</v>
@@ -26843,7 +26855,7 @@
         <v>1.22</v>
       </c>
       <c r="AP124">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ124">
         <v>1.67</v>
@@ -27052,7 +27064,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ125">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR125">
         <v>1.17</v>
@@ -27177,7 +27189,7 @@
         <v>82</v>
       </c>
       <c r="P126" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q126">
         <v>3</v>
@@ -27258,7 +27270,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ126">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR126">
         <v>1.36</v>
@@ -27383,7 +27395,7 @@
         <v>182</v>
       </c>
       <c r="P127" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q127">
         <v>3.2</v>
@@ -27461,7 +27473,7 @@
         <v>0.9</v>
       </c>
       <c r="AP127">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ127">
         <v>1.06</v>
@@ -27589,7 +27601,7 @@
         <v>82</v>
       </c>
       <c r="P128" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q128">
         <v>2.05</v>
@@ -28082,7 +28094,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ130">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR130">
         <v>2.28</v>
@@ -28288,7 +28300,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ131">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR131">
         <v>1.4</v>
@@ -28491,7 +28503,7 @@
         <v>1.2</v>
       </c>
       <c r="AP132">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ132">
         <v>1.67</v>
@@ -28619,7 +28631,7 @@
         <v>185</v>
       </c>
       <c r="P133" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q133">
         <v>10</v>
@@ -28697,7 +28709,7 @@
         <v>2.5</v>
       </c>
       <c r="AP133">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ133">
         <v>2.24</v>
@@ -28825,7 +28837,7 @@
         <v>186</v>
       </c>
       <c r="P134" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q134">
         <v>2.35</v>
@@ -28903,10 +28915,10 @@
         <v>1.18</v>
       </c>
       <c r="AP134">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ134">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR134">
         <v>1.42</v>
@@ -29109,10 +29121,10 @@
         <v>1.45</v>
       </c>
       <c r="AP135">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ135">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR135">
         <v>1.22</v>
@@ -29318,7 +29330,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ136">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR136">
         <v>1.38</v>
@@ -29649,7 +29661,7 @@
         <v>188</v>
       </c>
       <c r="P138" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q138">
         <v>10</v>
@@ -29727,7 +29739,7 @@
         <v>2.55</v>
       </c>
       <c r="AP138">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ138">
         <v>2.24</v>
@@ -29936,7 +29948,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ139">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR139">
         <v>2</v>
@@ -30061,7 +30073,7 @@
         <v>190</v>
       </c>
       <c r="P140" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q140">
         <v>2.5</v>
@@ -30142,7 +30154,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ140">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="AR140">
         <v>1.67</v>
@@ -30345,10 +30357,10 @@
         <v>1.08</v>
       </c>
       <c r="AP141">
+        <v>1</v>
+      </c>
+      <c r="AQ141">
         <v>1.06</v>
-      </c>
-      <c r="AQ141">
-        <v>0.9399999999999999</v>
       </c>
       <c r="AR141">
         <v>1.28</v>
@@ -30473,7 +30485,7 @@
         <v>121</v>
       </c>
       <c r="P142" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q142">
         <v>4</v>
@@ -30551,7 +30563,7 @@
         <v>1.09</v>
       </c>
       <c r="AP142">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ142">
         <v>1.24</v>
@@ -30679,7 +30691,7 @@
         <v>82</v>
       </c>
       <c r="P143" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q143">
         <v>2.63</v>
@@ -30885,7 +30897,7 @@
         <v>192</v>
       </c>
       <c r="P144" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q144">
         <v>5.5</v>
@@ -31091,7 +31103,7 @@
         <v>82</v>
       </c>
       <c r="P145" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q145">
         <v>3.5</v>
@@ -31169,10 +31181,10 @@
         <v>0.75</v>
       </c>
       <c r="AP145">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ145">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR145">
         <v>1.31</v>
@@ -31375,10 +31387,10 @@
         <v>1.09</v>
       </c>
       <c r="AP146">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ146">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR146">
         <v>1.38</v>
@@ -31503,7 +31515,7 @@
         <v>82</v>
       </c>
       <c r="P147" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q147">
         <v>2.5</v>
@@ -31581,7 +31593,7 @@
         <v>0.67</v>
       </c>
       <c r="AP147">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ147">
         <v>0.67</v>
@@ -31790,7 +31802,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ148">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR148">
         <v>1.42</v>
@@ -31915,7 +31927,7 @@
         <v>195</v>
       </c>
       <c r="P149" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q149">
         <v>10</v>
@@ -32533,7 +32545,7 @@
         <v>198</v>
       </c>
       <c r="P152" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q152">
         <v>3.2</v>
@@ -32611,10 +32623,10 @@
         <v>1</v>
       </c>
       <c r="AP152">
+        <v>1.06</v>
+      </c>
+      <c r="AQ152">
         <v>1.12</v>
-      </c>
-      <c r="AQ152">
-        <v>1.19</v>
       </c>
       <c r="AR152">
         <v>1.3</v>
@@ -32820,7 +32832,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ153">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR153">
         <v>2.26</v>
@@ -32945,7 +32957,7 @@
         <v>82</v>
       </c>
       <c r="P154" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q154">
         <v>2.75</v>
@@ -33357,7 +33369,7 @@
         <v>201</v>
       </c>
       <c r="P156" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q156">
         <v>5</v>
@@ -33641,7 +33653,7 @@
         <v>1.08</v>
       </c>
       <c r="AP157">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ157">
         <v>1.24</v>
@@ -33847,7 +33859,7 @@
         <v>2.46</v>
       </c>
       <c r="AP158">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ158">
         <v>2.24</v>
@@ -34056,7 +34068,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ159">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="AR159">
         <v>1.39</v>
@@ -34262,7 +34274,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ160">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR160">
         <v>1.35</v>
@@ -34465,7 +34477,7 @@
         <v>1</v>
       </c>
       <c r="AP161">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ161">
         <v>1.06</v>
@@ -34593,7 +34605,7 @@
         <v>82</v>
       </c>
       <c r="P162" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q162">
         <v>1.57</v>
@@ -34799,7 +34811,7 @@
         <v>141</v>
       </c>
       <c r="P163" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q163">
         <v>4.33</v>
@@ -34877,10 +34889,10 @@
         <v>0.92</v>
       </c>
       <c r="AP163">
+        <v>1</v>
+      </c>
+      <c r="AQ163">
         <v>1.06</v>
-      </c>
-      <c r="AQ163">
-        <v>0.9399999999999999</v>
       </c>
       <c r="AR163">
         <v>1.34</v>
@@ -35005,7 +35017,7 @@
         <v>206</v>
       </c>
       <c r="P164" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q164">
         <v>1.57</v>
@@ -35086,7 +35098,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ164">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR164">
         <v>2.28</v>
@@ -35417,7 +35429,7 @@
         <v>139</v>
       </c>
       <c r="P166" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q166">
         <v>3.4</v>
@@ -35623,7 +35635,7 @@
         <v>208</v>
       </c>
       <c r="P167" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q167">
         <v>2.4</v>
@@ -35907,7 +35919,7 @@
         <v>1.15</v>
       </c>
       <c r="AP168">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ168">
         <v>0.88</v>
@@ -36035,7 +36047,7 @@
         <v>209</v>
       </c>
       <c r="P169" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q169">
         <v>5.5</v>
@@ -36241,7 +36253,7 @@
         <v>198</v>
       </c>
       <c r="P170" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q170">
         <v>1.53</v>
@@ -36322,7 +36334,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ170">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR170">
         <v>2.14</v>
@@ -36525,7 +36537,7 @@
         <v>0.79</v>
       </c>
       <c r="AP171">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ171">
         <v>0.67</v>
@@ -36731,10 +36743,10 @@
         <v>0.64</v>
       </c>
       <c r="AP172">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ172">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="AR172">
         <v>1.27</v>
@@ -36859,7 +36871,7 @@
         <v>211</v>
       </c>
       <c r="P173" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q173">
         <v>10</v>
@@ -36937,7 +36949,7 @@
         <v>2.29</v>
       </c>
       <c r="AP173">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ173">
         <v>2.24</v>
@@ -37065,7 +37077,7 @@
         <v>212</v>
       </c>
       <c r="P174" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q174">
         <v>3</v>
@@ -37143,10 +37155,10 @@
         <v>1.07</v>
       </c>
       <c r="AP174">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ174">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR174">
         <v>1.38</v>
@@ -37271,7 +37283,7 @@
         <v>213</v>
       </c>
       <c r="P175" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q175">
         <v>2.88</v>
@@ -37352,7 +37364,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ175">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR175">
         <v>1.38</v>
@@ -37889,7 +37901,7 @@
         <v>215</v>
       </c>
       <c r="P178" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q178">
         <v>3.4</v>
@@ -38173,10 +38185,10 @@
         <v>1.07</v>
       </c>
       <c r="AP179">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ179">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR179">
         <v>1.35</v>
@@ -38301,7 +38313,7 @@
         <v>216</v>
       </c>
       <c r="P180" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q180">
         <v>2.25</v>
@@ -38507,7 +38519,7 @@
         <v>217</v>
       </c>
       <c r="P181" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q181">
         <v>2.4</v>
@@ -38794,7 +38806,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ182">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR182">
         <v>2.24</v>
@@ -38997,7 +39009,7 @@
         <v>0.8</v>
       </c>
       <c r="AP183">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ183">
         <v>0.67</v>
@@ -39203,10 +39215,10 @@
         <v>0.6</v>
       </c>
       <c r="AP184">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ184">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="AR184">
         <v>1.35</v>
@@ -39331,7 +39343,7 @@
         <v>221</v>
       </c>
       <c r="P185" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q185">
         <v>2.3</v>
@@ -39412,7 +39424,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ185">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR185">
         <v>1.44</v>
@@ -39537,7 +39549,7 @@
         <v>222</v>
       </c>
       <c r="P186" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q186">
         <v>6.5</v>
@@ -39615,7 +39627,7 @@
         <v>1.67</v>
       </c>
       <c r="AP186">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ186">
         <v>1.67</v>
@@ -39743,7 +39755,7 @@
         <v>82</v>
       </c>
       <c r="P187" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q187">
         <v>3.6</v>
@@ -39821,10 +39833,10 @@
         <v>1.33</v>
       </c>
       <c r="AP187">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ187">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR187">
         <v>1.25</v>
@@ -39949,7 +39961,7 @@
         <v>82</v>
       </c>
       <c r="P188" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q188">
         <v>1.95</v>
@@ -40155,7 +40167,7 @@
         <v>82</v>
       </c>
       <c r="P189" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q189">
         <v>3.75</v>
@@ -40233,10 +40245,10 @@
         <v>1.07</v>
       </c>
       <c r="AP189">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ189">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR189">
         <v>1.23</v>
@@ -40442,7 +40454,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ190">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR190">
         <v>1.41</v>
@@ -40645,7 +40657,7 @@
         <v>1.13</v>
       </c>
       <c r="AP191">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ191">
         <v>1.06</v>
@@ -40851,7 +40863,7 @@
         <v>2.33</v>
       </c>
       <c r="AP192">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ192">
         <v>2.24</v>
@@ -41060,7 +41072,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ193">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR193">
         <v>1.73</v>
@@ -41185,7 +41197,7 @@
         <v>226</v>
       </c>
       <c r="P194" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q194">
         <v>1.57</v>
@@ -41266,7 +41278,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ194">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="AR194">
         <v>2.2</v>
@@ -41678,7 +41690,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ196">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR196">
         <v>1.14</v>
@@ -41803,7 +41815,7 @@
         <v>227</v>
       </c>
       <c r="P197" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q197">
         <v>2.3</v>
@@ -41881,7 +41893,7 @@
         <v>1</v>
       </c>
       <c r="AP197">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ197">
         <v>0.88</v>
@@ -42009,7 +42021,7 @@
         <v>228</v>
       </c>
       <c r="P198" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q198">
         <v>4.33</v>
@@ -42293,7 +42305,7 @@
         <v>1</v>
       </c>
       <c r="AP199">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ199">
         <v>1.06</v>
@@ -42421,7 +42433,7 @@
         <v>82</v>
       </c>
       <c r="P200" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q200">
         <v>7.5</v>
@@ -42833,7 +42845,7 @@
         <v>230</v>
       </c>
       <c r="P202" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q202">
         <v>4.33</v>
@@ -42911,7 +42923,7 @@
         <v>1.71</v>
       </c>
       <c r="AP202">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ202">
         <v>1.67</v>
@@ -43039,7 +43051,7 @@
         <v>82</v>
       </c>
       <c r="P203" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q203">
         <v>2.05</v>
@@ -43451,7 +43463,7 @@
         <v>232</v>
       </c>
       <c r="P205" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q205">
         <v>3.1</v>
@@ -43608,6 +43620,1036 @@
       </c>
       <c r="BP205">
         <v>1.37</v>
+      </c>
+    </row>
+    <row r="206" spans="1:68">
+      <c r="A206" s="1">
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>7881843</v>
+      </c>
+      <c r="C206" t="s">
+        <v>68</v>
+      </c>
+      <c r="D206" t="s">
+        <v>69</v>
+      </c>
+      <c r="E206" s="2">
+        <v>45780.45833333334</v>
+      </c>
+      <c r="F206">
+        <v>35</v>
+      </c>
+      <c r="G206" t="s">
+        <v>79</v>
+      </c>
+      <c r="H206" t="s">
+        <v>72</v>
+      </c>
+      <c r="I206">
+        <v>2</v>
+      </c>
+      <c r="J206">
+        <v>0</v>
+      </c>
+      <c r="K206">
+        <v>2</v>
+      </c>
+      <c r="L206">
+        <v>3</v>
+      </c>
+      <c r="M206">
+        <v>1</v>
+      </c>
+      <c r="N206">
+        <v>4</v>
+      </c>
+      <c r="O206" t="s">
+        <v>233</v>
+      </c>
+      <c r="P206" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q206">
+        <v>2.3</v>
+      </c>
+      <c r="R206">
+        <v>2.2</v>
+      </c>
+      <c r="S206">
+        <v>5</v>
+      </c>
+      <c r="T206">
+        <v>1.4</v>
+      </c>
+      <c r="U206">
+        <v>2.75</v>
+      </c>
+      <c r="V206">
+        <v>2.75</v>
+      </c>
+      <c r="W206">
+        <v>1.4</v>
+      </c>
+      <c r="X206">
+        <v>8</v>
+      </c>
+      <c r="Y206">
+        <v>1.08</v>
+      </c>
+      <c r="Z206">
+        <v>1.74</v>
+      </c>
+      <c r="AA206">
+        <v>3.6</v>
+      </c>
+      <c r="AB206">
+        <v>4.6</v>
+      </c>
+      <c r="AC206">
+        <v>1.06</v>
+      </c>
+      <c r="AD206">
+        <v>8.5</v>
+      </c>
+      <c r="AE206">
+        <v>1.3</v>
+      </c>
+      <c r="AF206">
+        <v>3.46</v>
+      </c>
+      <c r="AG206">
+        <v>1.94</v>
+      </c>
+      <c r="AH206">
+        <v>1.8</v>
+      </c>
+      <c r="AI206">
+        <v>1.95</v>
+      </c>
+      <c r="AJ206">
+        <v>1.8</v>
+      </c>
+      <c r="AK206">
+        <v>1.19</v>
+      </c>
+      <c r="AL206">
+        <v>1.28</v>
+      </c>
+      <c r="AM206">
+        <v>2</v>
+      </c>
+      <c r="AN206">
+        <v>1.88</v>
+      </c>
+      <c r="AO206">
+        <v>1.53</v>
+      </c>
+      <c r="AP206">
+        <v>1.94</v>
+      </c>
+      <c r="AQ206">
+        <v>1.44</v>
+      </c>
+      <c r="AR206">
+        <v>1.45</v>
+      </c>
+      <c r="AS206">
+        <v>1.28</v>
+      </c>
+      <c r="AT206">
+        <v>2.73</v>
+      </c>
+      <c r="AU206">
+        <v>12</v>
+      </c>
+      <c r="AV206">
+        <v>5</v>
+      </c>
+      <c r="AW206">
+        <v>6</v>
+      </c>
+      <c r="AX206">
+        <v>9</v>
+      </c>
+      <c r="AY206">
+        <v>18</v>
+      </c>
+      <c r="AZ206">
+        <v>14</v>
+      </c>
+      <c r="BA206">
+        <v>7</v>
+      </c>
+      <c r="BB206">
+        <v>4</v>
+      </c>
+      <c r="BC206">
+        <v>11</v>
+      </c>
+      <c r="BD206">
+        <v>1.38</v>
+      </c>
+      <c r="BE206">
+        <v>7.5</v>
+      </c>
+      <c r="BF206">
+        <v>3.3</v>
+      </c>
+      <c r="BG206">
+        <v>1.18</v>
+      </c>
+      <c r="BH206">
+        <v>4.2</v>
+      </c>
+      <c r="BI206">
+        <v>1.32</v>
+      </c>
+      <c r="BJ206">
+        <v>3.05</v>
+      </c>
+      <c r="BK206">
+        <v>1.53</v>
+      </c>
+      <c r="BL206">
+        <v>2.32</v>
+      </c>
+      <c r="BM206">
+        <v>1.82</v>
+      </c>
+      <c r="BN206">
+        <v>1.86</v>
+      </c>
+      <c r="BO206">
+        <v>2.23</v>
+      </c>
+      <c r="BP206">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="207" spans="1:68">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>7881844</v>
+      </c>
+      <c r="C207" t="s">
+        <v>68</v>
+      </c>
+      <c r="D207" t="s">
+        <v>69</v>
+      </c>
+      <c r="E207" s="2">
+        <v>45780.45833333334</v>
+      </c>
+      <c r="F207">
+        <v>35</v>
+      </c>
+      <c r="G207" t="s">
+        <v>73</v>
+      </c>
+      <c r="H207" t="s">
+        <v>80</v>
+      </c>
+      <c r="I207">
+        <v>0</v>
+      </c>
+      <c r="J207">
+        <v>0</v>
+      </c>
+      <c r="K207">
+        <v>0</v>
+      </c>
+      <c r="L207">
+        <v>1</v>
+      </c>
+      <c r="M207">
+        <v>0</v>
+      </c>
+      <c r="N207">
+        <v>1</v>
+      </c>
+      <c r="O207" t="s">
+        <v>185</v>
+      </c>
+      <c r="P207" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q207">
+        <v>3.2</v>
+      </c>
+      <c r="R207">
+        <v>2.2</v>
+      </c>
+      <c r="S207">
+        <v>3.2</v>
+      </c>
+      <c r="T207">
+        <v>1.36</v>
+      </c>
+      <c r="U207">
+        <v>3</v>
+      </c>
+      <c r="V207">
+        <v>2.75</v>
+      </c>
+      <c r="W207">
+        <v>1.4</v>
+      </c>
+      <c r="X207">
+        <v>7</v>
+      </c>
+      <c r="Y207">
+        <v>1.1</v>
+      </c>
+      <c r="Z207">
+        <v>2.59</v>
+      </c>
+      <c r="AA207">
+        <v>3.23</v>
+      </c>
+      <c r="AB207">
+        <v>2.68</v>
+      </c>
+      <c r="AC207">
+        <v>1.05</v>
+      </c>
+      <c r="AD207">
+        <v>9.5</v>
+      </c>
+      <c r="AE207">
+        <v>1.26</v>
+      </c>
+      <c r="AF207">
+        <v>3.82</v>
+      </c>
+      <c r="AG207">
+        <v>1.85</v>
+      </c>
+      <c r="AH207">
+        <v>1.89</v>
+      </c>
+      <c r="AI207">
+        <v>1.7</v>
+      </c>
+      <c r="AJ207">
+        <v>2.05</v>
+      </c>
+      <c r="AK207">
+        <v>1.46</v>
+      </c>
+      <c r="AL207">
+        <v>1.3</v>
+      </c>
+      <c r="AM207">
+        <v>1.49</v>
+      </c>
+      <c r="AN207">
+        <v>1.39</v>
+      </c>
+      <c r="AO207">
+        <v>1.19</v>
+      </c>
+      <c r="AP207">
+        <v>1.47</v>
+      </c>
+      <c r="AQ207">
+        <v>1.12</v>
+      </c>
+      <c r="AR207">
+        <v>1.37</v>
+      </c>
+      <c r="AS207">
+        <v>1.22</v>
+      </c>
+      <c r="AT207">
+        <v>2.59</v>
+      </c>
+      <c r="AU207">
+        <v>5</v>
+      </c>
+      <c r="AV207">
+        <v>2</v>
+      </c>
+      <c r="AW207">
+        <v>6</v>
+      </c>
+      <c r="AX207">
+        <v>8</v>
+      </c>
+      <c r="AY207">
+        <v>11</v>
+      </c>
+      <c r="AZ207">
+        <v>10</v>
+      </c>
+      <c r="BA207">
+        <v>5</v>
+      </c>
+      <c r="BB207">
+        <v>11</v>
+      </c>
+      <c r="BC207">
+        <v>16</v>
+      </c>
+      <c r="BD207">
+        <v>1.74</v>
+      </c>
+      <c r="BE207">
+        <v>6.75</v>
+      </c>
+      <c r="BF207">
+        <v>2.28</v>
+      </c>
+      <c r="BG207">
+        <v>1.18</v>
+      </c>
+      <c r="BH207">
+        <v>4.1</v>
+      </c>
+      <c r="BI207">
+        <v>1.32</v>
+      </c>
+      <c r="BJ207">
+        <v>3.05</v>
+      </c>
+      <c r="BK207">
+        <v>1.53</v>
+      </c>
+      <c r="BL207">
+        <v>2.3</v>
+      </c>
+      <c r="BM207">
+        <v>1.84</v>
+      </c>
+      <c r="BN207">
+        <v>1.84</v>
+      </c>
+      <c r="BO207">
+        <v>2.3</v>
+      </c>
+      <c r="BP207">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="208" spans="1:68">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>7881845</v>
+      </c>
+      <c r="C208" t="s">
+        <v>68</v>
+      </c>
+      <c r="D208" t="s">
+        <v>69</v>
+      </c>
+      <c r="E208" s="2">
+        <v>45780.45833333334</v>
+      </c>
+      <c r="F208">
+        <v>35</v>
+      </c>
+      <c r="G208" t="s">
+        <v>78</v>
+      </c>
+      <c r="H208" t="s">
+        <v>71</v>
+      </c>
+      <c r="I208">
+        <v>1</v>
+      </c>
+      <c r="J208">
+        <v>0</v>
+      </c>
+      <c r="K208">
+        <v>1</v>
+      </c>
+      <c r="L208">
+        <v>1</v>
+      </c>
+      <c r="M208">
+        <v>2</v>
+      </c>
+      <c r="N208">
+        <v>3</v>
+      </c>
+      <c r="O208" t="s">
+        <v>204</v>
+      </c>
+      <c r="P208" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q208">
+        <v>2.63</v>
+      </c>
+      <c r="R208">
+        <v>2.25</v>
+      </c>
+      <c r="S208">
+        <v>3.75</v>
+      </c>
+      <c r="T208">
+        <v>1.33</v>
+      </c>
+      <c r="U208">
+        <v>3.25</v>
+      </c>
+      <c r="V208">
+        <v>2.63</v>
+      </c>
+      <c r="W208">
+        <v>1.44</v>
+      </c>
+      <c r="X208">
+        <v>6.5</v>
+      </c>
+      <c r="Y208">
+        <v>1.11</v>
+      </c>
+      <c r="Z208">
+        <v>2.12</v>
+      </c>
+      <c r="AA208">
+        <v>3.4</v>
+      </c>
+      <c r="AB208">
+        <v>3.28</v>
+      </c>
+      <c r="AC208">
+        <v>1.04</v>
+      </c>
+      <c r="AD208">
+        <v>10</v>
+      </c>
+      <c r="AE208">
+        <v>1.24</v>
+      </c>
+      <c r="AF208">
+        <v>4.05</v>
+      </c>
+      <c r="AG208">
+        <v>1.77</v>
+      </c>
+      <c r="AH208">
+        <v>1.98</v>
+      </c>
+      <c r="AI208">
+        <v>1.62</v>
+      </c>
+      <c r="AJ208">
+        <v>2.2</v>
+      </c>
+      <c r="AK208">
+        <v>1.33</v>
+      </c>
+      <c r="AL208">
+        <v>1.29</v>
+      </c>
+      <c r="AM208">
+        <v>1.66</v>
+      </c>
+      <c r="AN208">
+        <v>1.12</v>
+      </c>
+      <c r="AO208">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP208">
+        <v>1.06</v>
+      </c>
+      <c r="AQ208">
+        <v>1.06</v>
+      </c>
+      <c r="AR208">
+        <v>1.41</v>
+      </c>
+      <c r="AS208">
+        <v>1.06</v>
+      </c>
+      <c r="AT208">
+        <v>2.47</v>
+      </c>
+      <c r="AU208">
+        <v>7</v>
+      </c>
+      <c r="AV208">
+        <v>5</v>
+      </c>
+      <c r="AW208">
+        <v>6</v>
+      </c>
+      <c r="AX208">
+        <v>12</v>
+      </c>
+      <c r="AY208">
+        <v>13</v>
+      </c>
+      <c r="AZ208">
+        <v>17</v>
+      </c>
+      <c r="BA208">
+        <v>7</v>
+      </c>
+      <c r="BB208">
+        <v>4</v>
+      </c>
+      <c r="BC208">
+        <v>11</v>
+      </c>
+      <c r="BD208">
+        <v>1.52</v>
+      </c>
+      <c r="BE208">
+        <v>7</v>
+      </c>
+      <c r="BF208">
+        <v>2.8</v>
+      </c>
+      <c r="BG208">
+        <v>1.19</v>
+      </c>
+      <c r="BH208">
+        <v>4.1</v>
+      </c>
+      <c r="BI208">
+        <v>1.33</v>
+      </c>
+      <c r="BJ208">
+        <v>2.95</v>
+      </c>
+      <c r="BK208">
+        <v>1.55</v>
+      </c>
+      <c r="BL208">
+        <v>2.28</v>
+      </c>
+      <c r="BM208">
+        <v>1.86</v>
+      </c>
+      <c r="BN208">
+        <v>1.82</v>
+      </c>
+      <c r="BO208">
+        <v>2.32</v>
+      </c>
+      <c r="BP208">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="209" spans="1:68">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>7881846</v>
+      </c>
+      <c r="C209" t="s">
+        <v>68</v>
+      </c>
+      <c r="D209" t="s">
+        <v>69</v>
+      </c>
+      <c r="E209" s="2">
+        <v>45780.45833333334</v>
+      </c>
+      <c r="F209">
+        <v>35</v>
+      </c>
+      <c r="G209" t="s">
+        <v>77</v>
+      </c>
+      <c r="H209" t="s">
+        <v>70</v>
+      </c>
+      <c r="I209">
+        <v>1</v>
+      </c>
+      <c r="J209">
+        <v>1</v>
+      </c>
+      <c r="K209">
+        <v>2</v>
+      </c>
+      <c r="L209">
+        <v>1</v>
+      </c>
+      <c r="M209">
+        <v>3</v>
+      </c>
+      <c r="N209">
+        <v>4</v>
+      </c>
+      <c r="O209" t="s">
+        <v>234</v>
+      </c>
+      <c r="P209" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q209">
+        <v>4.5</v>
+      </c>
+      <c r="R209">
+        <v>2.2</v>
+      </c>
+      <c r="S209">
+        <v>2.5</v>
+      </c>
+      <c r="T209">
+        <v>1.4</v>
+      </c>
+      <c r="U209">
+        <v>2.75</v>
+      </c>
+      <c r="V209">
+        <v>3</v>
+      </c>
+      <c r="W209">
+        <v>1.36</v>
+      </c>
+      <c r="X209">
+        <v>8</v>
+      </c>
+      <c r="Y209">
+        <v>1.08</v>
+      </c>
+      <c r="Z209">
+        <v>3.87</v>
+      </c>
+      <c r="AA209">
+        <v>3.63</v>
+      </c>
+      <c r="AB209">
+        <v>1.87</v>
+      </c>
+      <c r="AC209">
+        <v>1.06</v>
+      </c>
+      <c r="AD209">
+        <v>8.25</v>
+      </c>
+      <c r="AE209">
+        <v>1.32</v>
+      </c>
+      <c r="AF209">
+        <v>3.23</v>
+      </c>
+      <c r="AG209">
+        <v>1.98</v>
+      </c>
+      <c r="AH209">
+        <v>1.77</v>
+      </c>
+      <c r="AI209">
+        <v>1.91</v>
+      </c>
+      <c r="AJ209">
+        <v>1.91</v>
+      </c>
+      <c r="AK209">
+        <v>1.82</v>
+      </c>
+      <c r="AL209">
+        <v>1.3</v>
+      </c>
+      <c r="AM209">
+        <v>1.24</v>
+      </c>
+      <c r="AN209">
+        <v>1.18</v>
+      </c>
+      <c r="AO209">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP209">
+        <v>1.11</v>
+      </c>
+      <c r="AQ209">
+        <v>1.06</v>
+      </c>
+      <c r="AR209">
+        <v>1.25</v>
+      </c>
+      <c r="AS209">
+        <v>1.23</v>
+      </c>
+      <c r="AT209">
+        <v>2.48</v>
+      </c>
+      <c r="AU209">
+        <v>4</v>
+      </c>
+      <c r="AV209">
+        <v>8</v>
+      </c>
+      <c r="AW209">
+        <v>11</v>
+      </c>
+      <c r="AX209">
+        <v>15</v>
+      </c>
+      <c r="AY209">
+        <v>15</v>
+      </c>
+      <c r="AZ209">
+        <v>23</v>
+      </c>
+      <c r="BA209">
+        <v>4</v>
+      </c>
+      <c r="BB209">
+        <v>13</v>
+      </c>
+      <c r="BC209">
+        <v>17</v>
+      </c>
+      <c r="BD209">
+        <v>2.7</v>
+      </c>
+      <c r="BE209">
+        <v>7</v>
+      </c>
+      <c r="BF209">
+        <v>1.53</v>
+      </c>
+      <c r="BG209">
+        <v>1.18</v>
+      </c>
+      <c r="BH209">
+        <v>4.1</v>
+      </c>
+      <c r="BI209">
+        <v>1.32</v>
+      </c>
+      <c r="BJ209">
+        <v>3</v>
+      </c>
+      <c r="BK209">
+        <v>1.54</v>
+      </c>
+      <c r="BL209">
+        <v>2.3</v>
+      </c>
+      <c r="BM209">
+        <v>1.85</v>
+      </c>
+      <c r="BN209">
+        <v>1.83</v>
+      </c>
+      <c r="BO209">
+        <v>2.3</v>
+      </c>
+      <c r="BP209">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="210" spans="1:68">
+      <c r="A210" s="1">
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>7881847</v>
+      </c>
+      <c r="C210" t="s">
+        <v>68</v>
+      </c>
+      <c r="D210" t="s">
+        <v>69</v>
+      </c>
+      <c r="E210" s="2">
+        <v>45780.45833333334</v>
+      </c>
+      <c r="F210">
+        <v>35</v>
+      </c>
+      <c r="G210" t="s">
+        <v>75</v>
+      </c>
+      <c r="H210" t="s">
+        <v>81</v>
+      </c>
+      <c r="I210">
+        <v>0</v>
+      </c>
+      <c r="J210">
+        <v>1</v>
+      </c>
+      <c r="K210">
+        <v>1</v>
+      </c>
+      <c r="L210">
+        <v>0</v>
+      </c>
+      <c r="M210">
+        <v>2</v>
+      </c>
+      <c r="N210">
+        <v>2</v>
+      </c>
+      <c r="O210" t="s">
+        <v>82</v>
+      </c>
+      <c r="P210" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q210">
+        <v>3.75</v>
+      </c>
+      <c r="R210">
+        <v>2.05</v>
+      </c>
+      <c r="S210">
+        <v>3</v>
+      </c>
+      <c r="T210">
+        <v>1.44</v>
+      </c>
+      <c r="U210">
+        <v>2.63</v>
+      </c>
+      <c r="V210">
+        <v>3.25</v>
+      </c>
+      <c r="W210">
+        <v>1.33</v>
+      </c>
+      <c r="X210">
+        <v>10</v>
+      </c>
+      <c r="Y210">
+        <v>1.06</v>
+      </c>
+      <c r="Z210">
+        <v>3.13</v>
+      </c>
+      <c r="AA210">
+        <v>3.1</v>
+      </c>
+      <c r="AB210">
+        <v>2.34</v>
+      </c>
+      <c r="AC210">
+        <v>1.08</v>
+      </c>
+      <c r="AD210">
+        <v>7</v>
+      </c>
+      <c r="AE210">
+        <v>1.38</v>
+      </c>
+      <c r="AF210">
+        <v>3.02</v>
+      </c>
+      <c r="AG210">
+        <v>2.05</v>
+      </c>
+      <c r="AH210">
+        <v>1.73</v>
+      </c>
+      <c r="AI210">
+        <v>1.95</v>
+      </c>
+      <c r="AJ210">
+        <v>1.8</v>
+      </c>
+      <c r="AK210">
+        <v>1.55</v>
+      </c>
+      <c r="AL210">
+        <v>1.34</v>
+      </c>
+      <c r="AM210">
+        <v>1.37</v>
+      </c>
+      <c r="AN210">
+        <v>1.06</v>
+      </c>
+      <c r="AO210">
+        <v>0.53</v>
+      </c>
+      <c r="AP210">
+        <v>1</v>
+      </c>
+      <c r="AQ210">
+        <v>0.67</v>
+      </c>
+      <c r="AR210">
+        <v>1.32</v>
+      </c>
+      <c r="AS210">
+        <v>1.23</v>
+      </c>
+      <c r="AT210">
+        <v>2.55</v>
+      </c>
+      <c r="AU210">
+        <v>4</v>
+      </c>
+      <c r="AV210">
+        <v>5</v>
+      </c>
+      <c r="AW210">
+        <v>15</v>
+      </c>
+      <c r="AX210">
+        <v>8</v>
+      </c>
+      <c r="AY210">
+        <v>19</v>
+      </c>
+      <c r="AZ210">
+        <v>13</v>
+      </c>
+      <c r="BA210">
+        <v>5</v>
+      </c>
+      <c r="BB210">
+        <v>2</v>
+      </c>
+      <c r="BC210">
+        <v>7</v>
+      </c>
+      <c r="BD210">
+        <v>2.18</v>
+      </c>
+      <c r="BE210">
+        <v>6.75</v>
+      </c>
+      <c r="BF210">
+        <v>1.79</v>
+      </c>
+      <c r="BG210">
+        <v>1.19</v>
+      </c>
+      <c r="BH210">
+        <v>4.1</v>
+      </c>
+      <c r="BI210">
+        <v>1.33</v>
+      </c>
+      <c r="BJ210">
+        <v>2.95</v>
+      </c>
+      <c r="BK210">
+        <v>1.54</v>
+      </c>
+      <c r="BL210">
+        <v>2.28</v>
+      </c>
+      <c r="BM210">
+        <v>1.86</v>
+      </c>
+      <c r="BN210">
+        <v>1.82</v>
+      </c>
+      <c r="BO210">
+        <v>2.32</v>
+      </c>
+      <c r="BP210">
+        <v>1.53</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Scotland Premiership_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Scotland Premiership_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="338">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1026,6 +1026,9 @@
   <si>
     <t>['12', '53']</t>
   </si>
+  <si>
+    <t>['57']</t>
+  </si>
 </sst>
 </file>
 
@@ -1386,7 +1389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP210"/>
+  <dimension ref="A1:BP211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2959,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AQ8">
         <v>1.06</v>
@@ -3580,7 +3583,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ11">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -4195,7 +4198,7 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AQ14">
         <v>0.88</v>
@@ -4816,7 +4819,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ17">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AR17">
         <v>1.07</v>
@@ -9142,7 +9145,7 @@
         <v>1</v>
       </c>
       <c r="AQ38">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AR38">
         <v>1.42</v>
@@ -9345,7 +9348,7 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AQ39">
         <v>1.24</v>
@@ -10172,7 +10175,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ43">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AR43">
         <v>1.4</v>
@@ -10581,7 +10584,7 @@
         <v>1</v>
       </c>
       <c r="AP45">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AQ45">
         <v>0.67</v>
@@ -12850,7 +12853,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ56">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AR56">
         <v>1.24</v>
@@ -13053,7 +13056,7 @@
         <v>0.25</v>
       </c>
       <c r="AP57">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AQ57">
         <v>1.06</v>
@@ -16146,7 +16149,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ72">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AR72">
         <v>1.22</v>
@@ -16349,7 +16352,7 @@
         <v>0.57</v>
       </c>
       <c r="AP73">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AQ73">
         <v>1.06</v>
@@ -16967,7 +16970,7 @@
         <v>1.5</v>
       </c>
       <c r="AP76">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AQ76">
         <v>1.44</v>
@@ -17588,7 +17591,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ79">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AR79">
         <v>1.56</v>
@@ -19439,7 +19442,7 @@
         <v>0.88</v>
       </c>
       <c r="AP88">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AQ88">
         <v>0.67</v>
@@ -19648,7 +19651,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ89">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AR89">
         <v>1.42</v>
@@ -22117,7 +22120,7 @@
         <v>0.75</v>
       </c>
       <c r="AP101">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AQ101">
         <v>1.06</v>
@@ -22738,7 +22741,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ104">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AR104">
         <v>1.42</v>
@@ -26237,10 +26240,10 @@
         <v>2.78</v>
       </c>
       <c r="AP121">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AQ121">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AR121">
         <v>2.04</v>
@@ -28712,7 +28715,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ133">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AR133">
         <v>1.25</v>
@@ -29533,7 +29536,7 @@
         <v>0.73</v>
       </c>
       <c r="AP137">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AQ137">
         <v>0.67</v>
@@ -29742,7 +29745,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ138">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AR138">
         <v>1.32</v>
@@ -29945,7 +29948,7 @@
         <v>1.2</v>
       </c>
       <c r="AP139">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AQ139">
         <v>1.12</v>
@@ -32008,7 +32011,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ149">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AR149">
         <v>1.15</v>
@@ -32211,7 +32214,7 @@
         <v>1.09</v>
       </c>
       <c r="AP150">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AQ150">
         <v>0.88</v>
@@ -33862,7 +33865,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ158">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AR158">
         <v>1.37</v>
@@ -34683,7 +34686,7 @@
         <v>1.08</v>
       </c>
       <c r="AP162">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AQ162">
         <v>1.06</v>
@@ -36331,7 +36334,7 @@
         <v>0.93</v>
       </c>
       <c r="AP170">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AQ170">
         <v>1.06</v>
@@ -36952,7 +36955,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ173">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AR173">
         <v>1.32</v>
@@ -40039,7 +40042,7 @@
         <v>1.2</v>
       </c>
       <c r="AP188">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AQ188">
         <v>1.24</v>
@@ -40866,7 +40869,7 @@
         <v>1</v>
       </c>
       <c r="AQ192">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AR192">
         <v>1.34</v>
@@ -42514,7 +42517,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ200">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AR200">
         <v>1.39</v>
@@ -43780,13 +43783,13 @@
         <v>14</v>
       </c>
       <c r="BA206">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB206">
         <v>4</v>
       </c>
       <c r="BC206">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD206">
         <v>1.38</v>
@@ -44650,6 +44653,212 @@
       </c>
       <c r="BP210">
         <v>1.53</v>
+      </c>
+    </row>
+    <row r="211" spans="1:68">
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>7881848</v>
+      </c>
+      <c r="C211" t="s">
+        <v>68</v>
+      </c>
+      <c r="D211" t="s">
+        <v>69</v>
+      </c>
+      <c r="E211" s="2">
+        <v>45781.33333333334</v>
+      </c>
+      <c r="F211">
+        <v>35</v>
+      </c>
+      <c r="G211" t="s">
+        <v>76</v>
+      </c>
+      <c r="H211" t="s">
+        <v>74</v>
+      </c>
+      <c r="I211">
+        <v>1</v>
+      </c>
+      <c r="J211">
+        <v>0</v>
+      </c>
+      <c r="K211">
+        <v>1</v>
+      </c>
+      <c r="L211">
+        <v>1</v>
+      </c>
+      <c r="M211">
+        <v>1</v>
+      </c>
+      <c r="N211">
+        <v>2</v>
+      </c>
+      <c r="O211" t="s">
+        <v>128</v>
+      </c>
+      <c r="P211" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q211">
+        <v>4</v>
+      </c>
+      <c r="R211">
+        <v>2.4</v>
+      </c>
+      <c r="S211">
+        <v>2.38</v>
+      </c>
+      <c r="T211">
+        <v>1.29</v>
+      </c>
+      <c r="U211">
+        <v>3.5</v>
+      </c>
+      <c r="V211">
+        <v>2.25</v>
+      </c>
+      <c r="W211">
+        <v>1.57</v>
+      </c>
+      <c r="X211">
+        <v>5.5</v>
+      </c>
+      <c r="Y211">
+        <v>1.14</v>
+      </c>
+      <c r="Z211">
+        <v>3.84</v>
+      </c>
+      <c r="AA211">
+        <v>3.68</v>
+      </c>
+      <c r="AB211">
+        <v>1.86</v>
+      </c>
+      <c r="AC211">
+        <v>1.03</v>
+      </c>
+      <c r="AD211">
+        <v>12.5</v>
+      </c>
+      <c r="AE211">
+        <v>1.17</v>
+      </c>
+      <c r="AF211">
+        <v>4.93</v>
+      </c>
+      <c r="AG211">
+        <v>1.57</v>
+      </c>
+      <c r="AH211">
+        <v>2.3</v>
+      </c>
+      <c r="AI211">
+        <v>1.53</v>
+      </c>
+      <c r="AJ211">
+        <v>2.38</v>
+      </c>
+      <c r="AK211">
+        <v>1.83</v>
+      </c>
+      <c r="AL211">
+        <v>1.26</v>
+      </c>
+      <c r="AM211">
+        <v>1.28</v>
+      </c>
+      <c r="AN211">
+        <v>2.31</v>
+      </c>
+      <c r="AO211">
+        <v>2.24</v>
+      </c>
+      <c r="AP211">
+        <v>2.24</v>
+      </c>
+      <c r="AQ211">
+        <v>2.17</v>
+      </c>
+      <c r="AR211">
+        <v>2.15</v>
+      </c>
+      <c r="AS211">
+        <v>2.02</v>
+      </c>
+      <c r="AT211">
+        <v>4.17</v>
+      </c>
+      <c r="AU211">
+        <v>5</v>
+      </c>
+      <c r="AV211">
+        <v>4</v>
+      </c>
+      <c r="AW211">
+        <v>8</v>
+      </c>
+      <c r="AX211">
+        <v>4</v>
+      </c>
+      <c r="AY211">
+        <v>15</v>
+      </c>
+      <c r="AZ211">
+        <v>11</v>
+      </c>
+      <c r="BA211">
+        <v>5</v>
+      </c>
+      <c r="BB211">
+        <v>6</v>
+      </c>
+      <c r="BC211">
+        <v>11</v>
+      </c>
+      <c r="BD211">
+        <v>2.4</v>
+      </c>
+      <c r="BE211">
+        <v>6.75</v>
+      </c>
+      <c r="BF211">
+        <v>1.67</v>
+      </c>
+      <c r="BG211">
+        <v>1.2</v>
+      </c>
+      <c r="BH211">
+        <v>3.9</v>
+      </c>
+      <c r="BI211">
+        <v>1.36</v>
+      </c>
+      <c r="BJ211">
+        <v>2.8</v>
+      </c>
+      <c r="BK211">
+        <v>1.58</v>
+      </c>
+      <c r="BL211">
+        <v>2.18</v>
+      </c>
+      <c r="BM211">
+        <v>1.92</v>
+      </c>
+      <c r="BN211">
+        <v>1.77</v>
+      </c>
+      <c r="BO211">
+        <v>2.4</v>
+      </c>
+      <c r="BP211">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Scotland Premiership_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Scotland Premiership_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="345">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -721,6 +721,18 @@
     <t>['26']</t>
   </si>
   <si>
+    <t>['31', '60']</t>
+  </si>
+  <si>
+    <t>['31', '77', '90+1']</t>
+  </si>
+  <si>
+    <t>['41', '45', '58']</t>
+  </si>
+  <si>
+    <t>['30', '60', '62']</t>
+  </si>
+  <si>
     <t>['18', '79']</t>
   </si>
   <si>
@@ -1028,6 +1040,15 @@
   </si>
   <si>
     <t>['57']</t>
+  </si>
+  <si>
+    <t>['41']</t>
+  </si>
+  <si>
+    <t>['76', '90+5']</t>
+  </si>
+  <si>
+    <t>['31', '66']</t>
   </si>
 </sst>
 </file>
@@ -1389,7 +1410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP211"/>
+  <dimension ref="A1:BP216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1726,7 +1747,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ2">
         <v>1.67</v>
@@ -1935,7 +1956,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ3">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2060,7 +2081,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -2138,10 +2159,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ4">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2347,7 +2368,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ5">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2550,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AQ6">
         <v>0.67</v>
@@ -2678,7 +2699,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q7">
         <v>3.6</v>
@@ -2756,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ7">
         <v>1.12</v>
@@ -2965,7 +2986,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ8">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3090,7 +3111,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q9">
         <v>3.2</v>
@@ -3502,7 +3523,7 @@
         <v>82</v>
       </c>
       <c r="P11" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3708,7 +3729,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3789,7 +3810,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ12">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3914,7 +3935,7 @@
         <v>82</v>
       </c>
       <c r="P13" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q13">
         <v>2.4</v>
@@ -3992,7 +4013,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ13">
         <v>0.67</v>
@@ -4201,7 +4222,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ14">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR14">
         <v>2.02</v>
@@ -4404,7 +4425,7 @@
         <v>3</v>
       </c>
       <c r="AP15">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ15">
         <v>0.67</v>
@@ -4532,7 +4553,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4613,7 +4634,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ16">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR16">
         <v>0.53</v>
@@ -4738,7 +4759,7 @@
         <v>82</v>
       </c>
       <c r="P17" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q17">
         <v>7.5</v>
@@ -5356,7 +5377,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q20">
         <v>2.75</v>
@@ -5437,7 +5458,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ20">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR20">
         <v>1.56</v>
@@ -5562,7 +5583,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5640,10 +5661,10 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ21">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR21">
         <v>1.39</v>
@@ -5768,7 +5789,7 @@
         <v>82</v>
       </c>
       <c r="P22" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -6052,7 +6073,7 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AQ23">
         <v>1.67</v>
@@ -6180,7 +6201,7 @@
         <v>82</v>
       </c>
       <c r="P24" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q24">
         <v>2.38</v>
@@ -6258,7 +6279,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ24">
         <v>1.44</v>
@@ -6386,7 +6407,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6464,10 +6485,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ25">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR25">
         <v>1.41</v>
@@ -6673,7 +6694,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ26">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR26">
         <v>1.33</v>
@@ -7004,7 +7025,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -7288,7 +7309,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AQ29">
         <v>1.06</v>
@@ -7497,7 +7518,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ30">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR30">
         <v>1.12</v>
@@ -7700,7 +7721,7 @@
         <v>0.5</v>
       </c>
       <c r="AP31">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ31">
         <v>1.67</v>
@@ -8034,7 +8055,7 @@
         <v>106</v>
       </c>
       <c r="P33" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q33">
         <v>2.75</v>
@@ -8240,7 +8261,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q34">
         <v>3.5</v>
@@ -8524,10 +8545,10 @@
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ35">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR35">
         <v>1.25</v>
@@ -8652,7 +8673,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8730,7 +8751,7 @@
         <v>2</v>
       </c>
       <c r="AP36">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ36">
         <v>1.44</v>
@@ -8858,7 +8879,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8939,7 +8960,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ37">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR37">
         <v>1.45</v>
@@ -9064,7 +9085,7 @@
         <v>82</v>
       </c>
       <c r="P38" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q38">
         <v>10</v>
@@ -9142,7 +9163,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ38">
         <v>2.17</v>
@@ -9351,7 +9372,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ39">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR39">
         <v>2.01</v>
@@ -9476,7 +9497,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9682,7 +9703,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q41">
         <v>2.63</v>
@@ -9763,7 +9784,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ41">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR41">
         <v>1.12</v>
@@ -9888,7 +9909,7 @@
         <v>82</v>
       </c>
       <c r="P42" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -10094,7 +10115,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q43">
         <v>9.5</v>
@@ -10300,7 +10321,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q44">
         <v>2.25</v>
@@ -10790,10 +10811,10 @@
         <v>0.67</v>
       </c>
       <c r="AP46">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ46">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR46">
         <v>1.16</v>
@@ -10918,7 +10939,7 @@
         <v>118</v>
       </c>
       <c r="P47" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q47">
         <v>1.67</v>
@@ -10996,7 +11017,7 @@
         <v>3</v>
       </c>
       <c r="AP47">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AQ47">
         <v>1.12</v>
@@ -11202,10 +11223,10 @@
         <v>0.33</v>
       </c>
       <c r="AP48">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ48">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR48">
         <v>1.61</v>
@@ -11330,7 +11351,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11408,10 +11429,10 @@
         <v>0.33</v>
       </c>
       <c r="AP49">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ49">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR49">
         <v>1.19</v>
@@ -11536,7 +11557,7 @@
         <v>82</v>
       </c>
       <c r="P50" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q50">
         <v>2.63</v>
@@ -11617,7 +11638,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ50">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR50">
         <v>1.3</v>
@@ -11820,7 +11841,7 @@
         <v>1.33</v>
       </c>
       <c r="AP51">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ51">
         <v>1.67</v>
@@ -11948,7 +11969,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -12154,7 +12175,7 @@
         <v>123</v>
       </c>
       <c r="P53" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q53">
         <v>3.75</v>
@@ -12772,7 +12793,7 @@
         <v>82</v>
       </c>
       <c r="P56" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q56">
         <v>7.5</v>
@@ -13059,7 +13080,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ57">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR57">
         <v>1.86</v>
@@ -13184,7 +13205,7 @@
         <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q58">
         <v>2.38</v>
@@ -13390,7 +13411,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q59">
         <v>2.4</v>
@@ -13468,7 +13489,7 @@
         <v>0.8</v>
       </c>
       <c r="AP59">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ59">
         <v>0.67</v>
@@ -13596,7 +13617,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q60">
         <v>2.75</v>
@@ -13674,10 +13695,10 @@
         <v>1.5</v>
       </c>
       <c r="AP60">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ60">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR60">
         <v>1.15</v>
@@ -13880,10 +13901,10 @@
         <v>1.25</v>
       </c>
       <c r="AP61">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AQ61">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR61">
         <v>2.17</v>
@@ -14089,7 +14110,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ62">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR62">
         <v>1.31</v>
@@ -14214,7 +14235,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q63">
         <v>4.33</v>
@@ -14420,7 +14441,7 @@
         <v>132</v>
       </c>
       <c r="P64" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q64">
         <v>4.5</v>
@@ -14498,7 +14519,7 @@
         <v>0.17</v>
       </c>
       <c r="AP64">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ64">
         <v>1.06</v>
@@ -14707,7 +14728,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ65">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR65">
         <v>1.13</v>
@@ -14832,7 +14853,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q66">
         <v>2.4</v>
@@ -15038,7 +15059,7 @@
         <v>134</v>
       </c>
       <c r="P67" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -15244,7 +15265,7 @@
         <v>135</v>
       </c>
       <c r="P68" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q68">
         <v>2.5</v>
@@ -15450,7 +15471,7 @@
         <v>136</v>
       </c>
       <c r="P69" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q69">
         <v>2.5</v>
@@ -15531,7 +15552,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ69">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR69">
         <v>1.35</v>
@@ -15734,10 +15755,10 @@
         <v>0.6</v>
       </c>
       <c r="AP70">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ70">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR70">
         <v>1.22</v>
@@ -15862,7 +15883,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q71">
         <v>2.25</v>
@@ -15943,7 +15964,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ71">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR71">
         <v>1.32</v>
@@ -16068,7 +16089,7 @@
         <v>82</v>
       </c>
       <c r="P72" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -16146,7 +16167,7 @@
         <v>3</v>
       </c>
       <c r="AP72">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ72">
         <v>2.17</v>
@@ -16480,7 +16501,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q74">
         <v>3.4</v>
@@ -16561,7 +16582,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ74">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR74">
         <v>1.29</v>
@@ -16764,7 +16785,7 @@
         <v>1</v>
       </c>
       <c r="AP75">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ75">
         <v>0.67</v>
@@ -17098,7 +17119,7 @@
         <v>143</v>
       </c>
       <c r="P77" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q77">
         <v>3.6</v>
@@ -17304,7 +17325,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q78">
         <v>3.25</v>
@@ -17385,7 +17406,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ78">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR78">
         <v>1.42</v>
@@ -17510,7 +17531,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q79">
         <v>6.5</v>
@@ -17588,7 +17609,7 @@
         <v>3</v>
       </c>
       <c r="AP79">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ79">
         <v>2.17</v>
@@ -17716,7 +17737,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q80">
         <v>3.4</v>
@@ -18000,10 +18021,10 @@
         <v>0.67</v>
       </c>
       <c r="AP81">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ81">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR81">
         <v>1.31</v>
@@ -18128,7 +18149,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q82">
         <v>2.63</v>
@@ -18206,10 +18227,10 @@
         <v>0.83</v>
       </c>
       <c r="AP82">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ82">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR82">
         <v>1.34</v>
@@ -18334,7 +18355,7 @@
         <v>82</v>
       </c>
       <c r="P83" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q83">
         <v>3.25</v>
@@ -18415,7 +18436,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ83">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR83">
         <v>1.24</v>
@@ -18618,10 +18639,10 @@
         <v>0.5</v>
       </c>
       <c r="AP84">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AQ84">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR84">
         <v>2.21</v>
@@ -18746,7 +18767,7 @@
         <v>82</v>
       </c>
       <c r="P85" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q85">
         <v>7.5</v>
@@ -18824,7 +18845,7 @@
         <v>0.8</v>
       </c>
       <c r="AP85">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ85">
         <v>1.67</v>
@@ -18952,7 +18973,7 @@
         <v>150</v>
       </c>
       <c r="P86" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -19030,7 +19051,7 @@
         <v>1.83</v>
       </c>
       <c r="AP86">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ86">
         <v>1.12</v>
@@ -19239,7 +19260,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ87">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR87">
         <v>1.42</v>
@@ -19570,7 +19591,7 @@
         <v>82</v>
       </c>
       <c r="P89" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -20060,10 +20081,10 @@
         <v>0.71</v>
       </c>
       <c r="AP91">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AQ91">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR91">
         <v>2.19</v>
@@ -20266,7 +20287,7 @@
         <v>0.78</v>
       </c>
       <c r="AP92">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ92">
         <v>0.67</v>
@@ -20472,10 +20493,10 @@
         <v>0.86</v>
       </c>
       <c r="AP93">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ93">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR93">
         <v>1.63</v>
@@ -20681,7 +20702,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ94">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR94">
         <v>1.21</v>
@@ -20806,7 +20827,7 @@
         <v>82</v>
       </c>
       <c r="P95" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q95">
         <v>10</v>
@@ -21012,7 +21033,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -21218,7 +21239,7 @@
         <v>158</v>
       </c>
       <c r="P97" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q97">
         <v>3.5</v>
@@ -21296,10 +21317,10 @@
         <v>0.57</v>
       </c>
       <c r="AP97">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ97">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR97">
         <v>1.26</v>
@@ -21424,7 +21445,7 @@
         <v>159</v>
       </c>
       <c r="P98" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q98">
         <v>2.05</v>
@@ -21505,7 +21526,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ98">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR98">
         <v>1.38</v>
@@ -21708,7 +21729,7 @@
         <v>0.5</v>
       </c>
       <c r="AP99">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ99">
         <v>1.06</v>
@@ -21836,7 +21857,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q100">
         <v>3.1</v>
@@ -22123,7 +22144,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ101">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR101">
         <v>2.07</v>
@@ -22248,7 +22269,7 @@
         <v>162</v>
       </c>
       <c r="P102" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q102">
         <v>4</v>
@@ -22329,7 +22350,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ102">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR102">
         <v>1.24</v>
@@ -22454,7 +22475,7 @@
         <v>163</v>
       </c>
       <c r="P103" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -22535,7 +22556,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ103">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR103">
         <v>1.34</v>
@@ -22738,7 +22759,7 @@
         <v>3</v>
       </c>
       <c r="AP104">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ104">
         <v>2.17</v>
@@ -22944,7 +22965,7 @@
         <v>0.89</v>
       </c>
       <c r="AP105">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ105">
         <v>0.67</v>
@@ -23072,7 +23093,7 @@
         <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q106">
         <v>2.75</v>
@@ -23150,10 +23171,10 @@
         <v>0.89</v>
       </c>
       <c r="AP106">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ106">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR106">
         <v>1.67</v>
@@ -23278,7 +23299,7 @@
         <v>128</v>
       </c>
       <c r="P107" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23356,7 +23377,7 @@
         <v>1.25</v>
       </c>
       <c r="AP107">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ107">
         <v>1.44</v>
@@ -23562,7 +23583,7 @@
         <v>1.71</v>
       </c>
       <c r="AP108">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ108">
         <v>1.12</v>
@@ -23690,7 +23711,7 @@
         <v>82</v>
       </c>
       <c r="P109" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q109">
         <v>2.38</v>
@@ -23771,7 +23792,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ109">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR109">
         <v>1.38</v>
@@ -23974,10 +23995,10 @@
         <v>1.5</v>
       </c>
       <c r="AP110">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AQ110">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR110">
         <v>2.23</v>
@@ -24308,7 +24329,7 @@
         <v>169</v>
       </c>
       <c r="P112" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -24514,7 +24535,7 @@
         <v>170</v>
       </c>
       <c r="P113" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q113">
         <v>2.65</v>
@@ -24595,7 +24616,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ113">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR113">
         <v>1.2</v>
@@ -24720,7 +24741,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q114">
         <v>7</v>
@@ -25210,7 +25231,7 @@
         <v>0.8</v>
       </c>
       <c r="AP116">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AQ116">
         <v>0.67</v>
@@ -25416,7 +25437,7 @@
         <v>1.5</v>
       </c>
       <c r="AP117">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ117">
         <v>1.12</v>
@@ -25544,7 +25565,7 @@
         <v>174</v>
       </c>
       <c r="P118" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q118">
         <v>2</v>
@@ -25625,7 +25646,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ118">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR118">
         <v>1.36</v>
@@ -25828,10 +25849,10 @@
         <v>1.33</v>
       </c>
       <c r="AP119">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ119">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR119">
         <v>1.65</v>
@@ -26034,10 +26055,10 @@
         <v>1.11</v>
       </c>
       <c r="AP120">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ120">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR120">
         <v>1.44</v>
@@ -26446,10 +26467,10 @@
         <v>1.1</v>
       </c>
       <c r="AP122">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ122">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR122">
         <v>1.24</v>
@@ -26574,7 +26595,7 @@
         <v>179</v>
       </c>
       <c r="P123" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q123">
         <v>3.2</v>
@@ -26780,7 +26801,7 @@
         <v>180</v>
       </c>
       <c r="P124" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q124">
         <v>6.5</v>
@@ -27192,7 +27213,7 @@
         <v>82</v>
       </c>
       <c r="P126" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q126">
         <v>3</v>
@@ -27270,7 +27291,7 @@
         <v>0.5</v>
       </c>
       <c r="AP126">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ126">
         <v>1.06</v>
@@ -27398,7 +27419,7 @@
         <v>182</v>
       </c>
       <c r="P127" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q127">
         <v>3.2</v>
@@ -27476,10 +27497,10 @@
         <v>0.9</v>
       </c>
       <c r="AP127">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ127">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR127">
         <v>1.19</v>
@@ -27604,7 +27625,7 @@
         <v>82</v>
       </c>
       <c r="P128" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q128">
         <v>2.05</v>
@@ -27682,10 +27703,10 @@
         <v>0.9</v>
       </c>
       <c r="AP128">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ128">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR128">
         <v>1.42</v>
@@ -27888,10 +27909,10 @@
         <v>1</v>
       </c>
       <c r="AP129">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AQ129">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR129">
         <v>2.36</v>
@@ -28094,7 +28115,7 @@
         <v>1.6</v>
       </c>
       <c r="AP130">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AQ130">
         <v>1.44</v>
@@ -28300,10 +28321,10 @@
         <v>1.2</v>
       </c>
       <c r="AP131">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ131">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR131">
         <v>1.4</v>
@@ -28634,7 +28655,7 @@
         <v>185</v>
       </c>
       <c r="P133" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q133">
         <v>10</v>
@@ -28840,7 +28861,7 @@
         <v>186</v>
       </c>
       <c r="P134" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q134">
         <v>2.35</v>
@@ -28921,7 +28942,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ134">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR134">
         <v>1.42</v>
@@ -29664,7 +29685,7 @@
         <v>188</v>
       </c>
       <c r="P138" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q138">
         <v>10</v>
@@ -30076,7 +30097,7 @@
         <v>190</v>
       </c>
       <c r="P140" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q140">
         <v>2.5</v>
@@ -30154,7 +30175,7 @@
         <v>0.75</v>
       </c>
       <c r="AP140">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ140">
         <v>0.67</v>
@@ -30360,10 +30381,10 @@
         <v>1.08</v>
       </c>
       <c r="AP141">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ141">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR141">
         <v>1.28</v>
@@ -30488,7 +30509,7 @@
         <v>121</v>
       </c>
       <c r="P142" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q142">
         <v>4</v>
@@ -30569,7 +30590,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ142">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR142">
         <v>1.21</v>
@@ -30694,7 +30715,7 @@
         <v>82</v>
       </c>
       <c r="P143" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q143">
         <v>2.63</v>
@@ -30775,7 +30796,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ143">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR143">
         <v>1.33</v>
@@ -30900,7 +30921,7 @@
         <v>192</v>
       </c>
       <c r="P144" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q144">
         <v>5.5</v>
@@ -30978,7 +30999,7 @@
         <v>1.18</v>
       </c>
       <c r="AP144">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ144">
         <v>1.67</v>
@@ -31106,7 +31127,7 @@
         <v>82</v>
       </c>
       <c r="P145" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q145">
         <v>3.5</v>
@@ -31518,7 +31539,7 @@
         <v>82</v>
       </c>
       <c r="P147" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q147">
         <v>2.5</v>
@@ -31802,7 +31823,7 @@
         <v>1.58</v>
       </c>
       <c r="AP148">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ148">
         <v>1.44</v>
@@ -31930,7 +31951,7 @@
         <v>195</v>
       </c>
       <c r="P149" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q149">
         <v>10</v>
@@ -32217,7 +32238,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ150">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR150">
         <v>2.11</v>
@@ -32420,10 +32441,10 @@
         <v>1.09</v>
       </c>
       <c r="AP151">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AQ151">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR151">
         <v>2.26</v>
@@ -32548,7 +32569,7 @@
         <v>198</v>
       </c>
       <c r="P152" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q152">
         <v>3.2</v>
@@ -32832,7 +32853,7 @@
         <v>1.46</v>
       </c>
       <c r="AP153">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AQ153">
         <v>1.44</v>
@@ -32960,7 +32981,7 @@
         <v>82</v>
       </c>
       <c r="P154" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q154">
         <v>2.75</v>
@@ -33041,7 +33062,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ154">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR154">
         <v>1.1</v>
@@ -33244,7 +33265,7 @@
         <v>0.85</v>
       </c>
       <c r="AP155">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ155">
         <v>0.67</v>
@@ -33372,7 +33393,7 @@
         <v>201</v>
       </c>
       <c r="P156" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q156">
         <v>5</v>
@@ -33450,7 +33471,7 @@
         <v>1.33</v>
       </c>
       <c r="AP156">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ156">
         <v>1.67</v>
@@ -33659,7 +33680,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ157">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR157">
         <v>1.3</v>
@@ -34274,10 +34295,10 @@
         <v>1</v>
       </c>
       <c r="AP160">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ160">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR160">
         <v>1.35</v>
@@ -34483,7 +34504,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ161">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR161">
         <v>1.18</v>
@@ -34608,7 +34629,7 @@
         <v>82</v>
       </c>
       <c r="P162" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q162">
         <v>1.57</v>
@@ -34689,7 +34710,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ162">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR162">
         <v>2.16</v>
@@ -34814,7 +34835,7 @@
         <v>141</v>
       </c>
       <c r="P163" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q163">
         <v>4.33</v>
@@ -34892,7 +34913,7 @@
         <v>0.92</v>
       </c>
       <c r="AP163">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ163">
         <v>1.06</v>
@@ -35020,7 +35041,7 @@
         <v>206</v>
       </c>
       <c r="P164" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q164">
         <v>1.57</v>
@@ -35098,7 +35119,7 @@
         <v>1.15</v>
       </c>
       <c r="AP164">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AQ164">
         <v>1.12</v>
@@ -35307,7 +35328,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ165">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR165">
         <v>1.16</v>
@@ -35432,7 +35453,7 @@
         <v>139</v>
       </c>
       <c r="P166" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q166">
         <v>3.4</v>
@@ -35510,10 +35531,10 @@
         <v>1.08</v>
       </c>
       <c r="AP166">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ166">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR166">
         <v>1.35</v>
@@ -35638,7 +35659,7 @@
         <v>208</v>
       </c>
       <c r="P167" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q167">
         <v>2.4</v>
@@ -35716,10 +35737,10 @@
         <v>1.23</v>
       </c>
       <c r="AP167">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ167">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR167">
         <v>1.74</v>
@@ -35922,10 +35943,10 @@
         <v>1.15</v>
       </c>
       <c r="AP168">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ168">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR168">
         <v>1.32</v>
@@ -36050,7 +36071,7 @@
         <v>209</v>
       </c>
       <c r="P169" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q169">
         <v>5.5</v>
@@ -36128,7 +36149,7 @@
         <v>1.46</v>
       </c>
       <c r="AP169">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ169">
         <v>1.67</v>
@@ -36256,7 +36277,7 @@
         <v>198</v>
       </c>
       <c r="P170" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q170">
         <v>1.53</v>
@@ -36337,7 +36358,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ170">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR170">
         <v>2.14</v>
@@ -36874,7 +36895,7 @@
         <v>211</v>
       </c>
       <c r="P173" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q173">
         <v>10</v>
@@ -37080,7 +37101,7 @@
         <v>212</v>
       </c>
       <c r="P174" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q174">
         <v>3</v>
@@ -37286,7 +37307,7 @@
         <v>213</v>
       </c>
       <c r="P175" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Q175">
         <v>2.88</v>
@@ -37570,10 +37591,10 @@
         <v>1.07</v>
       </c>
       <c r="AP176">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ176">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR176">
         <v>1.74</v>
@@ -37776,10 +37797,10 @@
         <v>1.21</v>
       </c>
       <c r="AP177">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ177">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR177">
         <v>1.42</v>
@@ -37904,7 +37925,7 @@
         <v>215</v>
       </c>
       <c r="P178" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="Q178">
         <v>3.4</v>
@@ -37985,7 +38006,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ178">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR178">
         <v>1.16</v>
@@ -38188,7 +38209,7 @@
         <v>1.07</v>
       </c>
       <c r="AP179">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ179">
         <v>1.12</v>
@@ -38316,7 +38337,7 @@
         <v>216</v>
       </c>
       <c r="P180" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="Q180">
         <v>2.25</v>
@@ -38394,7 +38415,7 @@
         <v>1.57</v>
       </c>
       <c r="AP180">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AQ180">
         <v>1.67</v>
@@ -38522,7 +38543,7 @@
         <v>217</v>
       </c>
       <c r="P181" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Q181">
         <v>2.4</v>
@@ -38600,10 +38621,10 @@
         <v>0.86</v>
       </c>
       <c r="AP181">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ181">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR181">
         <v>1.35</v>
@@ -38806,7 +38827,7 @@
         <v>1</v>
       </c>
       <c r="AP182">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AQ182">
         <v>1.06</v>
@@ -39346,7 +39367,7 @@
         <v>221</v>
       </c>
       <c r="P185" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q185">
         <v>2.3</v>
@@ -39427,7 +39448,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ185">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR185">
         <v>1.44</v>
@@ -39552,7 +39573,7 @@
         <v>222</v>
       </c>
       <c r="P186" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q186">
         <v>6.5</v>
@@ -39758,7 +39779,7 @@
         <v>82</v>
       </c>
       <c r="P187" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q187">
         <v>3.6</v>
@@ -39964,7 +39985,7 @@
         <v>82</v>
       </c>
       <c r="P188" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Q188">
         <v>1.95</v>
@@ -40045,7 +40066,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ188">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR188">
         <v>2.18</v>
@@ -40170,7 +40191,7 @@
         <v>82</v>
       </c>
       <c r="P189" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q189">
         <v>3.75</v>
@@ -40454,10 +40475,10 @@
         <v>1</v>
       </c>
       <c r="AP190">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ190">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR190">
         <v>1.41</v>
@@ -40663,7 +40684,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ191">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR191">
         <v>1.44</v>
@@ -40866,7 +40887,7 @@
         <v>2.33</v>
       </c>
       <c r="AP192">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ192">
         <v>2.17</v>
@@ -41072,7 +41093,7 @@
         <v>1.44</v>
       </c>
       <c r="AP193">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ193">
         <v>1.44</v>
@@ -41200,7 +41221,7 @@
         <v>226</v>
       </c>
       <c r="P194" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q194">
         <v>1.57</v>
@@ -41278,7 +41299,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP194">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AQ194">
         <v>0.67</v>
@@ -41484,7 +41505,7 @@
         <v>0.75</v>
       </c>
       <c r="AP195">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ195">
         <v>0.67</v>
@@ -41818,7 +41839,7 @@
         <v>227</v>
       </c>
       <c r="P197" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="Q197">
         <v>2.3</v>
@@ -41899,7 +41920,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ197">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR197">
         <v>1.37</v>
@@ -42024,7 +42045,7 @@
         <v>228</v>
       </c>
       <c r="P198" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="Q198">
         <v>4.33</v>
@@ -42311,7 +42332,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ199">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR199">
         <v>1.41</v>
@@ -42436,7 +42457,7 @@
         <v>82</v>
       </c>
       <c r="P200" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="Q200">
         <v>7.5</v>
@@ -42514,7 +42535,7 @@
         <v>2.19</v>
       </c>
       <c r="AP200">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ200">
         <v>2.17</v>
@@ -42723,7 +42744,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ201">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR201">
         <v>1.52</v>
@@ -42848,7 +42869,7 @@
         <v>230</v>
       </c>
       <c r="P202" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Q202">
         <v>4.33</v>
@@ -43054,7 +43075,7 @@
         <v>82</v>
       </c>
       <c r="P203" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q203">
         <v>2.05</v>
@@ -43132,10 +43153,10 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP203">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ203">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR203">
         <v>1.75</v>
@@ -43338,10 +43359,10 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP204">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ204">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR204">
         <v>1.46</v>
@@ -43466,7 +43487,7 @@
         <v>232</v>
       </c>
       <c r="P205" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="Q205">
         <v>3.1</v>
@@ -43672,7 +43693,7 @@
         <v>233</v>
       </c>
       <c r="P206" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q206">
         <v>2.3</v>
@@ -44084,7 +44105,7 @@
         <v>204</v>
       </c>
       <c r="P208" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="Q208">
         <v>2.63</v>
@@ -44165,7 +44186,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ208">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR208">
         <v>1.41</v>
@@ -44290,7 +44311,7 @@
         <v>234</v>
       </c>
       <c r="P209" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Q209">
         <v>4.5</v>
@@ -44496,7 +44517,7 @@
         <v>82</v>
       </c>
       <c r="P210" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="Q210">
         <v>3.75</v>
@@ -44574,7 +44595,7 @@
         <v>0.53</v>
       </c>
       <c r="AP210">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ210">
         <v>0.67</v>
@@ -44702,7 +44723,7 @@
         <v>128</v>
       </c>
       <c r="P211" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q211">
         <v>4</v>
@@ -44859,6 +44880,1036 @@
       </c>
       <c r="BP211">
         <v>1.49</v>
+      </c>
+    </row>
+    <row r="212" spans="1:68">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>7881853</v>
+      </c>
+      <c r="C212" t="s">
+        <v>68</v>
+      </c>
+      <c r="D212" t="s">
+        <v>69</v>
+      </c>
+      <c r="E212" s="2">
+        <v>45787.45833333334</v>
+      </c>
+      <c r="F212">
+        <v>36</v>
+      </c>
+      <c r="G212" t="s">
+        <v>75</v>
+      </c>
+      <c r="H212" t="s">
+        <v>77</v>
+      </c>
+      <c r="I212">
+        <v>1</v>
+      </c>
+      <c r="J212">
+        <v>1</v>
+      </c>
+      <c r="K212">
+        <v>2</v>
+      </c>
+      <c r="L212">
+        <v>2</v>
+      </c>
+      <c r="M212">
+        <v>1</v>
+      </c>
+      <c r="N212">
+        <v>3</v>
+      </c>
+      <c r="O212" t="s">
+        <v>235</v>
+      </c>
+      <c r="P212" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q212">
+        <v>2.88</v>
+      </c>
+      <c r="R212">
+        <v>2.1</v>
+      </c>
+      <c r="S212">
+        <v>4</v>
+      </c>
+      <c r="T212">
+        <v>1.44</v>
+      </c>
+      <c r="U212">
+        <v>2.63</v>
+      </c>
+      <c r="V212">
+        <v>3.25</v>
+      </c>
+      <c r="W212">
+        <v>1.33</v>
+      </c>
+      <c r="X212">
+        <v>9</v>
+      </c>
+      <c r="Y212">
+        <v>1.07</v>
+      </c>
+      <c r="Z212">
+        <v>2.13</v>
+      </c>
+      <c r="AA212">
+        <v>2.98</v>
+      </c>
+      <c r="AB212">
+        <v>3.19</v>
+      </c>
+      <c r="AC212">
+        <v>1.08</v>
+      </c>
+      <c r="AD212">
+        <v>7.5</v>
+      </c>
+      <c r="AE212">
+        <v>1.38</v>
+      </c>
+      <c r="AF212">
+        <v>3</v>
+      </c>
+      <c r="AG212">
+        <v>2.15</v>
+      </c>
+      <c r="AH212">
+        <v>1.65</v>
+      </c>
+      <c r="AI212">
+        <v>1.91</v>
+      </c>
+      <c r="AJ212">
+        <v>1.91</v>
+      </c>
+      <c r="AK212">
+        <v>1.32</v>
+      </c>
+      <c r="AL212">
+        <v>1.33</v>
+      </c>
+      <c r="AM212">
+        <v>1.62</v>
+      </c>
+      <c r="AN212">
+        <v>1</v>
+      </c>
+      <c r="AO212">
+        <v>0.88</v>
+      </c>
+      <c r="AP212">
+        <v>1.11</v>
+      </c>
+      <c r="AQ212">
+        <v>0.83</v>
+      </c>
+      <c r="AR212">
+        <v>1.35</v>
+      </c>
+      <c r="AS212">
+        <v>0.99</v>
+      </c>
+      <c r="AT212">
+        <v>2.34</v>
+      </c>
+      <c r="AU212">
+        <v>6</v>
+      </c>
+      <c r="AV212">
+        <v>4</v>
+      </c>
+      <c r="AW212">
+        <v>15</v>
+      </c>
+      <c r="AX212">
+        <v>7</v>
+      </c>
+      <c r="AY212">
+        <v>21</v>
+      </c>
+      <c r="AZ212">
+        <v>11</v>
+      </c>
+      <c r="BA212">
+        <v>4</v>
+      </c>
+      <c r="BB212">
+        <v>4</v>
+      </c>
+      <c r="BC212">
+        <v>8</v>
+      </c>
+      <c r="BD212">
+        <v>1.58</v>
+      </c>
+      <c r="BE212">
+        <v>6.75</v>
+      </c>
+      <c r="BF212">
+        <v>2.55</v>
+      </c>
+      <c r="BG212">
+        <v>1.21</v>
+      </c>
+      <c r="BH212">
+        <v>3.8</v>
+      </c>
+      <c r="BI212">
+        <v>1.37</v>
+      </c>
+      <c r="BJ212">
+        <v>2.8</v>
+      </c>
+      <c r="BK212">
+        <v>1.61</v>
+      </c>
+      <c r="BL212">
+        <v>2.14</v>
+      </c>
+      <c r="BM212">
+        <v>1.97</v>
+      </c>
+      <c r="BN212">
+        <v>1.73</v>
+      </c>
+      <c r="BO212">
+        <v>2.48</v>
+      </c>
+      <c r="BP212">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="213" spans="1:68">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>7881852</v>
+      </c>
+      <c r="C213" t="s">
+        <v>68</v>
+      </c>
+      <c r="D213" t="s">
+        <v>69</v>
+      </c>
+      <c r="E213" s="2">
+        <v>45787.45833333334</v>
+      </c>
+      <c r="F213">
+        <v>36</v>
+      </c>
+      <c r="G213" t="s">
+        <v>81</v>
+      </c>
+      <c r="H213" t="s">
+        <v>78</v>
+      </c>
+      <c r="I213">
+        <v>1</v>
+      </c>
+      <c r="J213">
+        <v>0</v>
+      </c>
+      <c r="K213">
+        <v>1</v>
+      </c>
+      <c r="L213">
+        <v>3</v>
+      </c>
+      <c r="M213">
+        <v>2</v>
+      </c>
+      <c r="N213">
+        <v>5</v>
+      </c>
+      <c r="O213" t="s">
+        <v>236</v>
+      </c>
+      <c r="P213" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q213">
+        <v>2.38</v>
+      </c>
+      <c r="R213">
+        <v>2.25</v>
+      </c>
+      <c r="S213">
+        <v>4.75</v>
+      </c>
+      <c r="T213">
+        <v>1.36</v>
+      </c>
+      <c r="U213">
+        <v>3</v>
+      </c>
+      <c r="V213">
+        <v>2.63</v>
+      </c>
+      <c r="W213">
+        <v>1.44</v>
+      </c>
+      <c r="X213">
+        <v>7</v>
+      </c>
+      <c r="Y213">
+        <v>1.1</v>
+      </c>
+      <c r="Z213">
+        <v>1.64</v>
+      </c>
+      <c r="AA213">
+        <v>3.51</v>
+      </c>
+      <c r="AB213">
+        <v>4.4</v>
+      </c>
+      <c r="AC213">
+        <v>1.05</v>
+      </c>
+      <c r="AD213">
+        <v>9.5</v>
+      </c>
+      <c r="AE213">
+        <v>1.28</v>
+      </c>
+      <c r="AF213">
+        <v>3.65</v>
+      </c>
+      <c r="AG213">
+        <v>1.8</v>
+      </c>
+      <c r="AH213">
+        <v>1.9</v>
+      </c>
+      <c r="AI213">
+        <v>1.75</v>
+      </c>
+      <c r="AJ213">
+        <v>2</v>
+      </c>
+      <c r="AK213">
+        <v>1.2</v>
+      </c>
+      <c r="AL213">
+        <v>1.26</v>
+      </c>
+      <c r="AM213">
+        <v>2</v>
+      </c>
+      <c r="AN213">
+        <v>1.71</v>
+      </c>
+      <c r="AO213">
+        <v>1.06</v>
+      </c>
+      <c r="AP213">
+        <v>1.78</v>
+      </c>
+      <c r="AQ213">
+        <v>1</v>
+      </c>
+      <c r="AR213">
+        <v>1.46</v>
+      </c>
+      <c r="AS213">
+        <v>1.17</v>
+      </c>
+      <c r="AT213">
+        <v>2.63</v>
+      </c>
+      <c r="AU213">
+        <v>9</v>
+      </c>
+      <c r="AV213">
+        <v>6</v>
+      </c>
+      <c r="AW213">
+        <v>8</v>
+      </c>
+      <c r="AX213">
+        <v>7</v>
+      </c>
+      <c r="AY213">
+        <v>17</v>
+      </c>
+      <c r="AZ213">
+        <v>13</v>
+      </c>
+      <c r="BA213">
+        <v>7</v>
+      </c>
+      <c r="BB213">
+        <v>2</v>
+      </c>
+      <c r="BC213">
+        <v>9</v>
+      </c>
+      <c r="BD213">
+        <v>1.47</v>
+      </c>
+      <c r="BE213">
+        <v>7</v>
+      </c>
+      <c r="BF213">
+        <v>2.95</v>
+      </c>
+      <c r="BG213">
+        <v>1.21</v>
+      </c>
+      <c r="BH213">
+        <v>3.7</v>
+      </c>
+      <c r="BI213">
+        <v>1.38</v>
+      </c>
+      <c r="BJ213">
+        <v>2.7</v>
+      </c>
+      <c r="BK213">
+        <v>1.64</v>
+      </c>
+      <c r="BL213">
+        <v>2.1</v>
+      </c>
+      <c r="BM213">
+        <v>1.98</v>
+      </c>
+      <c r="BN213">
+        <v>1.72</v>
+      </c>
+      <c r="BO213">
+        <v>2.5</v>
+      </c>
+      <c r="BP213">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="214" spans="1:68">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>7881850</v>
+      </c>
+      <c r="C214" t="s">
+        <v>68</v>
+      </c>
+      <c r="D214" t="s">
+        <v>69</v>
+      </c>
+      <c r="E214" s="2">
+        <v>45787.45833333334</v>
+      </c>
+      <c r="F214">
+        <v>36</v>
+      </c>
+      <c r="G214" t="s">
+        <v>72</v>
+      </c>
+      <c r="H214" t="s">
+        <v>73</v>
+      </c>
+      <c r="I214">
+        <v>0</v>
+      </c>
+      <c r="J214">
+        <v>1</v>
+      </c>
+      <c r="K214">
+        <v>1</v>
+      </c>
+      <c r="L214">
+        <v>0</v>
+      </c>
+      <c r="M214">
+        <v>2</v>
+      </c>
+      <c r="N214">
+        <v>2</v>
+      </c>
+      <c r="O214" t="s">
+        <v>82</v>
+      </c>
+      <c r="P214" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q214">
+        <v>2.88</v>
+      </c>
+      <c r="R214">
+        <v>2.2</v>
+      </c>
+      <c r="S214">
+        <v>3.6</v>
+      </c>
+      <c r="T214">
+        <v>1.36</v>
+      </c>
+      <c r="U214">
+        <v>3</v>
+      </c>
+      <c r="V214">
+        <v>2.75</v>
+      </c>
+      <c r="W214">
+        <v>1.4</v>
+      </c>
+      <c r="X214">
+        <v>7</v>
+      </c>
+      <c r="Y214">
+        <v>1.1</v>
+      </c>
+      <c r="Z214">
+        <v>2.17</v>
+      </c>
+      <c r="AA214">
+        <v>3.26</v>
+      </c>
+      <c r="AB214">
+        <v>2.84</v>
+      </c>
+      <c r="AC214">
+        <v>1.05</v>
+      </c>
+      <c r="AD214">
+        <v>9.5</v>
+      </c>
+      <c r="AE214">
+        <v>1.28</v>
+      </c>
+      <c r="AF214">
+        <v>3.55</v>
+      </c>
+      <c r="AG214">
+        <v>1.84</v>
+      </c>
+      <c r="AH214">
+        <v>1.86</v>
+      </c>
+      <c r="AI214">
+        <v>1.75</v>
+      </c>
+      <c r="AJ214">
+        <v>2</v>
+      </c>
+      <c r="AK214">
+        <v>1.37</v>
+      </c>
+      <c r="AL214">
+        <v>1.29</v>
+      </c>
+      <c r="AM214">
+        <v>1.61</v>
+      </c>
+      <c r="AN214">
+        <v>1.41</v>
+      </c>
+      <c r="AO214">
+        <v>1.06</v>
+      </c>
+      <c r="AP214">
+        <v>1.33</v>
+      </c>
+      <c r="AQ214">
+        <v>1.18</v>
+      </c>
+      <c r="AR214">
+        <v>1.39</v>
+      </c>
+      <c r="AS214">
+        <v>1.26</v>
+      </c>
+      <c r="AT214">
+        <v>2.65</v>
+      </c>
+      <c r="AU214">
+        <v>0</v>
+      </c>
+      <c r="AV214">
+        <v>8</v>
+      </c>
+      <c r="AW214">
+        <v>13</v>
+      </c>
+      <c r="AX214">
+        <v>13</v>
+      </c>
+      <c r="AY214">
+        <v>13</v>
+      </c>
+      <c r="AZ214">
+        <v>21</v>
+      </c>
+      <c r="BA214">
+        <v>4</v>
+      </c>
+      <c r="BB214">
+        <v>6</v>
+      </c>
+      <c r="BC214">
+        <v>10</v>
+      </c>
+      <c r="BD214">
+        <v>1.92</v>
+      </c>
+      <c r="BE214">
+        <v>6.75</v>
+      </c>
+      <c r="BF214">
+        <v>2.05</v>
+      </c>
+      <c r="BG214">
+        <v>1.23</v>
+      </c>
+      <c r="BH214">
+        <v>3.65</v>
+      </c>
+      <c r="BI214">
+        <v>1.41</v>
+      </c>
+      <c r="BJ214">
+        <v>2.65</v>
+      </c>
+      <c r="BK214">
+        <v>1.66</v>
+      </c>
+      <c r="BL214">
+        <v>2.07</v>
+      </c>
+      <c r="BM214">
+        <v>2.02</v>
+      </c>
+      <c r="BN214">
+        <v>1.7</v>
+      </c>
+      <c r="BO214">
+        <v>2.55</v>
+      </c>
+      <c r="BP214">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="215" spans="1:68">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>7881849</v>
+      </c>
+      <c r="C215" t="s">
+        <v>68</v>
+      </c>
+      <c r="D215" t="s">
+        <v>69</v>
+      </c>
+      <c r="E215" s="2">
+        <v>45787.45833333334</v>
+      </c>
+      <c r="F215">
+        <v>36</v>
+      </c>
+      <c r="G215" t="s">
+        <v>74</v>
+      </c>
+      <c r="H215" t="s">
+        <v>79</v>
+      </c>
+      <c r="I215">
+        <v>2</v>
+      </c>
+      <c r="J215">
+        <v>1</v>
+      </c>
+      <c r="K215">
+        <v>3</v>
+      </c>
+      <c r="L215">
+        <v>3</v>
+      </c>
+      <c r="M215">
+        <v>1</v>
+      </c>
+      <c r="N215">
+        <v>4</v>
+      </c>
+      <c r="O215" t="s">
+        <v>237</v>
+      </c>
+      <c r="P215" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q215">
+        <v>1.67</v>
+      </c>
+      <c r="R215">
+        <v>2.88</v>
+      </c>
+      <c r="S215">
+        <v>8.5</v>
+      </c>
+      <c r="T215">
+        <v>1.22</v>
+      </c>
+      <c r="U215">
+        <v>4</v>
+      </c>
+      <c r="V215">
+        <v>2.1</v>
+      </c>
+      <c r="W215">
+        <v>1.67</v>
+      </c>
+      <c r="X215">
+        <v>4.5</v>
+      </c>
+      <c r="Y215">
+        <v>1.18</v>
+      </c>
+      <c r="Z215">
+        <v>1.23</v>
+      </c>
+      <c r="AA215">
+        <v>5.5</v>
+      </c>
+      <c r="AB215">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC215">
+        <v>1.03</v>
+      </c>
+      <c r="AD215">
+        <v>11</v>
+      </c>
+      <c r="AE215">
+        <v>1.14</v>
+      </c>
+      <c r="AF215">
+        <v>5.5</v>
+      </c>
+      <c r="AG215">
+        <v>1.55</v>
+      </c>
+      <c r="AH215">
+        <v>2.3</v>
+      </c>
+      <c r="AI215">
+        <v>1.91</v>
+      </c>
+      <c r="AJ215">
+        <v>1.91</v>
+      </c>
+      <c r="AK215">
+        <v>1.06</v>
+      </c>
+      <c r="AL215">
+        <v>1.12</v>
+      </c>
+      <c r="AM215">
+        <v>3.75</v>
+      </c>
+      <c r="AN215">
+        <v>2.71</v>
+      </c>
+      <c r="AO215">
+        <v>1.24</v>
+      </c>
+      <c r="AP215">
+        <v>2.72</v>
+      </c>
+      <c r="AQ215">
+        <v>1.17</v>
+      </c>
+      <c r="AR215">
+        <v>2.19</v>
+      </c>
+      <c r="AS215">
+        <v>1.38</v>
+      </c>
+      <c r="AT215">
+        <v>3.57</v>
+      </c>
+      <c r="AU215">
+        <v>9</v>
+      </c>
+      <c r="AV215">
+        <v>3</v>
+      </c>
+      <c r="AW215">
+        <v>11</v>
+      </c>
+      <c r="AX215">
+        <v>6</v>
+      </c>
+      <c r="AY215">
+        <v>20</v>
+      </c>
+      <c r="AZ215">
+        <v>9</v>
+      </c>
+      <c r="BA215">
+        <v>8</v>
+      </c>
+      <c r="BB215">
+        <v>3</v>
+      </c>
+      <c r="BC215">
+        <v>11</v>
+      </c>
+      <c r="BD215">
+        <v>1.17</v>
+      </c>
+      <c r="BE215">
+        <v>10</v>
+      </c>
+      <c r="BF215">
+        <v>5.1</v>
+      </c>
+      <c r="BG215">
+        <v>1.09</v>
+      </c>
+      <c r="BH215">
+        <v>5.8</v>
+      </c>
+      <c r="BI215">
+        <v>1.17</v>
+      </c>
+      <c r="BJ215">
+        <v>4.3</v>
+      </c>
+      <c r="BK215">
+        <v>1.3</v>
+      </c>
+      <c r="BL215">
+        <v>3.15</v>
+      </c>
+      <c r="BM215">
+        <v>1.48</v>
+      </c>
+      <c r="BN215">
+        <v>2.43</v>
+      </c>
+      <c r="BO215">
+        <v>1.73</v>
+      </c>
+      <c r="BP215">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="216" spans="1:68">
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>7881851</v>
+      </c>
+      <c r="C216" t="s">
+        <v>68</v>
+      </c>
+      <c r="D216" t="s">
+        <v>69</v>
+      </c>
+      <c r="E216" s="2">
+        <v>45787.45833333334</v>
+      </c>
+      <c r="F216">
+        <v>36</v>
+      </c>
+      <c r="G216" t="s">
+        <v>70</v>
+      </c>
+      <c r="H216" t="s">
+        <v>71</v>
+      </c>
+      <c r="I216">
+        <v>1</v>
+      </c>
+      <c r="J216">
+        <v>0</v>
+      </c>
+      <c r="K216">
+        <v>1</v>
+      </c>
+      <c r="L216">
+        <v>3</v>
+      </c>
+      <c r="M216">
+        <v>0</v>
+      </c>
+      <c r="N216">
+        <v>3</v>
+      </c>
+      <c r="O216" t="s">
+        <v>238</v>
+      </c>
+      <c r="P216" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q216">
+        <v>2</v>
+      </c>
+      <c r="R216">
+        <v>2.38</v>
+      </c>
+      <c r="S216">
+        <v>6</v>
+      </c>
+      <c r="T216">
+        <v>1.33</v>
+      </c>
+      <c r="U216">
+        <v>3.25</v>
+      </c>
+      <c r="V216">
+        <v>2.63</v>
+      </c>
+      <c r="W216">
+        <v>1.44</v>
+      </c>
+      <c r="X216">
+        <v>6.5</v>
+      </c>
+      <c r="Y216">
+        <v>1.11</v>
+      </c>
+      <c r="Z216">
+        <v>1.5</v>
+      </c>
+      <c r="AA216">
+        <v>3.77</v>
+      </c>
+      <c r="AB216">
+        <v>5.3</v>
+      </c>
+      <c r="AC216">
+        <v>1.04</v>
+      </c>
+      <c r="AD216">
+        <v>10</v>
+      </c>
+      <c r="AE216">
+        <v>1.25</v>
+      </c>
+      <c r="AF216">
+        <v>3.8</v>
+      </c>
+      <c r="AG216">
+        <v>1.78</v>
+      </c>
+      <c r="AH216">
+        <v>1.92</v>
+      </c>
+      <c r="AI216">
+        <v>1.91</v>
+      </c>
+      <c r="AJ216">
+        <v>1.91</v>
+      </c>
+      <c r="AK216">
+        <v>1.13</v>
+      </c>
+      <c r="AL216">
+        <v>1.22</v>
+      </c>
+      <c r="AM216">
+        <v>2.4</v>
+      </c>
+      <c r="AN216">
+        <v>1.41</v>
+      </c>
+      <c r="AO216">
+        <v>1.06</v>
+      </c>
+      <c r="AP216">
+        <v>1.5</v>
+      </c>
+      <c r="AQ216">
+        <v>1</v>
+      </c>
+      <c r="AR216">
+        <v>1.75</v>
+      </c>
+      <c r="AS216">
+        <v>1.1</v>
+      </c>
+      <c r="AT216">
+        <v>2.85</v>
+      </c>
+      <c r="AU216">
+        <v>6</v>
+      </c>
+      <c r="AV216">
+        <v>4</v>
+      </c>
+      <c r="AW216">
+        <v>5</v>
+      </c>
+      <c r="AX216">
+        <v>7</v>
+      </c>
+      <c r="AY216">
+        <v>11</v>
+      </c>
+      <c r="AZ216">
+        <v>11</v>
+      </c>
+      <c r="BA216">
+        <v>6</v>
+      </c>
+      <c r="BB216">
+        <v>1</v>
+      </c>
+      <c r="BC216">
+        <v>7</v>
+      </c>
+      <c r="BD216">
+        <v>1.26</v>
+      </c>
+      <c r="BE216">
+        <v>8.5</v>
+      </c>
+      <c r="BF216">
+        <v>4.1</v>
+      </c>
+      <c r="BG216">
+        <v>1.13</v>
+      </c>
+      <c r="BH216">
+        <v>4.9</v>
+      </c>
+      <c r="BI216">
+        <v>1.24</v>
+      </c>
+      <c r="BJ216">
+        <v>3.55</v>
+      </c>
+      <c r="BK216">
+        <v>1.41</v>
+      </c>
+      <c r="BL216">
+        <v>2.65</v>
+      </c>
+      <c r="BM216">
+        <v>1.63</v>
+      </c>
+      <c r="BN216">
+        <v>2.1</v>
+      </c>
+      <c r="BO216">
+        <v>1.97</v>
+      </c>
+      <c r="BP216">
+        <v>1.73</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Scotland Premiership_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Scotland Premiership_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="346">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -733,6 +733,9 @@
     <t>['30', '60', '62']</t>
   </si>
   <si>
+    <t>['55', '61', '70', '90+3']</t>
+  </si>
+  <si>
     <t>['18', '79']</t>
   </si>
   <si>
@@ -1410,7 +1413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP216"/>
+  <dimension ref="A1:BP217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2081,7 +2084,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -2699,7 +2702,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q7">
         <v>3.6</v>
@@ -2780,7 +2783,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ7">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2983,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ8">
         <v>1</v>
@@ -3111,7 +3114,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q9">
         <v>3.2</v>
@@ -3523,7 +3526,7 @@
         <v>82</v>
       </c>
       <c r="P11" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3729,7 +3732,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3935,7 +3938,7 @@
         <v>82</v>
       </c>
       <c r="P13" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q13">
         <v>2.4</v>
@@ -4219,7 +4222,7 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ14">
         <v>0.83</v>
@@ -4553,7 +4556,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4759,7 +4762,7 @@
         <v>82</v>
       </c>
       <c r="P17" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q17">
         <v>7.5</v>
@@ -5377,7 +5380,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q20">
         <v>2.75</v>
@@ -5583,7 +5586,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5789,7 +5792,7 @@
         <v>82</v>
       </c>
       <c r="P22" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5870,7 +5873,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ22">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR22">
         <v>1.66</v>
@@ -6201,7 +6204,7 @@
         <v>82</v>
       </c>
       <c r="P24" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q24">
         <v>2.38</v>
@@ -6407,7 +6410,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -7025,7 +7028,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -8055,7 +8058,7 @@
         <v>106</v>
       </c>
       <c r="P33" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q33">
         <v>2.75</v>
@@ -8261,7 +8264,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q34">
         <v>3.5</v>
@@ -8342,7 +8345,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ34">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR34">
         <v>1.5</v>
@@ -8673,7 +8676,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8879,7 +8882,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -9085,7 +9088,7 @@
         <v>82</v>
       </c>
       <c r="P38" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q38">
         <v>10</v>
@@ -9369,7 +9372,7 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ39">
         <v>1.17</v>
@@ -9497,7 +9500,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9703,7 +9706,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q41">
         <v>2.63</v>
@@ -9909,7 +9912,7 @@
         <v>82</v>
       </c>
       <c r="P42" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -10115,7 +10118,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q43">
         <v>9.5</v>
@@ -10321,7 +10324,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q44">
         <v>2.25</v>
@@ -10605,7 +10608,7 @@
         <v>1</v>
       </c>
       <c r="AP45">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ45">
         <v>0.67</v>
@@ -10939,7 +10942,7 @@
         <v>118</v>
       </c>
       <c r="P47" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q47">
         <v>1.67</v>
@@ -11020,7 +11023,7 @@
         <v>2.72</v>
       </c>
       <c r="AQ47">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR47">
         <v>2.16</v>
@@ -11351,7 +11354,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11557,7 +11560,7 @@
         <v>82</v>
       </c>
       <c r="P50" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q50">
         <v>2.63</v>
@@ -11969,7 +11972,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -12175,7 +12178,7 @@
         <v>123</v>
       </c>
       <c r="P53" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q53">
         <v>3.75</v>
@@ -12793,7 +12796,7 @@
         <v>82</v>
       </c>
       <c r="P56" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q56">
         <v>7.5</v>
@@ -13077,7 +13080,7 @@
         <v>0.25</v>
       </c>
       <c r="AP57">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ57">
         <v>1.18</v>
@@ -13205,7 +13208,7 @@
         <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q58">
         <v>2.38</v>
@@ -13411,7 +13414,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q59">
         <v>2.4</v>
@@ -13617,7 +13620,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q60">
         <v>2.75</v>
@@ -14235,7 +14238,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q63">
         <v>4.33</v>
@@ -14441,7 +14444,7 @@
         <v>132</v>
       </c>
       <c r="P64" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q64">
         <v>4.5</v>
@@ -14853,7 +14856,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q66">
         <v>2.4</v>
@@ -15059,7 +15062,7 @@
         <v>134</v>
       </c>
       <c r="P67" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -15265,7 +15268,7 @@
         <v>135</v>
       </c>
       <c r="P68" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q68">
         <v>2.5</v>
@@ -15471,7 +15474,7 @@
         <v>136</v>
       </c>
       <c r="P69" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q69">
         <v>2.5</v>
@@ -15883,7 +15886,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q71">
         <v>2.25</v>
@@ -16089,7 +16092,7 @@
         <v>82</v>
       </c>
       <c r="P72" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -16373,7 +16376,7 @@
         <v>0.57</v>
       </c>
       <c r="AP73">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ73">
         <v>1.06</v>
@@ -16501,7 +16504,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q74">
         <v>3.4</v>
@@ -16991,7 +16994,7 @@
         <v>1.5</v>
       </c>
       <c r="AP76">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ76">
         <v>1.44</v>
@@ -17119,7 +17122,7 @@
         <v>143</v>
       </c>
       <c r="P77" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q77">
         <v>3.6</v>
@@ -17200,7 +17203,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ77">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR77">
         <v>1.13</v>
@@ -17325,7 +17328,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q78">
         <v>3.25</v>
@@ -17531,7 +17534,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q79">
         <v>6.5</v>
@@ -17737,7 +17740,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q80">
         <v>3.4</v>
@@ -17818,7 +17821,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ80">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR80">
         <v>1.33</v>
@@ -18149,7 +18152,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q82">
         <v>2.63</v>
@@ -18355,7 +18358,7 @@
         <v>82</v>
       </c>
       <c r="P83" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q83">
         <v>3.25</v>
@@ -18767,7 +18770,7 @@
         <v>82</v>
       </c>
       <c r="P85" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q85">
         <v>7.5</v>
@@ -18973,7 +18976,7 @@
         <v>150</v>
       </c>
       <c r="P86" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -19054,7 +19057,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ86">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR86">
         <v>1.56</v>
@@ -19463,7 +19466,7 @@
         <v>0.88</v>
       </c>
       <c r="AP88">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ88">
         <v>0.67</v>
@@ -19591,7 +19594,7 @@
         <v>82</v>
       </c>
       <c r="P89" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -20827,7 +20830,7 @@
         <v>82</v>
       </c>
       <c r="P95" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q95">
         <v>10</v>
@@ -21033,7 +21036,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -21239,7 +21242,7 @@
         <v>158</v>
       </c>
       <c r="P97" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q97">
         <v>3.5</v>
@@ -21445,7 +21448,7 @@
         <v>159</v>
       </c>
       <c r="P98" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q98">
         <v>2.05</v>
@@ -21857,7 +21860,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q100">
         <v>3.1</v>
@@ -22141,7 +22144,7 @@
         <v>0.75</v>
       </c>
       <c r="AP101">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ101">
         <v>1</v>
@@ -22269,7 +22272,7 @@
         <v>162</v>
       </c>
       <c r="P102" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q102">
         <v>4</v>
@@ -22475,7 +22478,7 @@
         <v>163</v>
       </c>
       <c r="P103" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -23093,7 +23096,7 @@
         <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q106">
         <v>2.75</v>
@@ -23299,7 +23302,7 @@
         <v>128</v>
       </c>
       <c r="P107" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23586,7 +23589,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ108">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR108">
         <v>1.35</v>
@@ -23711,7 +23714,7 @@
         <v>82</v>
       </c>
       <c r="P109" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q109">
         <v>2.38</v>
@@ -24329,7 +24332,7 @@
         <v>169</v>
       </c>
       <c r="P112" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -24535,7 +24538,7 @@
         <v>170</v>
       </c>
       <c r="P113" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q113">
         <v>2.65</v>
@@ -24741,7 +24744,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q114">
         <v>7</v>
@@ -25440,7 +25443,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ117">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR117">
         <v>1.33</v>
@@ -25565,7 +25568,7 @@
         <v>174</v>
       </c>
       <c r="P118" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q118">
         <v>2</v>
@@ -26261,7 +26264,7 @@
         <v>2.78</v>
       </c>
       <c r="AP121">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ121">
         <v>2.17</v>
@@ -26595,7 +26598,7 @@
         <v>179</v>
       </c>
       <c r="P123" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q123">
         <v>3.2</v>
@@ -26801,7 +26804,7 @@
         <v>180</v>
       </c>
       <c r="P124" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q124">
         <v>6.5</v>
@@ -27088,7 +27091,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ125">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR125">
         <v>1.17</v>
@@ -27213,7 +27216,7 @@
         <v>82</v>
       </c>
       <c r="P126" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q126">
         <v>3</v>
@@ -27419,7 +27422,7 @@
         <v>182</v>
       </c>
       <c r="P127" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q127">
         <v>3.2</v>
@@ -27625,7 +27628,7 @@
         <v>82</v>
       </c>
       <c r="P128" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q128">
         <v>2.05</v>
@@ -28655,7 +28658,7 @@
         <v>185</v>
       </c>
       <c r="P133" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q133">
         <v>10</v>
@@ -28861,7 +28864,7 @@
         <v>186</v>
       </c>
       <c r="P134" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q134">
         <v>2.35</v>
@@ -29557,7 +29560,7 @@
         <v>0.73</v>
       </c>
       <c r="AP137">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ137">
         <v>0.67</v>
@@ -29685,7 +29688,7 @@
         <v>188</v>
       </c>
       <c r="P138" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q138">
         <v>10</v>
@@ -29969,10 +29972,10 @@
         <v>1.2</v>
       </c>
       <c r="AP139">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ139">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR139">
         <v>2</v>
@@ -30097,7 +30100,7 @@
         <v>190</v>
       </c>
       <c r="P140" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q140">
         <v>2.5</v>
@@ -30509,7 +30512,7 @@
         <v>121</v>
       </c>
       <c r="P142" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q142">
         <v>4</v>
@@ -30715,7 +30718,7 @@
         <v>82</v>
       </c>
       <c r="P143" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q143">
         <v>2.63</v>
@@ -30921,7 +30924,7 @@
         <v>192</v>
       </c>
       <c r="P144" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q144">
         <v>5.5</v>
@@ -31127,7 +31130,7 @@
         <v>82</v>
       </c>
       <c r="P145" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q145">
         <v>3.5</v>
@@ -31414,7 +31417,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ146">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR146">
         <v>1.38</v>
@@ -31539,7 +31542,7 @@
         <v>82</v>
       </c>
       <c r="P147" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q147">
         <v>2.5</v>
@@ -31951,7 +31954,7 @@
         <v>195</v>
       </c>
       <c r="P149" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q149">
         <v>10</v>
@@ -32235,7 +32238,7 @@
         <v>1.09</v>
       </c>
       <c r="AP150">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ150">
         <v>0.83</v>
@@ -32569,7 +32572,7 @@
         <v>198</v>
       </c>
       <c r="P152" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q152">
         <v>3.2</v>
@@ -32650,7 +32653,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ152">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR152">
         <v>1.3</v>
@@ -32981,7 +32984,7 @@
         <v>82</v>
       </c>
       <c r="P154" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q154">
         <v>2.75</v>
@@ -33393,7 +33396,7 @@
         <v>201</v>
       </c>
       <c r="P156" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q156">
         <v>5</v>
@@ -34629,7 +34632,7 @@
         <v>82</v>
       </c>
       <c r="P162" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q162">
         <v>1.57</v>
@@ -34707,7 +34710,7 @@
         <v>1.08</v>
       </c>
       <c r="AP162">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ162">
         <v>1.18</v>
@@ -34835,7 +34838,7 @@
         <v>141</v>
       </c>
       <c r="P163" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q163">
         <v>4.33</v>
@@ -35041,7 +35044,7 @@
         <v>206</v>
       </c>
       <c r="P164" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q164">
         <v>1.57</v>
@@ -35122,7 +35125,7 @@
         <v>2.72</v>
       </c>
       <c r="AQ164">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR164">
         <v>2.28</v>
@@ -35453,7 +35456,7 @@
         <v>139</v>
       </c>
       <c r="P166" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q166">
         <v>3.4</v>
@@ -35659,7 +35662,7 @@
         <v>208</v>
       </c>
       <c r="P167" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q167">
         <v>2.4</v>
@@ -36071,7 +36074,7 @@
         <v>209</v>
       </c>
       <c r="P169" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q169">
         <v>5.5</v>
@@ -36277,7 +36280,7 @@
         <v>198</v>
       </c>
       <c r="P170" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q170">
         <v>1.53</v>
@@ -36355,7 +36358,7 @@
         <v>0.93</v>
       </c>
       <c r="AP170">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ170">
         <v>1</v>
@@ -36895,7 +36898,7 @@
         <v>211</v>
       </c>
       <c r="P173" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q173">
         <v>10</v>
@@ -37101,7 +37104,7 @@
         <v>212</v>
       </c>
       <c r="P174" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q174">
         <v>3</v>
@@ -37307,7 +37310,7 @@
         <v>213</v>
       </c>
       <c r="P175" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q175">
         <v>2.88</v>
@@ -37925,7 +37928,7 @@
         <v>215</v>
       </c>
       <c r="P178" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q178">
         <v>3.4</v>
@@ -38212,7 +38215,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ179">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR179">
         <v>1.35</v>
@@ -38337,7 +38340,7 @@
         <v>216</v>
       </c>
       <c r="P180" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q180">
         <v>2.25</v>
@@ -38543,7 +38546,7 @@
         <v>217</v>
       </c>
       <c r="P181" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q181">
         <v>2.4</v>
@@ -39367,7 +39370,7 @@
         <v>221</v>
       </c>
       <c r="P185" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q185">
         <v>2.3</v>
@@ -39573,7 +39576,7 @@
         <v>222</v>
       </c>
       <c r="P186" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q186">
         <v>6.5</v>
@@ -39779,7 +39782,7 @@
         <v>82</v>
       </c>
       <c r="P187" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q187">
         <v>3.6</v>
@@ -39985,7 +39988,7 @@
         <v>82</v>
       </c>
       <c r="P188" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q188">
         <v>1.95</v>
@@ -40063,7 +40066,7 @@
         <v>1.2</v>
       </c>
       <c r="AP188">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ188">
         <v>1.17</v>
@@ -40191,7 +40194,7 @@
         <v>82</v>
       </c>
       <c r="P189" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q189">
         <v>3.75</v>
@@ -40272,7 +40275,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ189">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR189">
         <v>1.23</v>
@@ -41221,7 +41224,7 @@
         <v>226</v>
       </c>
       <c r="P194" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q194">
         <v>1.57</v>
@@ -41839,7 +41842,7 @@
         <v>227</v>
       </c>
       <c r="P197" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q197">
         <v>2.3</v>
@@ -42045,7 +42048,7 @@
         <v>228</v>
       </c>
       <c r="P198" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q198">
         <v>4.33</v>
@@ -42457,7 +42460,7 @@
         <v>82</v>
       </c>
       <c r="P200" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q200">
         <v>7.5</v>
@@ -42869,7 +42872,7 @@
         <v>230</v>
       </c>
       <c r="P202" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q202">
         <v>4.33</v>
@@ -43075,7 +43078,7 @@
         <v>82</v>
       </c>
       <c r="P203" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q203">
         <v>2.05</v>
@@ -43487,7 +43490,7 @@
         <v>232</v>
       </c>
       <c r="P205" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q205">
         <v>3.1</v>
@@ -43693,7 +43696,7 @@
         <v>233</v>
       </c>
       <c r="P206" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q206">
         <v>2.3</v>
@@ -43980,7 +43983,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ207">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR207">
         <v>1.37</v>
@@ -44105,7 +44108,7 @@
         <v>204</v>
       </c>
       <c r="P208" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q208">
         <v>2.63</v>
@@ -44311,7 +44314,7 @@
         <v>234</v>
       </c>
       <c r="P209" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q209">
         <v>4.5</v>
@@ -44517,7 +44520,7 @@
         <v>82</v>
       </c>
       <c r="P210" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q210">
         <v>3.75</v>
@@ -44723,7 +44726,7 @@
         <v>128</v>
       </c>
       <c r="P211" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q211">
         <v>4</v>
@@ -44801,7 +44804,7 @@
         <v>2.24</v>
       </c>
       <c r="AP211">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ211">
         <v>2.17</v>
@@ -44929,7 +44932,7 @@
         <v>235</v>
       </c>
       <c r="P212" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q212">
         <v>2.88</v>
@@ -45135,7 +45138,7 @@
         <v>236</v>
       </c>
       <c r="P213" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q213">
         <v>2.38</v>
@@ -45341,7 +45344,7 @@
         <v>82</v>
       </c>
       <c r="P214" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q214">
         <v>2.88</v>
@@ -45910,6 +45913,212 @@
       </c>
       <c r="BP216">
         <v>1.73</v>
+      </c>
+    </row>
+    <row r="217" spans="1:68">
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>7881854</v>
+      </c>
+      <c r="C217" t="s">
+        <v>68</v>
+      </c>
+      <c r="D217" t="s">
+        <v>69</v>
+      </c>
+      <c r="E217" s="2">
+        <v>45788.33333333334</v>
+      </c>
+      <c r="F217">
+        <v>36</v>
+      </c>
+      <c r="G217" t="s">
+        <v>76</v>
+      </c>
+      <c r="H217" t="s">
+        <v>80</v>
+      </c>
+      <c r="I217">
+        <v>0</v>
+      </c>
+      <c r="J217">
+        <v>0</v>
+      </c>
+      <c r="K217">
+        <v>0</v>
+      </c>
+      <c r="L217">
+        <v>4</v>
+      </c>
+      <c r="M217">
+        <v>0</v>
+      </c>
+      <c r="N217">
+        <v>4</v>
+      </c>
+      <c r="O217" t="s">
+        <v>239</v>
+      </c>
+      <c r="P217" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q217">
+        <v>2.1</v>
+      </c>
+      <c r="R217">
+        <v>2.5</v>
+      </c>
+      <c r="S217">
+        <v>5</v>
+      </c>
+      <c r="T217">
+        <v>1.29</v>
+      </c>
+      <c r="U217">
+        <v>3.5</v>
+      </c>
+      <c r="V217">
+        <v>2.25</v>
+      </c>
+      <c r="W217">
+        <v>1.57</v>
+      </c>
+      <c r="X217">
+        <v>5.5</v>
+      </c>
+      <c r="Y217">
+        <v>1.14</v>
+      </c>
+      <c r="Z217">
+        <v>1.68</v>
+      </c>
+      <c r="AA217">
+        <v>3.58</v>
+      </c>
+      <c r="AB217">
+        <v>4.1</v>
+      </c>
+      <c r="AC217">
+        <v>1.03</v>
+      </c>
+      <c r="AD217">
+        <v>11</v>
+      </c>
+      <c r="AE217">
+        <v>1.2</v>
+      </c>
+      <c r="AF217">
+        <v>4.5</v>
+      </c>
+      <c r="AG217">
+        <v>1.7</v>
+      </c>
+      <c r="AH217">
+        <v>2.05</v>
+      </c>
+      <c r="AI217">
+        <v>1.67</v>
+      </c>
+      <c r="AJ217">
+        <v>2.1</v>
+      </c>
+      <c r="AK217">
+        <v>1.18</v>
+      </c>
+      <c r="AL217">
+        <v>1.18</v>
+      </c>
+      <c r="AM217">
+        <v>2.15</v>
+      </c>
+      <c r="AN217">
+        <v>2.24</v>
+      </c>
+      <c r="AO217">
+        <v>1.12</v>
+      </c>
+      <c r="AP217">
+        <v>2.28</v>
+      </c>
+      <c r="AQ217">
+        <v>1.06</v>
+      </c>
+      <c r="AR217">
+        <v>2.11</v>
+      </c>
+      <c r="AS217">
+        <v>1.22</v>
+      </c>
+      <c r="AT217">
+        <v>3.33</v>
+      </c>
+      <c r="AU217">
+        <v>13</v>
+      </c>
+      <c r="AV217">
+        <v>6</v>
+      </c>
+      <c r="AW217">
+        <v>13</v>
+      </c>
+      <c r="AX217">
+        <v>4</v>
+      </c>
+      <c r="AY217">
+        <v>29</v>
+      </c>
+      <c r="AZ217">
+        <v>12</v>
+      </c>
+      <c r="BA217">
+        <v>7</v>
+      </c>
+      <c r="BB217">
+        <v>2</v>
+      </c>
+      <c r="BC217">
+        <v>9</v>
+      </c>
+      <c r="BD217">
+        <v>1.36</v>
+      </c>
+      <c r="BE217">
+        <v>7.5</v>
+      </c>
+      <c r="BF217">
+        <v>3.4</v>
+      </c>
+      <c r="BG217">
+        <v>1.11</v>
+      </c>
+      <c r="BH217">
+        <v>5.1</v>
+      </c>
+      <c r="BI217">
+        <v>1.23</v>
+      </c>
+      <c r="BJ217">
+        <v>3.65</v>
+      </c>
+      <c r="BK217">
+        <v>1.41</v>
+      </c>
+      <c r="BL217">
+        <v>2.65</v>
+      </c>
+      <c r="BM217">
+        <v>1.64</v>
+      </c>
+      <c r="BN217">
+        <v>2.1</v>
+      </c>
+      <c r="BO217">
+        <v>1.96</v>
+      </c>
+      <c r="BP217">
+        <v>1.74</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Scotland Premiership_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Scotland Premiership_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="354">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -736,6 +736,24 @@
     <t>['55', '61', '70', '90+3']</t>
   </si>
   <si>
+    <t>['25', '73', '75']</t>
+  </si>
+  <si>
+    <t>['45+5', '64']</t>
+  </si>
+  <si>
+    <t>['55']</t>
+  </si>
+  <si>
+    <t>['17', '31']</t>
+  </si>
+  <si>
+    <t>['77', '83', '86']</t>
+  </si>
+  <si>
+    <t>['42']</t>
+  </si>
+  <si>
     <t>['18', '79']</t>
   </si>
   <si>
@@ -949,9 +967,6 @@
     <t>['50', '67']</t>
   </si>
   <si>
-    <t>['42']</t>
-  </si>
-  <si>
     <t>['7', '36', '78']</t>
   </si>
   <si>
@@ -1052,6 +1067,15 @@
   </si>
   <si>
     <t>['31', '66']</t>
+  </si>
+  <si>
+    <t>['20']</t>
+  </si>
+  <si>
+    <t>['3', '10']</t>
+  </si>
+  <si>
+    <t>['31', '45+8', '48', '54', '90+4']</t>
   </si>
 </sst>
 </file>
@@ -1413,7 +1437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP217"/>
+  <dimension ref="A1:BP223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1750,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ2">
         <v>1.67</v>
@@ -1956,10 +1980,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ3">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2084,7 +2108,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -2368,10 +2392,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ5">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2577,7 +2601,7 @@
         <v>2.72</v>
       </c>
       <c r="AQ6">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2702,7 +2726,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="Q7">
         <v>3.6</v>
@@ -2986,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="AQ8">
         <v>1</v>
@@ -3114,7 +3138,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="Q9">
         <v>3.2</v>
@@ -3195,7 +3219,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ9">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3398,7 +3422,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AQ10">
         <v>1.06</v>
@@ -3526,7 +3550,7 @@
         <v>82</v>
       </c>
       <c r="P11" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3607,7 +3631,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ11">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3732,7 +3756,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3810,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AQ12">
         <v>1.18</v>
@@ -3938,7 +3962,7 @@
         <v>82</v>
       </c>
       <c r="P13" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="Q13">
         <v>2.4</v>
@@ -4019,7 +4043,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ13">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4222,10 +4246,10 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="AQ14">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR14">
         <v>2.02</v>
@@ -4431,7 +4455,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ15">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR15">
         <v>2.04</v>
@@ -4556,7 +4580,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4762,7 +4786,7 @@
         <v>82</v>
       </c>
       <c r="P17" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="Q17">
         <v>7.5</v>
@@ -4840,10 +4864,10 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ17">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AR17">
         <v>1.07</v>
@@ -5046,7 +5070,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ18">
         <v>1.06</v>
@@ -5252,10 +5276,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AQ19">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR19">
         <v>1.1</v>
@@ -5380,7 +5404,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="Q20">
         <v>2.75</v>
@@ -5458,7 +5482,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AQ20">
         <v>1.18</v>
@@ -5586,7 +5610,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5792,7 +5816,7 @@
         <v>82</v>
       </c>
       <c r="P22" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -6204,7 +6228,7 @@
         <v>82</v>
       </c>
       <c r="P24" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="Q24">
         <v>2.38</v>
@@ -6282,10 +6306,10 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ24">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR24">
         <v>1.14</v>
@@ -6410,7 +6434,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6491,7 +6515,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ25">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AR25">
         <v>1.41</v>
@@ -6903,7 +6927,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ27">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR27">
         <v>0.85</v>
@@ -7028,7 +7052,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -7106,10 +7130,10 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ28">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR28">
         <v>0.76</v>
@@ -7518,7 +7542,7 @@
         <v>1.5</v>
       </c>
       <c r="AP30">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AQ30">
         <v>1</v>
@@ -7930,7 +7954,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ32">
         <v>1.06</v>
@@ -8058,7 +8082,7 @@
         <v>106</v>
       </c>
       <c r="P33" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="Q33">
         <v>2.75</v>
@@ -8139,7 +8163,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ33">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR33">
         <v>1.31</v>
@@ -8264,7 +8288,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="Q34">
         <v>3.5</v>
@@ -8342,7 +8366,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AQ34">
         <v>1.06</v>
@@ -8548,10 +8572,10 @@
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ35">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR35">
         <v>1.25</v>
@@ -8676,7 +8700,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8757,7 +8781,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ36">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR36">
         <v>1.32</v>
@@ -8882,7 +8906,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8960,7 +8984,7 @@
         <v>0.5</v>
       </c>
       <c r="AP37">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ37">
         <v>1.18</v>
@@ -9088,7 +9112,7 @@
         <v>82</v>
       </c>
       <c r="P38" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="Q38">
         <v>10</v>
@@ -9169,7 +9193,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ38">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AR38">
         <v>1.42</v>
@@ -9372,10 +9396,10 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="AQ39">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AR39">
         <v>2.01</v>
@@ -9500,7 +9524,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9578,10 +9602,10 @@
         <v>0.33</v>
       </c>
       <c r="AP40">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AQ40">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR40">
         <v>1.64</v>
@@ -9706,7 +9730,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="Q41">
         <v>2.63</v>
@@ -9912,7 +9936,7 @@
         <v>82</v>
       </c>
       <c r="P42" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9990,10 +10014,10 @@
         <v>1.67</v>
       </c>
       <c r="AP42">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ42">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR42">
         <v>0.9399999999999999</v>
@@ -10118,7 +10142,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="Q43">
         <v>9.5</v>
@@ -10199,7 +10223,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ43">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AR43">
         <v>1.4</v>
@@ -10324,7 +10348,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="Q44">
         <v>2.25</v>
@@ -10402,7 +10426,7 @@
         <v>0</v>
       </c>
       <c r="AP44">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AQ44">
         <v>1.06</v>
@@ -10608,10 +10632,10 @@
         <v>1</v>
       </c>
       <c r="AP45">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="AQ45">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR45">
         <v>1.85</v>
@@ -10817,7 +10841,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ46">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR46">
         <v>1.16</v>
@@ -10942,7 +10966,7 @@
         <v>118</v>
       </c>
       <c r="P47" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="Q47">
         <v>1.67</v>
@@ -11226,7 +11250,7 @@
         <v>0.33</v>
       </c>
       <c r="AP48">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ48">
         <v>1.18</v>
@@ -11354,7 +11378,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11435,7 +11459,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ49">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AR49">
         <v>1.19</v>
@@ -11560,7 +11584,7 @@
         <v>82</v>
       </c>
       <c r="P50" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="Q50">
         <v>2.63</v>
@@ -11638,7 +11662,7 @@
         <v>0.67</v>
       </c>
       <c r="AP50">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ50">
         <v>1</v>
@@ -11972,7 +11996,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -12050,10 +12074,10 @@
         <v>0.8</v>
       </c>
       <c r="AP52">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AQ52">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR52">
         <v>1.52</v>
@@ -12178,7 +12202,7 @@
         <v>123</v>
       </c>
       <c r="P53" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="Q53">
         <v>3.75</v>
@@ -12259,7 +12283,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ53">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR53">
         <v>1.34</v>
@@ -12462,10 +12486,10 @@
         <v>2</v>
       </c>
       <c r="AP54">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AQ54">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR54">
         <v>1.17</v>
@@ -12796,7 +12820,7 @@
         <v>82</v>
       </c>
       <c r="P56" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="Q56">
         <v>7.5</v>
@@ -12874,10 +12898,10 @@
         <v>3</v>
       </c>
       <c r="AP56">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ56">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AR56">
         <v>1.24</v>
@@ -13080,7 +13104,7 @@
         <v>0.25</v>
       </c>
       <c r="AP57">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="AQ57">
         <v>1.18</v>
@@ -13208,7 +13232,7 @@
         <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="Q58">
         <v>2.38</v>
@@ -13286,10 +13310,10 @@
         <v>1.17</v>
       </c>
       <c r="AP58">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ58">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR58">
         <v>1.06</v>
@@ -13414,7 +13438,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="Q59">
         <v>2.4</v>
@@ -13492,10 +13516,10 @@
         <v>0.8</v>
       </c>
       <c r="AP59">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ59">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR59">
         <v>1.54</v>
@@ -13620,7 +13644,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="Q60">
         <v>2.75</v>
@@ -14113,7 +14137,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ62">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AR62">
         <v>1.31</v>
@@ -14238,7 +14262,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Q63">
         <v>4.33</v>
@@ -14316,7 +14340,7 @@
         <v>1</v>
       </c>
       <c r="AP63">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AQ63">
         <v>1.67</v>
@@ -14444,7 +14468,7 @@
         <v>132</v>
       </c>
       <c r="P64" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="Q64">
         <v>4.5</v>
@@ -14728,10 +14752,10 @@
         <v>0.5</v>
       </c>
       <c r="AP65">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ65">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR65">
         <v>1.13</v>
@@ -14856,7 +14880,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="Q66">
         <v>2.4</v>
@@ -14937,7 +14961,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ66">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR66">
         <v>1.3</v>
@@ -15062,7 +15086,7 @@
         <v>134</v>
       </c>
       <c r="P67" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -15140,10 +15164,10 @@
         <v>1.17</v>
       </c>
       <c r="AP67">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AQ67">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR67">
         <v>1.42</v>
@@ -15268,7 +15292,7 @@
         <v>135</v>
       </c>
       <c r="P68" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="Q68">
         <v>2.5</v>
@@ -15346,10 +15370,10 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ68">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR68">
         <v>1.19</v>
@@ -15474,7 +15498,7 @@
         <v>136</v>
       </c>
       <c r="P69" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="Q69">
         <v>2.5</v>
@@ -15761,7 +15785,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ70">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR70">
         <v>1.22</v>
@@ -15886,7 +15910,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="Q71">
         <v>2.25</v>
@@ -15964,7 +15988,7 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AQ71">
         <v>1</v>
@@ -16092,7 +16116,7 @@
         <v>82</v>
       </c>
       <c r="P72" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -16173,7 +16197,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ72">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AR72">
         <v>1.22</v>
@@ -16376,7 +16400,7 @@
         <v>0.57</v>
       </c>
       <c r="AP73">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="AQ73">
         <v>1.06</v>
@@ -16504,7 +16528,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="Q74">
         <v>3.4</v>
@@ -16791,7 +16815,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ75">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR75">
         <v>1.37</v>
@@ -16994,10 +17018,10 @@
         <v>1.5</v>
       </c>
       <c r="AP76">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="AQ76">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR76">
         <v>1.75</v>
@@ -17122,7 +17146,7 @@
         <v>143</v>
       </c>
       <c r="P77" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="Q77">
         <v>3.6</v>
@@ -17200,7 +17224,7 @@
         <v>2.5</v>
       </c>
       <c r="AP77">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ77">
         <v>1.06</v>
@@ -17328,7 +17352,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="Q78">
         <v>3.25</v>
@@ -17406,10 +17430,10 @@
         <v>0.4</v>
       </c>
       <c r="AP78">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AQ78">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AR78">
         <v>1.42</v>
@@ -17534,7 +17558,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="Q79">
         <v>6.5</v>
@@ -17612,10 +17636,10 @@
         <v>3</v>
       </c>
       <c r="AP79">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ79">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AR79">
         <v>1.56</v>
@@ -17740,7 +17764,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="Q80">
         <v>3.4</v>
@@ -18152,7 +18176,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="Q82">
         <v>2.63</v>
@@ -18358,7 +18382,7 @@
         <v>82</v>
       </c>
       <c r="P83" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="Q83">
         <v>3.25</v>
@@ -18436,10 +18460,10 @@
         <v>0.33</v>
       </c>
       <c r="AP83">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ83">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AR83">
         <v>1.24</v>
@@ -18645,7 +18669,7 @@
         <v>2.72</v>
       </c>
       <c r="AQ84">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR84">
         <v>2.21</v>
@@ -18770,7 +18794,7 @@
         <v>82</v>
       </c>
       <c r="P85" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Q85">
         <v>7.5</v>
@@ -18976,7 +19000,7 @@
         <v>150</v>
       </c>
       <c r="P86" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -19054,7 +19078,7 @@
         <v>1.83</v>
       </c>
       <c r="AP86">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ86">
         <v>1.06</v>
@@ -19260,7 +19284,7 @@
         <v>1.5</v>
       </c>
       <c r="AP87">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AQ87">
         <v>1</v>
@@ -19466,10 +19490,10 @@
         <v>0.88</v>
       </c>
       <c r="AP88">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="AQ88">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR88">
         <v>1.99</v>
@@ -19594,7 +19618,7 @@
         <v>82</v>
       </c>
       <c r="P89" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -19672,10 +19696,10 @@
         <v>3</v>
       </c>
       <c r="AP89">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AQ89">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AR89">
         <v>1.42</v>
@@ -19878,10 +19902,10 @@
         <v>0.88</v>
       </c>
       <c r="AP90">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AQ90">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR90">
         <v>1.37</v>
@@ -20087,7 +20111,7 @@
         <v>2.72</v>
       </c>
       <c r="AQ91">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AR91">
         <v>2.19</v>
@@ -20293,7 +20317,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ92">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR92">
         <v>1.35</v>
@@ -20496,7 +20520,7 @@
         <v>0.86</v>
       </c>
       <c r="AP93">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ93">
         <v>1</v>
@@ -20702,7 +20726,7 @@
         <v>1.29</v>
       </c>
       <c r="AP94">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ94">
         <v>1</v>
@@ -20830,7 +20854,7 @@
         <v>82</v>
       </c>
       <c r="P95" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="Q95">
         <v>10</v>
@@ -21036,7 +21060,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -21114,10 +21138,10 @@
         <v>1.43</v>
       </c>
       <c r="AP96">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ96">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR96">
         <v>1.21</v>
@@ -21242,7 +21266,7 @@
         <v>158</v>
       </c>
       <c r="P97" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="Q97">
         <v>3.5</v>
@@ -21448,7 +21472,7 @@
         <v>159</v>
       </c>
       <c r="P98" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="Q98">
         <v>2.05</v>
@@ -21529,7 +21553,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ98">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR98">
         <v>1.38</v>
@@ -21860,7 +21884,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="Q100">
         <v>3.1</v>
@@ -21938,10 +21962,10 @@
         <v>0.8</v>
       </c>
       <c r="AP100">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ100">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR100">
         <v>1.24</v>
@@ -22144,7 +22168,7 @@
         <v>0.75</v>
       </c>
       <c r="AP101">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="AQ101">
         <v>1</v>
@@ -22272,7 +22296,7 @@
         <v>162</v>
       </c>
       <c r="P102" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="Q102">
         <v>4</v>
@@ -22478,7 +22502,7 @@
         <v>163</v>
       </c>
       <c r="P103" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -22556,10 +22580,10 @@
         <v>0.63</v>
       </c>
       <c r="AP103">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AQ103">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AR103">
         <v>1.34</v>
@@ -22765,7 +22789,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ104">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AR104">
         <v>1.42</v>
@@ -22968,10 +22992,10 @@
         <v>0.89</v>
       </c>
       <c r="AP105">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ105">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR105">
         <v>1.69</v>
@@ -23096,7 +23120,7 @@
         <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="Q106">
         <v>2.75</v>
@@ -23174,10 +23198,10 @@
         <v>0.89</v>
       </c>
       <c r="AP106">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ106">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AR106">
         <v>1.67</v>
@@ -23302,7 +23326,7 @@
         <v>128</v>
       </c>
       <c r="P107" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23383,7 +23407,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ107">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR107">
         <v>1.25</v>
@@ -23714,7 +23738,7 @@
         <v>82</v>
       </c>
       <c r="P109" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="Q109">
         <v>2.38</v>
@@ -23792,10 +23816,10 @@
         <v>0.38</v>
       </c>
       <c r="AP109">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AQ109">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR109">
         <v>1.38</v>
@@ -24204,7 +24228,7 @@
         <v>1.43</v>
       </c>
       <c r="AP111">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ111">
         <v>1.67</v>
@@ -24332,7 +24356,7 @@
         <v>169</v>
       </c>
       <c r="P112" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -24538,7 +24562,7 @@
         <v>170</v>
       </c>
       <c r="P113" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="Q113">
         <v>2.65</v>
@@ -24616,7 +24640,7 @@
         <v>0.67</v>
       </c>
       <c r="AP113">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ113">
         <v>1</v>
@@ -24744,7 +24768,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="Q114">
         <v>7</v>
@@ -24822,7 +24846,7 @@
         <v>1.25</v>
       </c>
       <c r="AP114">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ114">
         <v>1.67</v>
@@ -25031,7 +25055,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ115">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR115">
         <v>1.47</v>
@@ -25237,7 +25261,7 @@
         <v>2.72</v>
       </c>
       <c r="AQ116">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR116">
         <v>2.24</v>
@@ -25568,7 +25592,7 @@
         <v>174</v>
       </c>
       <c r="P118" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="Q118">
         <v>2</v>
@@ -25646,10 +25670,10 @@
         <v>0.67</v>
       </c>
       <c r="AP118">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AQ118">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR118">
         <v>1.36</v>
@@ -25852,7 +25876,7 @@
         <v>1.33</v>
       </c>
       <c r="AP119">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ119">
         <v>1</v>
@@ -26264,10 +26288,10 @@
         <v>2.78</v>
       </c>
       <c r="AP121">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="AQ121">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AR121">
         <v>2.04</v>
@@ -26473,7 +26497,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ122">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AR122">
         <v>1.24</v>
@@ -26598,7 +26622,7 @@
         <v>179</v>
       </c>
       <c r="P123" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="Q123">
         <v>3.2</v>
@@ -26676,10 +26700,10 @@
         <v>1.44</v>
       </c>
       <c r="AP123">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AQ123">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR123">
         <v>1.36</v>
@@ -26804,7 +26828,7 @@
         <v>180</v>
       </c>
       <c r="P124" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="Q124">
         <v>6.5</v>
@@ -27088,7 +27112,7 @@
         <v>1.33</v>
       </c>
       <c r="AP125">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ125">
         <v>1.06</v>
@@ -27216,7 +27240,7 @@
         <v>82</v>
       </c>
       <c r="P126" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="Q126">
         <v>3</v>
@@ -27422,7 +27446,7 @@
         <v>182</v>
       </c>
       <c r="P127" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="Q127">
         <v>3.2</v>
@@ -27628,7 +27652,7 @@
         <v>82</v>
       </c>
       <c r="P128" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="Q128">
         <v>2.05</v>
@@ -27709,7 +27733,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ128">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR128">
         <v>1.42</v>
@@ -28121,7 +28145,7 @@
         <v>2.72</v>
       </c>
       <c r="AQ130">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR130">
         <v>2.28</v>
@@ -28530,7 +28554,7 @@
         <v>1.2</v>
       </c>
       <c r="AP132">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AQ132">
         <v>1.67</v>
@@ -28658,7 +28682,7 @@
         <v>185</v>
       </c>
       <c r="P133" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="Q133">
         <v>10</v>
@@ -28739,7 +28763,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ133">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AR133">
         <v>1.25</v>
@@ -28864,7 +28888,7 @@
         <v>186</v>
       </c>
       <c r="P134" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="Q134">
         <v>2.35</v>
@@ -29148,10 +29172,10 @@
         <v>1.45</v>
       </c>
       <c r="AP135">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ135">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR135">
         <v>1.22</v>
@@ -29354,7 +29378,7 @@
         <v>0.73</v>
       </c>
       <c r="AP136">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AQ136">
         <v>1.06</v>
@@ -29560,10 +29584,10 @@
         <v>0.73</v>
       </c>
       <c r="AP137">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="AQ137">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR137">
         <v>2.05</v>
@@ -29688,7 +29712,7 @@
         <v>188</v>
       </c>
       <c r="P138" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="Q138">
         <v>10</v>
@@ -29766,10 +29790,10 @@
         <v>2.55</v>
       </c>
       <c r="AP138">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AQ138">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AR138">
         <v>1.32</v>
@@ -29972,7 +29996,7 @@
         <v>1.2</v>
       </c>
       <c r="AP139">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="AQ139">
         <v>1.06</v>
@@ -30100,7 +30124,7 @@
         <v>190</v>
       </c>
       <c r="P140" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="Q140">
         <v>2.5</v>
@@ -30178,10 +30202,10 @@
         <v>0.75</v>
       </c>
       <c r="AP140">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ140">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR140">
         <v>1.67</v>
@@ -30512,7 +30536,7 @@
         <v>121</v>
       </c>
       <c r="P142" t="s">
-        <v>311</v>
+        <v>245</v>
       </c>
       <c r="Q142">
         <v>4</v>
@@ -30593,7 +30617,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ142">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AR142">
         <v>1.21</v>
@@ -30718,7 +30742,7 @@
         <v>82</v>
       </c>
       <c r="P143" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="Q143">
         <v>2.63</v>
@@ -30796,7 +30820,7 @@
         <v>0.91</v>
       </c>
       <c r="AP143">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AQ143">
         <v>1.18</v>
@@ -30924,7 +30948,7 @@
         <v>192</v>
       </c>
       <c r="P144" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="Q144">
         <v>5.5</v>
@@ -31130,7 +31154,7 @@
         <v>82</v>
       </c>
       <c r="P145" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="Q145">
         <v>3.5</v>
@@ -31208,7 +31232,7 @@
         <v>0.75</v>
       </c>
       <c r="AP145">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AQ145">
         <v>1.06</v>
@@ -31542,7 +31566,7 @@
         <v>82</v>
       </c>
       <c r="P147" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="Q147">
         <v>2.5</v>
@@ -31620,10 +31644,10 @@
         <v>0.67</v>
       </c>
       <c r="AP147">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ147">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR147">
         <v>1.26</v>
@@ -31829,7 +31853,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ148">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR148">
         <v>1.42</v>
@@ -31954,7 +31978,7 @@
         <v>195</v>
       </c>
       <c r="P149" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="Q149">
         <v>10</v>
@@ -32032,10 +32056,10 @@
         <v>2.42</v>
       </c>
       <c r="AP149">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ149">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AR149">
         <v>1.15</v>
@@ -32238,10 +32262,10 @@
         <v>1.09</v>
       </c>
       <c r="AP150">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="AQ150">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR150">
         <v>2.11</v>
@@ -32572,7 +32596,7 @@
         <v>198</v>
       </c>
       <c r="P152" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="Q152">
         <v>3.2</v>
@@ -32650,7 +32674,7 @@
         <v>1</v>
       </c>
       <c r="AP152">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AQ152">
         <v>1.06</v>
@@ -32859,7 +32883,7 @@
         <v>2.72</v>
       </c>
       <c r="AQ153">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR153">
         <v>2.26</v>
@@ -32984,7 +33008,7 @@
         <v>82</v>
       </c>
       <c r="P154" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="Q154">
         <v>2.75</v>
@@ -33062,10 +33086,10 @@
         <v>1</v>
       </c>
       <c r="AP154">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ154">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR154">
         <v>1.1</v>
@@ -33271,7 +33295,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ155">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR155">
         <v>1.41</v>
@@ -33396,7 +33420,7 @@
         <v>201</v>
       </c>
       <c r="P156" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="Q156">
         <v>5</v>
@@ -33474,7 +33498,7 @@
         <v>1.33</v>
       </c>
       <c r="AP156">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ156">
         <v>1.67</v>
@@ -33680,10 +33704,10 @@
         <v>1.08</v>
       </c>
       <c r="AP157">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ157">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AR157">
         <v>1.3</v>
@@ -33889,7 +33913,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ158">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AR158">
         <v>1.37</v>
@@ -34092,10 +34116,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP159">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AQ159">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR159">
         <v>1.39</v>
@@ -34632,7 +34656,7 @@
         <v>82</v>
       </c>
       <c r="P162" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="Q162">
         <v>1.57</v>
@@ -34710,7 +34734,7 @@
         <v>1.08</v>
       </c>
       <c r="AP162">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="AQ162">
         <v>1.18</v>
@@ -34838,7 +34862,7 @@
         <v>141</v>
       </c>
       <c r="P163" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="Q163">
         <v>4.33</v>
@@ -35044,7 +35068,7 @@
         <v>206</v>
       </c>
       <c r="P164" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="Q164">
         <v>1.57</v>
@@ -35328,7 +35352,7 @@
         <v>0.92</v>
       </c>
       <c r="AP165">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ165">
         <v>1</v>
@@ -35456,7 +35480,7 @@
         <v>139</v>
       </c>
       <c r="P166" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="Q166">
         <v>3.4</v>
@@ -35537,7 +35561,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ166">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AR166">
         <v>1.35</v>
@@ -35662,7 +35686,7 @@
         <v>208</v>
       </c>
       <c r="P167" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="Q167">
         <v>2.4</v>
@@ -35740,7 +35764,7 @@
         <v>1.23</v>
       </c>
       <c r="AP167">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ167">
         <v>1.18</v>
@@ -35949,7 +35973,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ168">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR168">
         <v>1.32</v>
@@ -36074,7 +36098,7 @@
         <v>209</v>
       </c>
       <c r="P169" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="Q169">
         <v>5.5</v>
@@ -36280,7 +36304,7 @@
         <v>198</v>
       </c>
       <c r="P170" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q170">
         <v>1.53</v>
@@ -36358,7 +36382,7 @@
         <v>0.93</v>
       </c>
       <c r="AP170">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="AQ170">
         <v>1</v>
@@ -36564,10 +36588,10 @@
         <v>0.79</v>
       </c>
       <c r="AP171">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AQ171">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR171">
         <v>1.39</v>
@@ -36773,7 +36797,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ172">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR172">
         <v>1.27</v>
@@ -36898,7 +36922,7 @@
         <v>211</v>
       </c>
       <c r="P173" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="Q173">
         <v>10</v>
@@ -36976,10 +37000,10 @@
         <v>2.29</v>
       </c>
       <c r="AP173">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ173">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AR173">
         <v>1.32</v>
@@ -37104,7 +37128,7 @@
         <v>212</v>
       </c>
       <c r="P174" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="Q174">
         <v>3</v>
@@ -37310,7 +37334,7 @@
         <v>213</v>
       </c>
       <c r="P175" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="Q175">
         <v>2.88</v>
@@ -37388,10 +37412,10 @@
         <v>1.36</v>
       </c>
       <c r="AP175">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AQ175">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR175">
         <v>1.38</v>
@@ -37594,10 +37618,10 @@
         <v>1.07</v>
       </c>
       <c r="AP176">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ176">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR176">
         <v>1.74</v>
@@ -37803,7 +37827,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ177">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AR177">
         <v>1.42</v>
@@ -37928,7 +37952,7 @@
         <v>215</v>
       </c>
       <c r="P178" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="Q178">
         <v>3.4</v>
@@ -38006,7 +38030,7 @@
         <v>1.14</v>
       </c>
       <c r="AP178">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ178">
         <v>1.18</v>
@@ -38340,7 +38364,7 @@
         <v>216</v>
       </c>
       <c r="P180" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="Q180">
         <v>2.25</v>
@@ -38546,7 +38570,7 @@
         <v>217</v>
       </c>
       <c r="P181" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="Q181">
         <v>2.4</v>
@@ -39039,7 +39063,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ183">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR183">
         <v>1.38</v>
@@ -39242,10 +39266,10 @@
         <v>0.6</v>
       </c>
       <c r="AP184">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ184">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR184">
         <v>1.35</v>
@@ -39370,7 +39394,7 @@
         <v>221</v>
       </c>
       <c r="P185" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="Q185">
         <v>2.3</v>
@@ -39448,7 +39472,7 @@
         <v>1.07</v>
       </c>
       <c r="AP185">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AQ185">
         <v>1</v>
@@ -39576,7 +39600,7 @@
         <v>222</v>
       </c>
       <c r="P186" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="Q186">
         <v>6.5</v>
@@ -39654,7 +39678,7 @@
         <v>1.67</v>
       </c>
       <c r="AP186">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AQ186">
         <v>1.67</v>
@@ -39782,7 +39806,7 @@
         <v>82</v>
       </c>
       <c r="P187" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="Q187">
         <v>3.6</v>
@@ -39863,7 +39887,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ187">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR187">
         <v>1.25</v>
@@ -39988,7 +40012,7 @@
         <v>82</v>
       </c>
       <c r="P188" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="Q188">
         <v>1.95</v>
@@ -40066,10 +40090,10 @@
         <v>1.2</v>
       </c>
       <c r="AP188">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="AQ188">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AR188">
         <v>2.18</v>
@@ -40194,7 +40218,7 @@
         <v>82</v>
       </c>
       <c r="P189" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="Q189">
         <v>3.75</v>
@@ -40684,7 +40708,7 @@
         <v>1.13</v>
       </c>
       <c r="AP191">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AQ191">
         <v>1.18</v>
@@ -40893,7 +40917,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ192">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AR192">
         <v>1.34</v>
@@ -41096,10 +41120,10 @@
         <v>1.44</v>
       </c>
       <c r="AP193">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ193">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR193">
         <v>1.73</v>
@@ -41224,7 +41248,7 @@
         <v>226</v>
       </c>
       <c r="P194" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="Q194">
         <v>1.57</v>
@@ -41305,7 +41329,7 @@
         <v>2.72</v>
       </c>
       <c r="AQ194">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR194">
         <v>2.2</v>
@@ -41511,7 +41535,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ195">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR195">
         <v>1.38</v>
@@ -41714,7 +41738,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP196">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ196">
         <v>1.06</v>
@@ -41842,7 +41866,7 @@
         <v>227</v>
       </c>
       <c r="P197" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="Q197">
         <v>2.3</v>
@@ -41920,10 +41944,10 @@
         <v>1</v>
       </c>
       <c r="AP197">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ197">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR197">
         <v>1.37</v>
@@ -42048,7 +42072,7 @@
         <v>228</v>
       </c>
       <c r="P198" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="Q198">
         <v>4.33</v>
@@ -42126,7 +42150,7 @@
         <v>1.75</v>
       </c>
       <c r="AP198">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AQ198">
         <v>1.67</v>
@@ -42460,7 +42484,7 @@
         <v>82</v>
       </c>
       <c r="P200" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="Q200">
         <v>7.5</v>
@@ -42541,7 +42565,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ200">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AR200">
         <v>1.39</v>
@@ -42744,10 +42768,10 @@
         <v>1.31</v>
       </c>
       <c r="AP201">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AQ201">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AR201">
         <v>1.52</v>
@@ -42872,7 +42896,7 @@
         <v>230</v>
       </c>
       <c r="P202" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="Q202">
         <v>4.33</v>
@@ -42950,7 +42974,7 @@
         <v>1.71</v>
       </c>
       <c r="AP202">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ202">
         <v>1.67</v>
@@ -43078,7 +43102,7 @@
         <v>82</v>
       </c>
       <c r="P203" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="Q203">
         <v>2.05</v>
@@ -43156,7 +43180,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP203">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ203">
         <v>1</v>
@@ -43365,7 +43389,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ204">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR204">
         <v>1.46</v>
@@ -43490,7 +43514,7 @@
         <v>232</v>
       </c>
       <c r="P205" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="Q205">
         <v>3.1</v>
@@ -43568,10 +43592,10 @@
         <v>0.71</v>
       </c>
       <c r="AP205">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ205">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR205">
         <v>1.1</v>
@@ -43696,7 +43720,7 @@
         <v>233</v>
       </c>
       <c r="P206" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="Q206">
         <v>2.3</v>
@@ -43777,7 +43801,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ206">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR206">
         <v>1.45</v>
@@ -43980,7 +44004,7 @@
         <v>1.19</v>
       </c>
       <c r="AP207">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ207">
         <v>1.06</v>
@@ -44108,7 +44132,7 @@
         <v>204</v>
       </c>
       <c r="P208" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="Q208">
         <v>2.63</v>
@@ -44186,7 +44210,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP208">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AQ208">
         <v>1</v>
@@ -44314,7 +44338,7 @@
         <v>234</v>
       </c>
       <c r="P209" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="Q209">
         <v>4.5</v>
@@ -44520,7 +44544,7 @@
         <v>82</v>
       </c>
       <c r="P210" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="Q210">
         <v>3.75</v>
@@ -44601,7 +44625,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ210">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR210">
         <v>1.32</v>
@@ -44726,7 +44750,7 @@
         <v>128</v>
       </c>
       <c r="P211" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="Q211">
         <v>4</v>
@@ -44804,10 +44828,10 @@
         <v>2.24</v>
       </c>
       <c r="AP211">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="AQ211">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AR211">
         <v>2.15</v>
@@ -44932,7 +44956,7 @@
         <v>235</v>
       </c>
       <c r="P212" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="Q212">
         <v>2.88</v>
@@ -45013,7 +45037,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ212">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR212">
         <v>1.35</v>
@@ -45138,7 +45162,7 @@
         <v>236</v>
       </c>
       <c r="P213" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="Q213">
         <v>2.38</v>
@@ -45344,7 +45368,7 @@
         <v>82</v>
       </c>
       <c r="P214" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="Q214">
         <v>2.88</v>
@@ -45631,7 +45655,7 @@
         <v>2.72</v>
       </c>
       <c r="AQ215">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AR215">
         <v>2.19</v>
@@ -45834,7 +45858,7 @@
         <v>1.06</v>
       </c>
       <c r="AP216">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ216">
         <v>1</v>
@@ -46040,7 +46064,7 @@
         <v>1.12</v>
       </c>
       <c r="AP217">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="AQ217">
         <v>1.06</v>
@@ -46119,6 +46143,1242 @@
       </c>
       <c r="BP217">
         <v>1.74</v>
+      </c>
+    </row>
+    <row r="218" spans="1:68">
+      <c r="A218" s="1">
+        <v>217</v>
+      </c>
+      <c r="B218">
+        <v>7881856</v>
+      </c>
+      <c r="C218" t="s">
+        <v>68</v>
+      </c>
+      <c r="D218" t="s">
+        <v>69</v>
+      </c>
+      <c r="E218" s="2">
+        <v>45791.65625</v>
+      </c>
+      <c r="F218">
+        <v>37</v>
+      </c>
+      <c r="G218" t="s">
+        <v>76</v>
+      </c>
+      <c r="H218" t="s">
+        <v>72</v>
+      </c>
+      <c r="I218">
+        <v>1</v>
+      </c>
+      <c r="J218">
+        <v>1</v>
+      </c>
+      <c r="K218">
+        <v>2</v>
+      </c>
+      <c r="L218">
+        <v>3</v>
+      </c>
+      <c r="M218">
+        <v>1</v>
+      </c>
+      <c r="N218">
+        <v>4</v>
+      </c>
+      <c r="O218" t="s">
+        <v>240</v>
+      </c>
+      <c r="P218" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q218">
+        <v>1.95</v>
+      </c>
+      <c r="R218">
+        <v>2.5</v>
+      </c>
+      <c r="S218">
+        <v>5.5</v>
+      </c>
+      <c r="T218">
+        <v>1.25</v>
+      </c>
+      <c r="U218">
+        <v>3.75</v>
+      </c>
+      <c r="V218">
+        <v>2.25</v>
+      </c>
+      <c r="W218">
+        <v>1.57</v>
+      </c>
+      <c r="X218">
+        <v>5.5</v>
+      </c>
+      <c r="Y218">
+        <v>1.14</v>
+      </c>
+      <c r="Z218">
+        <v>1.45</v>
+      </c>
+      <c r="AA218">
+        <v>4</v>
+      </c>
+      <c r="AB218">
+        <v>5.5</v>
+      </c>
+      <c r="AC218">
+        <v>1.03</v>
+      </c>
+      <c r="AD218">
+        <v>11</v>
+      </c>
+      <c r="AE218">
+        <v>1.18</v>
+      </c>
+      <c r="AF218">
+        <v>4.75</v>
+      </c>
+      <c r="AG218">
+        <v>1.4</v>
+      </c>
+      <c r="AH218">
+        <v>2.73</v>
+      </c>
+      <c r="AI218">
+        <v>1.67</v>
+      </c>
+      <c r="AJ218">
+        <v>2.1</v>
+      </c>
+      <c r="AK218">
+        <v>1.12</v>
+      </c>
+      <c r="AL218">
+        <v>1.15</v>
+      </c>
+      <c r="AM218">
+        <v>2.55</v>
+      </c>
+      <c r="AN218">
+        <v>2.28</v>
+      </c>
+      <c r="AO218">
+        <v>1.44</v>
+      </c>
+      <c r="AP218">
+        <v>2.32</v>
+      </c>
+      <c r="AQ218">
+        <v>1.37</v>
+      </c>
+      <c r="AR218">
+        <v>2.16</v>
+      </c>
+      <c r="AS218">
+        <v>1.3</v>
+      </c>
+      <c r="AT218">
+        <v>3.46</v>
+      </c>
+      <c r="AU218">
+        <v>7</v>
+      </c>
+      <c r="AV218">
+        <v>4</v>
+      </c>
+      <c r="AW218">
+        <v>13</v>
+      </c>
+      <c r="AX218">
+        <v>1</v>
+      </c>
+      <c r="AY218">
+        <v>20</v>
+      </c>
+      <c r="AZ218">
+        <v>5</v>
+      </c>
+      <c r="BA218">
+        <v>9</v>
+      </c>
+      <c r="BB218">
+        <v>4</v>
+      </c>
+      <c r="BC218">
+        <v>13</v>
+      </c>
+      <c r="BD218">
+        <v>1.24</v>
+      </c>
+      <c r="BE218">
+        <v>8.5</v>
+      </c>
+      <c r="BF218">
+        <v>4.3</v>
+      </c>
+      <c r="BG218">
+        <v>1.14</v>
+      </c>
+      <c r="BH218">
+        <v>4.8</v>
+      </c>
+      <c r="BI218">
+        <v>1.24</v>
+      </c>
+      <c r="BJ218">
+        <v>3.55</v>
+      </c>
+      <c r="BK218">
+        <v>1.41</v>
+      </c>
+      <c r="BL218">
+        <v>2.65</v>
+      </c>
+      <c r="BM218">
+        <v>1.65</v>
+      </c>
+      <c r="BN218">
+        <v>2.08</v>
+      </c>
+      <c r="BO218">
+        <v>1.98</v>
+      </c>
+      <c r="BP218">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="219" spans="1:68">
+      <c r="A219" s="1">
+        <v>218</v>
+      </c>
+      <c r="B219">
+        <v>7881857</v>
+      </c>
+      <c r="C219" t="s">
+        <v>68</v>
+      </c>
+      <c r="D219" t="s">
+        <v>69</v>
+      </c>
+      <c r="E219" s="2">
+        <v>45791.65625</v>
+      </c>
+      <c r="F219">
+        <v>37</v>
+      </c>
+      <c r="G219" t="s">
+        <v>73</v>
+      </c>
+      <c r="H219" t="s">
+        <v>79</v>
+      </c>
+      <c r="I219">
+        <v>1</v>
+      </c>
+      <c r="J219">
+        <v>2</v>
+      </c>
+      <c r="K219">
+        <v>3</v>
+      </c>
+      <c r="L219">
+        <v>2</v>
+      </c>
+      <c r="M219">
+        <v>2</v>
+      </c>
+      <c r="N219">
+        <v>4</v>
+      </c>
+      <c r="O219" t="s">
+        <v>241</v>
+      </c>
+      <c r="P219" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q219">
+        <v>3.4</v>
+      </c>
+      <c r="R219">
+        <v>2.05</v>
+      </c>
+      <c r="S219">
+        <v>3</v>
+      </c>
+      <c r="T219">
+        <v>1.4</v>
+      </c>
+      <c r="U219">
+        <v>2.75</v>
+      </c>
+      <c r="V219">
+        <v>2.8</v>
+      </c>
+      <c r="W219">
+        <v>1.38</v>
+      </c>
+      <c r="X219">
+        <v>6.5</v>
+      </c>
+      <c r="Y219">
+        <v>1.08</v>
+      </c>
+      <c r="Z219">
+        <v>2.62</v>
+      </c>
+      <c r="AA219">
+        <v>3.08</v>
+      </c>
+      <c r="AB219">
+        <v>2.42</v>
+      </c>
+      <c r="AC219">
+        <v>1.06</v>
+      </c>
+      <c r="AD219">
+        <v>8.5</v>
+      </c>
+      <c r="AE219">
+        <v>1.33</v>
+      </c>
+      <c r="AF219">
+        <v>3.25</v>
+      </c>
+      <c r="AG219">
+        <v>1.79</v>
+      </c>
+      <c r="AH219">
+        <v>1.91</v>
+      </c>
+      <c r="AI219">
+        <v>1.73</v>
+      </c>
+      <c r="AJ219">
+        <v>2</v>
+      </c>
+      <c r="AK219">
+        <v>1.53</v>
+      </c>
+      <c r="AL219">
+        <v>1.28</v>
+      </c>
+      <c r="AM219">
+        <v>1.4</v>
+      </c>
+      <c r="AN219">
+        <v>1.47</v>
+      </c>
+      <c r="AO219">
+        <v>1.17</v>
+      </c>
+      <c r="AP219">
+        <v>1.45</v>
+      </c>
+      <c r="AQ219">
+        <v>1.16</v>
+      </c>
+      <c r="AR219">
+        <v>1.37</v>
+      </c>
+      <c r="AS219">
+        <v>1.35</v>
+      </c>
+      <c r="AT219">
+        <v>2.72</v>
+      </c>
+      <c r="AU219">
+        <v>10</v>
+      </c>
+      <c r="AV219">
+        <v>7</v>
+      </c>
+      <c r="AW219">
+        <v>3</v>
+      </c>
+      <c r="AX219">
+        <v>5</v>
+      </c>
+      <c r="AY219">
+        <v>13</v>
+      </c>
+      <c r="AZ219">
+        <v>12</v>
+      </c>
+      <c r="BA219">
+        <v>5</v>
+      </c>
+      <c r="BB219">
+        <v>6</v>
+      </c>
+      <c r="BC219">
+        <v>11</v>
+      </c>
+      <c r="BD219">
+        <v>2.05</v>
+      </c>
+      <c r="BE219">
+        <v>6.75</v>
+      </c>
+      <c r="BF219">
+        <v>1.93</v>
+      </c>
+      <c r="BG219">
+        <v>1.2</v>
+      </c>
+      <c r="BH219">
+        <v>3.95</v>
+      </c>
+      <c r="BI219">
+        <v>1.35</v>
+      </c>
+      <c r="BJ219">
+        <v>2.9</v>
+      </c>
+      <c r="BK219">
+        <v>1.57</v>
+      </c>
+      <c r="BL219">
+        <v>2.23</v>
+      </c>
+      <c r="BM219">
+        <v>1.9</v>
+      </c>
+      <c r="BN219">
+        <v>1.78</v>
+      </c>
+      <c r="BO219">
+        <v>2.35</v>
+      </c>
+      <c r="BP219">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="220" spans="1:68">
+      <c r="A220" s="1">
+        <v>219</v>
+      </c>
+      <c r="B220">
+        <v>7881858</v>
+      </c>
+      <c r="C220" t="s">
+        <v>68</v>
+      </c>
+      <c r="D220" t="s">
+        <v>69</v>
+      </c>
+      <c r="E220" s="2">
+        <v>45791.65625</v>
+      </c>
+      <c r="F220">
+        <v>37</v>
+      </c>
+      <c r="G220" t="s">
+        <v>78</v>
+      </c>
+      <c r="H220" t="s">
+        <v>77</v>
+      </c>
+      <c r="I220">
+        <v>0</v>
+      </c>
+      <c r="J220">
+        <v>0</v>
+      </c>
+      <c r="K220">
+        <v>0</v>
+      </c>
+      <c r="L220">
+        <v>1</v>
+      </c>
+      <c r="M220">
+        <v>1</v>
+      </c>
+      <c r="N220">
+        <v>2</v>
+      </c>
+      <c r="O220" t="s">
+        <v>242</v>
+      </c>
+      <c r="P220" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q220">
+        <v>2.5</v>
+      </c>
+      <c r="R220">
+        <v>2.1</v>
+      </c>
+      <c r="S220">
+        <v>4</v>
+      </c>
+      <c r="T220">
+        <v>1.36</v>
+      </c>
+      <c r="U220">
+        <v>2.85</v>
+      </c>
+      <c r="V220">
+        <v>2.65</v>
+      </c>
+      <c r="W220">
+        <v>1.42</v>
+      </c>
+      <c r="X220">
+        <v>6.25</v>
+      </c>
+      <c r="Y220">
+        <v>1.09</v>
+      </c>
+      <c r="Z220">
+        <v>1.94</v>
+      </c>
+      <c r="AA220">
+        <v>3.25</v>
+      </c>
+      <c r="AB220">
+        <v>3.38</v>
+      </c>
+      <c r="AC220">
+        <v>1.05</v>
+      </c>
+      <c r="AD220">
+        <v>9</v>
+      </c>
+      <c r="AE220">
+        <v>1.28</v>
+      </c>
+      <c r="AF220">
+        <v>3.55</v>
+      </c>
+      <c r="AG220">
+        <v>1.77</v>
+      </c>
+      <c r="AH220">
+        <v>1.93</v>
+      </c>
+      <c r="AI220">
+        <v>1.7</v>
+      </c>
+      <c r="AJ220">
+        <v>2.05</v>
+      </c>
+      <c r="AK220">
+        <v>1.28</v>
+      </c>
+      <c r="AL220">
+        <v>1.25</v>
+      </c>
+      <c r="AM220">
+        <v>1.77</v>
+      </c>
+      <c r="AN220">
+        <v>1.06</v>
+      </c>
+      <c r="AO220">
+        <v>0.83</v>
+      </c>
+      <c r="AP220">
+        <v>1.05</v>
+      </c>
+      <c r="AQ220">
+        <v>0.84</v>
+      </c>
+      <c r="AR220">
+        <v>1.43</v>
+      </c>
+      <c r="AS220">
+        <v>1.01</v>
+      </c>
+      <c r="AT220">
+        <v>2.44</v>
+      </c>
+      <c r="AU220">
+        <v>8</v>
+      </c>
+      <c r="AV220">
+        <v>4</v>
+      </c>
+      <c r="AW220">
+        <v>9</v>
+      </c>
+      <c r="AX220">
+        <v>10</v>
+      </c>
+      <c r="AY220">
+        <v>17</v>
+      </c>
+      <c r="AZ220">
+        <v>14</v>
+      </c>
+      <c r="BA220">
+        <v>10</v>
+      </c>
+      <c r="BB220">
+        <v>5</v>
+      </c>
+      <c r="BC220">
+        <v>15</v>
+      </c>
+      <c r="BD220">
+        <v>1.5</v>
+      </c>
+      <c r="BE220">
+        <v>7</v>
+      </c>
+      <c r="BF220">
+        <v>2.8</v>
+      </c>
+      <c r="BG220">
+        <v>1.2</v>
+      </c>
+      <c r="BH220">
+        <v>3.95</v>
+      </c>
+      <c r="BI220">
+        <v>1.34</v>
+      </c>
+      <c r="BJ220">
+        <v>2.9</v>
+      </c>
+      <c r="BK220">
+        <v>1.56</v>
+      </c>
+      <c r="BL220">
+        <v>2.23</v>
+      </c>
+      <c r="BM220">
+        <v>1.89</v>
+      </c>
+      <c r="BN220">
+        <v>1.8</v>
+      </c>
+      <c r="BO220">
+        <v>2.35</v>
+      </c>
+      <c r="BP220">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="221" spans="1:68">
+      <c r="A221" s="1">
+        <v>220</v>
+      </c>
+      <c r="B221">
+        <v>7881859</v>
+      </c>
+      <c r="C221" t="s">
+        <v>68</v>
+      </c>
+      <c r="D221" t="s">
+        <v>69</v>
+      </c>
+      <c r="E221" s="2">
+        <v>45791.65625</v>
+      </c>
+      <c r="F221">
+        <v>37</v>
+      </c>
+      <c r="G221" t="s">
+        <v>70</v>
+      </c>
+      <c r="H221" t="s">
+        <v>75</v>
+      </c>
+      <c r="I221">
+        <v>2</v>
+      </c>
+      <c r="J221">
+        <v>0</v>
+      </c>
+      <c r="K221">
+        <v>2</v>
+      </c>
+      <c r="L221">
+        <v>2</v>
+      </c>
+      <c r="M221">
+        <v>1</v>
+      </c>
+      <c r="N221">
+        <v>3</v>
+      </c>
+      <c r="O221" t="s">
+        <v>243</v>
+      </c>
+      <c r="P221" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q221">
+        <v>2.25</v>
+      </c>
+      <c r="R221">
+        <v>2.3</v>
+      </c>
+      <c r="S221">
+        <v>5</v>
+      </c>
+      <c r="T221">
+        <v>1.36</v>
+      </c>
+      <c r="U221">
+        <v>3</v>
+      </c>
+      <c r="V221">
+        <v>2.63</v>
+      </c>
+      <c r="W221">
+        <v>1.44</v>
+      </c>
+      <c r="X221">
+        <v>7</v>
+      </c>
+      <c r="Y221">
+        <v>1.1</v>
+      </c>
+      <c r="Z221">
+        <v>1.41</v>
+      </c>
+      <c r="AA221">
+        <v>4.1</v>
+      </c>
+      <c r="AB221">
+        <v>5.9</v>
+      </c>
+      <c r="AC221">
+        <v>1.05</v>
+      </c>
+      <c r="AD221">
+        <v>9.5</v>
+      </c>
+      <c r="AE221">
+        <v>1.28</v>
+      </c>
+      <c r="AF221">
+        <v>3.55</v>
+      </c>
+      <c r="AG221">
+        <v>1.6</v>
+      </c>
+      <c r="AH221">
+        <v>2.2</v>
+      </c>
+      <c r="AI221">
+        <v>1.8</v>
+      </c>
+      <c r="AJ221">
+        <v>1.95</v>
+      </c>
+      <c r="AK221">
+        <v>1.17</v>
+      </c>
+      <c r="AL221">
+        <v>1.22</v>
+      </c>
+      <c r="AM221">
+        <v>2.1</v>
+      </c>
+      <c r="AN221">
+        <v>1.5</v>
+      </c>
+      <c r="AO221">
+        <v>0.67</v>
+      </c>
+      <c r="AP221">
+        <v>1.58</v>
+      </c>
+      <c r="AQ221">
+        <v>0.63</v>
+      </c>
+      <c r="AR221">
+        <v>1.74</v>
+      </c>
+      <c r="AS221">
+        <v>1.05</v>
+      </c>
+      <c r="AT221">
+        <v>2.79</v>
+      </c>
+      <c r="AU221">
+        <v>6</v>
+      </c>
+      <c r="AV221">
+        <v>4</v>
+      </c>
+      <c r="AW221">
+        <v>7</v>
+      </c>
+      <c r="AX221">
+        <v>7</v>
+      </c>
+      <c r="AY221">
+        <v>13</v>
+      </c>
+      <c r="AZ221">
+        <v>11</v>
+      </c>
+      <c r="BA221">
+        <v>8</v>
+      </c>
+      <c r="BB221">
+        <v>7</v>
+      </c>
+      <c r="BC221">
+        <v>15</v>
+      </c>
+      <c r="BD221">
+        <v>1.34</v>
+      </c>
+      <c r="BE221">
+        <v>7.5</v>
+      </c>
+      <c r="BF221">
+        <v>3.55</v>
+      </c>
+      <c r="BG221">
+        <v>1.19</v>
+      </c>
+      <c r="BH221">
+        <v>4.1</v>
+      </c>
+      <c r="BI221">
+        <v>1.33</v>
+      </c>
+      <c r="BJ221">
+        <v>2.95</v>
+      </c>
+      <c r="BK221">
+        <v>1.56</v>
+      </c>
+      <c r="BL221">
+        <v>2.23</v>
+      </c>
+      <c r="BM221">
+        <v>1.88</v>
+      </c>
+      <c r="BN221">
+        <v>1.81</v>
+      </c>
+      <c r="BO221">
+        <v>2.33</v>
+      </c>
+      <c r="BP221">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="222" spans="1:68">
+      <c r="A222" s="1">
+        <v>221</v>
+      </c>
+      <c r="B222">
+        <v>7881860</v>
+      </c>
+      <c r="C222" t="s">
+        <v>68</v>
+      </c>
+      <c r="D222" t="s">
+        <v>69</v>
+      </c>
+      <c r="E222" s="2">
+        <v>45791.65625</v>
+      </c>
+      <c r="F222">
+        <v>37</v>
+      </c>
+      <c r="G222" t="s">
+        <v>71</v>
+      </c>
+      <c r="H222" t="s">
+        <v>81</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>0</v>
+      </c>
+      <c r="L222">
+        <v>3</v>
+      </c>
+      <c r="M222">
+        <v>0</v>
+      </c>
+      <c r="N222">
+        <v>3</v>
+      </c>
+      <c r="O222" t="s">
+        <v>244</v>
+      </c>
+      <c r="P222" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q222">
+        <v>3.25</v>
+      </c>
+      <c r="R222">
+        <v>2.2</v>
+      </c>
+      <c r="S222">
+        <v>3.1</v>
+      </c>
+      <c r="T222">
+        <v>1.36</v>
+      </c>
+      <c r="U222">
+        <v>3</v>
+      </c>
+      <c r="V222">
+        <v>2.63</v>
+      </c>
+      <c r="W222">
+        <v>1.44</v>
+      </c>
+      <c r="X222">
+        <v>7</v>
+      </c>
+      <c r="Y222">
+        <v>1.1</v>
+      </c>
+      <c r="Z222">
+        <v>2.88</v>
+      </c>
+      <c r="AA222">
+        <v>3.1</v>
+      </c>
+      <c r="AB222">
+        <v>2.22</v>
+      </c>
+      <c r="AC222">
+        <v>1.06</v>
+      </c>
+      <c r="AD222">
+        <v>8.5</v>
+      </c>
+      <c r="AE222">
+        <v>1.28</v>
+      </c>
+      <c r="AF222">
+        <v>3.5</v>
+      </c>
+      <c r="AG222">
+        <v>1.84</v>
+      </c>
+      <c r="AH222">
+        <v>1.86</v>
+      </c>
+      <c r="AI222">
+        <v>1.67</v>
+      </c>
+      <c r="AJ222">
+        <v>2.1</v>
+      </c>
+      <c r="AK222">
+        <v>1.5</v>
+      </c>
+      <c r="AL222">
+        <v>1.28</v>
+      </c>
+      <c r="AM222">
+        <v>1.42</v>
+      </c>
+      <c r="AN222">
+        <v>1.53</v>
+      </c>
+      <c r="AO222">
+        <v>0.67</v>
+      </c>
+      <c r="AP222">
+        <v>1.61</v>
+      </c>
+      <c r="AQ222">
+        <v>0.63</v>
+      </c>
+      <c r="AR222">
+        <v>1.16</v>
+      </c>
+      <c r="AS222">
+        <v>1.24</v>
+      </c>
+      <c r="AT222">
+        <v>2.4</v>
+      </c>
+      <c r="AU222">
+        <v>9</v>
+      </c>
+      <c r="AV222">
+        <v>5</v>
+      </c>
+      <c r="AW222">
+        <v>17</v>
+      </c>
+      <c r="AX222">
+        <v>10</v>
+      </c>
+      <c r="AY222">
+        <v>26</v>
+      </c>
+      <c r="AZ222">
+        <v>15</v>
+      </c>
+      <c r="BA222">
+        <v>5</v>
+      </c>
+      <c r="BB222">
+        <v>4</v>
+      </c>
+      <c r="BC222">
+        <v>9</v>
+      </c>
+      <c r="BD222">
+        <v>2.15</v>
+      </c>
+      <c r="BE222">
+        <v>6.75</v>
+      </c>
+      <c r="BF222">
+        <v>1.84</v>
+      </c>
+      <c r="BG222">
+        <v>1.2</v>
+      </c>
+      <c r="BH222">
+        <v>3.9</v>
+      </c>
+      <c r="BI222">
+        <v>1.36</v>
+      </c>
+      <c r="BJ222">
+        <v>2.85</v>
+      </c>
+      <c r="BK222">
+        <v>1.58</v>
+      </c>
+      <c r="BL222">
+        <v>2.18</v>
+      </c>
+      <c r="BM222">
+        <v>1.94</v>
+      </c>
+      <c r="BN222">
+        <v>1.76</v>
+      </c>
+      <c r="BO222">
+        <v>2.4</v>
+      </c>
+      <c r="BP222">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="223" spans="1:68">
+      <c r="A223" s="1">
+        <v>222</v>
+      </c>
+      <c r="B223">
+        <v>7881855</v>
+      </c>
+      <c r="C223" t="s">
+        <v>68</v>
+      </c>
+      <c r="D223" t="s">
+        <v>69</v>
+      </c>
+      <c r="E223" s="2">
+        <v>45791.66666666666</v>
+      </c>
+      <c r="F223">
+        <v>37</v>
+      </c>
+      <c r="G223" t="s">
+        <v>80</v>
+      </c>
+      <c r="H223" t="s">
+        <v>74</v>
+      </c>
+      <c r="I223">
+        <v>1</v>
+      </c>
+      <c r="J223">
+        <v>2</v>
+      </c>
+      <c r="K223">
+        <v>3</v>
+      </c>
+      <c r="L223">
+        <v>1</v>
+      </c>
+      <c r="M223">
+        <v>5</v>
+      </c>
+      <c r="N223">
+        <v>6</v>
+      </c>
+      <c r="O223" t="s">
+        <v>245</v>
+      </c>
+      <c r="P223" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q223">
+        <v>5</v>
+      </c>
+      <c r="R223">
+        <v>2.3</v>
+      </c>
+      <c r="S223">
+        <v>2.25</v>
+      </c>
+      <c r="T223">
+        <v>1.33</v>
+      </c>
+      <c r="U223">
+        <v>3.25</v>
+      </c>
+      <c r="V223">
+        <v>2.63</v>
+      </c>
+      <c r="W223">
+        <v>1.44</v>
+      </c>
+      <c r="X223">
+        <v>6.5</v>
+      </c>
+      <c r="Y223">
+        <v>1.11</v>
+      </c>
+      <c r="Z223">
+        <v>4.7</v>
+      </c>
+      <c r="AA223">
+        <v>3.52</v>
+      </c>
+      <c r="AB223">
+        <v>1.61</v>
+      </c>
+      <c r="AC223">
+        <v>1.05</v>
+      </c>
+      <c r="AD223">
+        <v>9.5</v>
+      </c>
+      <c r="AE223">
+        <v>1.25</v>
+      </c>
+      <c r="AF223">
+        <v>3.7</v>
+      </c>
+      <c r="AG223">
+        <v>1.61</v>
+      </c>
+      <c r="AH223">
+        <v>2.15</v>
+      </c>
+      <c r="AI223">
+        <v>1.75</v>
+      </c>
+      <c r="AJ223">
+        <v>2</v>
+      </c>
+      <c r="AK223">
+        <v>2.15</v>
+      </c>
+      <c r="AL223">
+        <v>1.2</v>
+      </c>
+      <c r="AM223">
+        <v>1.17</v>
+      </c>
+      <c r="AN223">
+        <v>1.89</v>
+      </c>
+      <c r="AO223">
+        <v>2.17</v>
+      </c>
+      <c r="AP223">
+        <v>1.79</v>
+      </c>
+      <c r="AQ223">
+        <v>2.21</v>
+      </c>
+      <c r="AR223">
+        <v>1.54</v>
+      </c>
+      <c r="AS223">
+        <v>1.97</v>
+      </c>
+      <c r="AT223">
+        <v>3.51</v>
+      </c>
+      <c r="AU223">
+        <v>2</v>
+      </c>
+      <c r="AV223">
+        <v>11</v>
+      </c>
+      <c r="AW223">
+        <v>10</v>
+      </c>
+      <c r="AX223">
+        <v>14</v>
+      </c>
+      <c r="AY223">
+        <v>15</v>
+      </c>
+      <c r="AZ223">
+        <v>29</v>
+      </c>
+      <c r="BA223">
+        <v>6</v>
+      </c>
+      <c r="BB223">
+        <v>6</v>
+      </c>
+      <c r="BC223">
+        <v>12</v>
+      </c>
+      <c r="BD223">
+        <v>3.65</v>
+      </c>
+      <c r="BE223">
+        <v>7.5</v>
+      </c>
+      <c r="BF223">
+        <v>1.32</v>
+      </c>
+      <c r="BG223">
+        <v>1.16</v>
+      </c>
+      <c r="BH223">
+        <v>4.3</v>
+      </c>
+      <c r="BI223">
+        <v>1.3</v>
+      </c>
+      <c r="BJ223">
+        <v>3.1</v>
+      </c>
+      <c r="BK223">
+        <v>1.49</v>
+      </c>
+      <c r="BL223">
+        <v>2.4</v>
+      </c>
+      <c r="BM223">
+        <v>1.77</v>
+      </c>
+      <c r="BN223">
+        <v>1.92</v>
+      </c>
+      <c r="BO223">
+        <v>2.15</v>
+      </c>
+      <c r="BP223">
+        <v>1.61</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Scotland Premiership_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Scotland Premiership_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="359">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -754,6 +754,12 @@
     <t>['42']</t>
   </si>
   <si>
+    <t>['56', '63']</t>
+  </si>
+  <si>
+    <t>['16', '66']</t>
+  </si>
+  <si>
     <t>['18', '79']</t>
   </si>
   <si>
@@ -1076,6 +1082,15 @@
   </si>
   <si>
     <t>['31', '45+8', '48', '54', '90+4']</t>
+  </si>
+  <si>
+    <t>['15']</t>
+  </si>
+  <si>
+    <t>['51']</t>
+  </si>
+  <si>
+    <t>['2', '50']</t>
   </si>
 </sst>
 </file>
@@ -1437,7 +1452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP223"/>
+  <dimension ref="A1:BP226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1777,7 +1792,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ2">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2108,7 +2123,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -2186,7 +2201,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ4">
         <v>1</v>
@@ -2598,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.72</v>
+        <v>2.63</v>
       </c>
       <c r="AQ6">
         <v>0.63</v>
@@ -2726,7 +2741,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q7">
         <v>3.6</v>
@@ -2807,7 +2822,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ7">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3138,7 +3153,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q9">
         <v>3.2</v>
@@ -3550,7 +3565,7 @@
         <v>82</v>
       </c>
       <c r="P11" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3628,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ11">
         <v>2.21</v>
@@ -3756,7 +3771,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3837,7 +3852,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ12">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3962,7 +3977,7 @@
         <v>82</v>
       </c>
       <c r="P13" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q13">
         <v>2.4</v>
@@ -4452,7 +4467,7 @@
         <v>3</v>
       </c>
       <c r="AP15">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ15">
         <v>0.63</v>
@@ -4580,7 +4595,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4658,7 +4673,7 @@
         <v>1</v>
       </c>
       <c r="AP16">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ16">
         <v>1</v>
@@ -4786,7 +4801,7 @@
         <v>82</v>
       </c>
       <c r="P17" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q17">
         <v>7.5</v>
@@ -5404,7 +5419,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q20">
         <v>2.75</v>
@@ -5485,7 +5500,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ20">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR20">
         <v>1.56</v>
@@ -5610,7 +5625,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5816,7 +5831,7 @@
         <v>82</v>
       </c>
       <c r="P22" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5897,7 +5912,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ22">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR22">
         <v>1.66</v>
@@ -6100,10 +6115,10 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>2.72</v>
+        <v>2.63</v>
       </c>
       <c r="AQ23">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AR23">
         <v>3.1</v>
@@ -6228,7 +6243,7 @@
         <v>82</v>
       </c>
       <c r="P24" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q24">
         <v>2.38</v>
@@ -6434,7 +6449,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6924,7 +6939,7 @@
         <v>1.5</v>
       </c>
       <c r="AP27">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ27">
         <v>0.63</v>
@@ -7052,7 +7067,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -7336,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2.72</v>
+        <v>2.63</v>
       </c>
       <c r="AQ29">
         <v>1.06</v>
@@ -7748,10 +7763,10 @@
         <v>0.5</v>
       </c>
       <c r="AP31">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ31">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AR31">
         <v>1.46</v>
@@ -8082,7 +8097,7 @@
         <v>106</v>
       </c>
       <c r="P33" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q33">
         <v>2.75</v>
@@ -8288,7 +8303,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q34">
         <v>3.5</v>
@@ -8369,7 +8384,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ34">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR34">
         <v>1.5</v>
@@ -8700,7 +8715,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8906,7 +8921,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8987,7 +9002,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ37">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR37">
         <v>1.45</v>
@@ -9112,7 +9127,7 @@
         <v>82</v>
       </c>
       <c r="P38" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q38">
         <v>10</v>
@@ -9524,7 +9539,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9730,7 +9745,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q41">
         <v>2.63</v>
@@ -9808,7 +9823,7 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ41">
         <v>1</v>
@@ -9936,7 +9951,7 @@
         <v>82</v>
       </c>
       <c r="P42" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -10142,7 +10157,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q43">
         <v>9.5</v>
@@ -10348,7 +10363,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q44">
         <v>2.25</v>
@@ -10966,7 +10981,7 @@
         <v>118</v>
       </c>
       <c r="P47" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q47">
         <v>1.67</v>
@@ -11044,10 +11059,10 @@
         <v>3</v>
       </c>
       <c r="AP47">
-        <v>2.72</v>
+        <v>2.63</v>
       </c>
       <c r="AQ47">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR47">
         <v>2.16</v>
@@ -11253,7 +11268,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ48">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR48">
         <v>1.61</v>
@@ -11378,7 +11393,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11456,7 +11471,7 @@
         <v>0.33</v>
       </c>
       <c r="AP49">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ49">
         <v>1.16</v>
@@ -11584,7 +11599,7 @@
         <v>82</v>
       </c>
       <c r="P50" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q50">
         <v>2.63</v>
@@ -11871,7 +11886,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ51">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AR51">
         <v>1.31</v>
@@ -11996,7 +12011,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -12202,7 +12217,7 @@
         <v>123</v>
       </c>
       <c r="P53" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q53">
         <v>3.75</v>
@@ -12692,7 +12707,7 @@
         <v>0</v>
       </c>
       <c r="AP55">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ55">
         <v>1.06</v>
@@ -12820,7 +12835,7 @@
         <v>82</v>
       </c>
       <c r="P56" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q56">
         <v>7.5</v>
@@ -13107,7 +13122,7 @@
         <v>2.32</v>
       </c>
       <c r="AQ57">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR57">
         <v>1.86</v>
@@ -13232,7 +13247,7 @@
         <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q58">
         <v>2.38</v>
@@ -13438,7 +13453,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q59">
         <v>2.4</v>
@@ -13644,7 +13659,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q60">
         <v>2.75</v>
@@ -13722,7 +13737,7 @@
         <v>1.5</v>
       </c>
       <c r="AP60">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ60">
         <v>1</v>
@@ -13928,7 +13943,7 @@
         <v>1.25</v>
       </c>
       <c r="AP61">
-        <v>2.72</v>
+        <v>2.63</v>
       </c>
       <c r="AQ61">
         <v>1</v>
@@ -14262,7 +14277,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q63">
         <v>4.33</v>
@@ -14343,7 +14358,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ63">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AR63">
         <v>1.25</v>
@@ -14468,7 +14483,7 @@
         <v>132</v>
       </c>
       <c r="P64" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q64">
         <v>4.5</v>
@@ -14880,7 +14895,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q66">
         <v>2.4</v>
@@ -14958,7 +14973,7 @@
         <v>1.6</v>
       </c>
       <c r="AP66">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ66">
         <v>1.37</v>
@@ -15086,7 +15101,7 @@
         <v>134</v>
       </c>
       <c r="P67" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -15292,7 +15307,7 @@
         <v>135</v>
       </c>
       <c r="P68" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q68">
         <v>2.5</v>
@@ -15498,7 +15513,7 @@
         <v>136</v>
       </c>
       <c r="P69" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q69">
         <v>2.5</v>
@@ -15576,10 +15591,10 @@
         <v>0.2</v>
       </c>
       <c r="AP69">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ69">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR69">
         <v>1.35</v>
@@ -15782,7 +15797,7 @@
         <v>0.6</v>
       </c>
       <c r="AP70">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ70">
         <v>0.84</v>
@@ -15910,7 +15925,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q71">
         <v>2.25</v>
@@ -16116,7 +16131,7 @@
         <v>82</v>
       </c>
       <c r="P72" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -16528,7 +16543,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q74">
         <v>3.4</v>
@@ -17146,7 +17161,7 @@
         <v>143</v>
       </c>
       <c r="P77" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q77">
         <v>3.6</v>
@@ -17227,7 +17242,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ77">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR77">
         <v>1.13</v>
@@ -17352,7 +17367,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q78">
         <v>3.25</v>
@@ -17558,7 +17573,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q79">
         <v>6.5</v>
@@ -17764,7 +17779,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q80">
         <v>3.4</v>
@@ -17842,10 +17857,10 @@
         <v>2</v>
       </c>
       <c r="AP80">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ80">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR80">
         <v>1.33</v>
@@ -18048,10 +18063,10 @@
         <v>0.67</v>
       </c>
       <c r="AP81">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ81">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR81">
         <v>1.31</v>
@@ -18176,7 +18191,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q82">
         <v>2.63</v>
@@ -18382,7 +18397,7 @@
         <v>82</v>
       </c>
       <c r="P83" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q83">
         <v>3.25</v>
@@ -18666,7 +18681,7 @@
         <v>0.5</v>
       </c>
       <c r="AP84">
-        <v>2.72</v>
+        <v>2.63</v>
       </c>
       <c r="AQ84">
         <v>0.84</v>
@@ -18794,7 +18809,7 @@
         <v>82</v>
       </c>
       <c r="P85" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q85">
         <v>7.5</v>
@@ -18875,7 +18890,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ85">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AR85">
         <v>1.36</v>
@@ -19000,7 +19015,7 @@
         <v>150</v>
       </c>
       <c r="P86" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -19081,7 +19096,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ86">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR86">
         <v>1.56</v>
@@ -19618,7 +19633,7 @@
         <v>82</v>
       </c>
       <c r="P89" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -20108,7 +20123,7 @@
         <v>0.71</v>
       </c>
       <c r="AP91">
-        <v>2.72</v>
+        <v>2.63</v>
       </c>
       <c r="AQ91">
         <v>1.16</v>
@@ -20314,7 +20329,7 @@
         <v>0.78</v>
       </c>
       <c r="AP92">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ92">
         <v>0.63</v>
@@ -20854,7 +20869,7 @@
         <v>82</v>
       </c>
       <c r="P95" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q95">
         <v>10</v>
@@ -20935,7 +20950,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ95">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AR95">
         <v>1.29</v>
@@ -21060,7 +21075,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -21266,7 +21281,7 @@
         <v>158</v>
       </c>
       <c r="P97" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q97">
         <v>3.5</v>
@@ -21347,7 +21362,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ97">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR97">
         <v>1.26</v>
@@ -21472,7 +21487,7 @@
         <v>159</v>
       </c>
       <c r="P98" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q98">
         <v>2.05</v>
@@ -21550,7 +21565,7 @@
         <v>0.43</v>
       </c>
       <c r="AP98">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ98">
         <v>0.84</v>
@@ -21884,7 +21899,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q100">
         <v>3.1</v>
@@ -22296,7 +22311,7 @@
         <v>162</v>
       </c>
       <c r="P102" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q102">
         <v>4</v>
@@ -22377,7 +22392,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ102">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR102">
         <v>1.24</v>
@@ -22502,7 +22517,7 @@
         <v>163</v>
       </c>
       <c r="P103" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -22786,7 +22801,7 @@
         <v>3</v>
       </c>
       <c r="AP104">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ104">
         <v>2.21</v>
@@ -23120,7 +23135,7 @@
         <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q106">
         <v>2.75</v>
@@ -23326,7 +23341,7 @@
         <v>128</v>
       </c>
       <c r="P107" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23613,7 +23628,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ108">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR108">
         <v>1.35</v>
@@ -23738,7 +23753,7 @@
         <v>82</v>
       </c>
       <c r="P109" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q109">
         <v>2.38</v>
@@ -24022,7 +24037,7 @@
         <v>1.5</v>
       </c>
       <c r="AP110">
-        <v>2.72</v>
+        <v>2.63</v>
       </c>
       <c r="AQ110">
         <v>1</v>
@@ -24231,7 +24246,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ111">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AR111">
         <v>1.24</v>
@@ -24356,7 +24371,7 @@
         <v>169</v>
       </c>
       <c r="P112" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -24562,7 +24577,7 @@
         <v>170</v>
       </c>
       <c r="P113" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q113">
         <v>2.65</v>
@@ -24768,7 +24783,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q114">
         <v>7</v>
@@ -24849,7 +24864,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ114">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AR114">
         <v>1.18</v>
@@ -25052,7 +25067,7 @@
         <v>0.82</v>
       </c>
       <c r="AP115">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ115">
         <v>0.63</v>
@@ -25258,7 +25273,7 @@
         <v>0.8</v>
       </c>
       <c r="AP116">
-        <v>2.72</v>
+        <v>2.63</v>
       </c>
       <c r="AQ116">
         <v>0.63</v>
@@ -25464,10 +25479,10 @@
         <v>1.5</v>
       </c>
       <c r="AP117">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ117">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR117">
         <v>1.33</v>
@@ -25592,7 +25607,7 @@
         <v>174</v>
       </c>
       <c r="P118" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q118">
         <v>2</v>
@@ -26085,7 +26100,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ120">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR120">
         <v>1.44</v>
@@ -26622,7 +26637,7 @@
         <v>179</v>
       </c>
       <c r="P123" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q123">
         <v>3.2</v>
@@ -26828,7 +26843,7 @@
         <v>180</v>
       </c>
       <c r="P124" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q124">
         <v>6.5</v>
@@ -26906,10 +26921,10 @@
         <v>1.22</v>
       </c>
       <c r="AP124">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ124">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AR124">
         <v>1.42</v>
@@ -27115,7 +27130,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ125">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR125">
         <v>1.17</v>
@@ -27240,7 +27255,7 @@
         <v>82</v>
       </c>
       <c r="P126" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q126">
         <v>3</v>
@@ -27318,7 +27333,7 @@
         <v>0.5</v>
       </c>
       <c r="AP126">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ126">
         <v>1.06</v>
@@ -27446,7 +27461,7 @@
         <v>182</v>
       </c>
       <c r="P127" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q127">
         <v>3.2</v>
@@ -27652,7 +27667,7 @@
         <v>82</v>
       </c>
       <c r="P128" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q128">
         <v>2.05</v>
@@ -27936,10 +27951,10 @@
         <v>1</v>
       </c>
       <c r="AP129">
-        <v>2.72</v>
+        <v>2.63</v>
       </c>
       <c r="AQ129">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR129">
         <v>2.36</v>
@@ -28142,7 +28157,7 @@
         <v>1.6</v>
       </c>
       <c r="AP130">
-        <v>2.72</v>
+        <v>2.63</v>
       </c>
       <c r="AQ130">
         <v>1.37</v>
@@ -28557,7 +28572,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ132">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AR132">
         <v>1.37</v>
@@ -28682,7 +28697,7 @@
         <v>185</v>
       </c>
       <c r="P133" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q133">
         <v>10</v>
@@ -28888,7 +28903,7 @@
         <v>186</v>
       </c>
       <c r="P134" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q134">
         <v>2.35</v>
@@ -28966,7 +28981,7 @@
         <v>1.18</v>
       </c>
       <c r="AP134">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ134">
         <v>1</v>
@@ -29712,7 +29727,7 @@
         <v>188</v>
       </c>
       <c r="P138" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q138">
         <v>10</v>
@@ -29999,7 +30014,7 @@
         <v>2.32</v>
       </c>
       <c r="AQ139">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR139">
         <v>2</v>
@@ -30124,7 +30139,7 @@
         <v>190</v>
       </c>
       <c r="P140" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q140">
         <v>2.5</v>
@@ -30742,7 +30757,7 @@
         <v>82</v>
       </c>
       <c r="P143" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q143">
         <v>2.63</v>
@@ -30823,7 +30838,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ143">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR143">
         <v>1.33</v>
@@ -30948,7 +30963,7 @@
         <v>192</v>
       </c>
       <c r="P144" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q144">
         <v>5.5</v>
@@ -31026,10 +31041,10 @@
         <v>1.18</v>
       </c>
       <c r="AP144">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ144">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AR144">
         <v>1.31</v>
@@ -31154,7 +31169,7 @@
         <v>82</v>
       </c>
       <c r="P145" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q145">
         <v>3.5</v>
@@ -31438,10 +31453,10 @@
         <v>1.09</v>
       </c>
       <c r="AP146">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ146">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR146">
         <v>1.38</v>
@@ -31566,7 +31581,7 @@
         <v>82</v>
       </c>
       <c r="P147" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q147">
         <v>2.5</v>
@@ -31978,7 +31993,7 @@
         <v>195</v>
       </c>
       <c r="P149" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q149">
         <v>10</v>
@@ -32468,7 +32483,7 @@
         <v>1.09</v>
       </c>
       <c r="AP151">
-        <v>2.72</v>
+        <v>2.63</v>
       </c>
       <c r="AQ151">
         <v>1</v>
@@ -32596,7 +32611,7 @@
         <v>198</v>
       </c>
       <c r="P152" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q152">
         <v>3.2</v>
@@ -32677,7 +32692,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ152">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR152">
         <v>1.3</v>
@@ -32880,7 +32895,7 @@
         <v>1.46</v>
       </c>
       <c r="AP153">
-        <v>2.72</v>
+        <v>2.63</v>
       </c>
       <c r="AQ153">
         <v>1.37</v>
@@ -33008,7 +33023,7 @@
         <v>82</v>
       </c>
       <c r="P154" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q154">
         <v>2.75</v>
@@ -33420,7 +33435,7 @@
         <v>201</v>
       </c>
       <c r="P156" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q156">
         <v>5</v>
@@ -33501,7 +33516,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ156">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AR156">
         <v>1.65</v>
@@ -33910,7 +33925,7 @@
         <v>2.46</v>
       </c>
       <c r="AP158">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ158">
         <v>2.21</v>
@@ -34322,7 +34337,7 @@
         <v>1</v>
       </c>
       <c r="AP160">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ160">
         <v>1</v>
@@ -34656,7 +34671,7 @@
         <v>82</v>
       </c>
       <c r="P162" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q162">
         <v>1.57</v>
@@ -34737,7 +34752,7 @@
         <v>2.32</v>
       </c>
       <c r="AQ162">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR162">
         <v>2.16</v>
@@ -34862,7 +34877,7 @@
         <v>141</v>
       </c>
       <c r="P163" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q163">
         <v>4.33</v>
@@ -35068,7 +35083,7 @@
         <v>206</v>
       </c>
       <c r="P164" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q164">
         <v>1.57</v>
@@ -35146,10 +35161,10 @@
         <v>1.15</v>
       </c>
       <c r="AP164">
-        <v>2.72</v>
+        <v>2.63</v>
       </c>
       <c r="AQ164">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR164">
         <v>2.28</v>
@@ -35480,7 +35495,7 @@
         <v>139</v>
       </c>
       <c r="P166" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q166">
         <v>3.4</v>
@@ -35558,7 +35573,7 @@
         <v>1.08</v>
       </c>
       <c r="AP166">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ166">
         <v>1.16</v>
@@ -35686,7 +35701,7 @@
         <v>208</v>
       </c>
       <c r="P167" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q167">
         <v>2.4</v>
@@ -35767,7 +35782,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ167">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR167">
         <v>1.74</v>
@@ -36098,7 +36113,7 @@
         <v>209</v>
       </c>
       <c r="P169" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q169">
         <v>5.5</v>
@@ -36179,7 +36194,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ169">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AR169">
         <v>1.42</v>
@@ -36304,7 +36319,7 @@
         <v>198</v>
       </c>
       <c r="P170" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q170">
         <v>1.53</v>
@@ -36922,7 +36937,7 @@
         <v>211</v>
       </c>
       <c r="P173" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q173">
         <v>10</v>
@@ -37128,7 +37143,7 @@
         <v>212</v>
       </c>
       <c r="P174" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q174">
         <v>3</v>
@@ -37206,7 +37221,7 @@
         <v>1.07</v>
       </c>
       <c r="AP174">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ174">
         <v>1.06</v>
@@ -37334,7 +37349,7 @@
         <v>213</v>
       </c>
       <c r="P175" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q175">
         <v>2.88</v>
@@ -37952,7 +37967,7 @@
         <v>215</v>
       </c>
       <c r="P178" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q178">
         <v>3.4</v>
@@ -38033,7 +38048,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ178">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR178">
         <v>1.16</v>
@@ -38239,7 +38254,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ179">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR179">
         <v>1.35</v>
@@ -38364,7 +38379,7 @@
         <v>216</v>
       </c>
       <c r="P180" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q180">
         <v>2.25</v>
@@ -38442,10 +38457,10 @@
         <v>1.57</v>
       </c>
       <c r="AP180">
-        <v>2.72</v>
+        <v>2.63</v>
       </c>
       <c r="AQ180">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AR180">
         <v>2.25</v>
@@ -38570,7 +38585,7 @@
         <v>217</v>
       </c>
       <c r="P181" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q181">
         <v>2.4</v>
@@ -38648,7 +38663,7 @@
         <v>0.86</v>
       </c>
       <c r="AP181">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ181">
         <v>1</v>
@@ -38854,7 +38869,7 @@
         <v>1</v>
       </c>
       <c r="AP182">
-        <v>2.72</v>
+        <v>2.63</v>
       </c>
       <c r="AQ182">
         <v>1.06</v>
@@ -39060,7 +39075,7 @@
         <v>0.8</v>
       </c>
       <c r="AP183">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ183">
         <v>0.63</v>
@@ -39394,7 +39409,7 @@
         <v>221</v>
       </c>
       <c r="P185" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q185">
         <v>2.3</v>
@@ -39600,7 +39615,7 @@
         <v>222</v>
       </c>
       <c r="P186" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q186">
         <v>6.5</v>
@@ -39681,7 +39696,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ186">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AR186">
         <v>1.42</v>
@@ -39806,7 +39821,7 @@
         <v>82</v>
       </c>
       <c r="P187" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q187">
         <v>3.6</v>
@@ -40012,7 +40027,7 @@
         <v>82</v>
       </c>
       <c r="P188" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q188">
         <v>1.95</v>
@@ -40218,7 +40233,7 @@
         <v>82</v>
       </c>
       <c r="P189" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q189">
         <v>3.75</v>
@@ -40299,7 +40314,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ189">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR189">
         <v>1.23</v>
@@ -40711,7 +40726,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ191">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR191">
         <v>1.44</v>
@@ -41248,7 +41263,7 @@
         <v>226</v>
       </c>
       <c r="P194" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q194">
         <v>1.57</v>
@@ -41326,7 +41341,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP194">
-        <v>2.72</v>
+        <v>2.63</v>
       </c>
       <c r="AQ194">
         <v>0.63</v>
@@ -41532,7 +41547,7 @@
         <v>0.75</v>
       </c>
       <c r="AP195">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ195">
         <v>0.63</v>
@@ -41866,7 +41881,7 @@
         <v>227</v>
       </c>
       <c r="P197" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q197">
         <v>2.3</v>
@@ -42072,7 +42087,7 @@
         <v>228</v>
       </c>
       <c r="P198" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q198">
         <v>4.33</v>
@@ -42153,7 +42168,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ198">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AR198">
         <v>1.47</v>
@@ -42356,7 +42371,7 @@
         <v>1</v>
       </c>
       <c r="AP199">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ199">
         <v>1</v>
@@ -42484,7 +42499,7 @@
         <v>82</v>
       </c>
       <c r="P200" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q200">
         <v>7.5</v>
@@ -42562,7 +42577,7 @@
         <v>2.19</v>
       </c>
       <c r="AP200">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ200">
         <v>2.21</v>
@@ -42896,7 +42911,7 @@
         <v>230</v>
       </c>
       <c r="P202" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q202">
         <v>4.33</v>
@@ -42977,7 +42992,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ202">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AR202">
         <v>1.37</v>
@@ -43102,7 +43117,7 @@
         <v>82</v>
       </c>
       <c r="P203" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q203">
         <v>2.05</v>
@@ -43514,7 +43529,7 @@
         <v>232</v>
       </c>
       <c r="P205" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q205">
         <v>3.1</v>
@@ -43720,7 +43735,7 @@
         <v>233</v>
       </c>
       <c r="P206" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q206">
         <v>2.3</v>
@@ -43798,7 +43813,7 @@
         <v>1.53</v>
       </c>
       <c r="AP206">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ206">
         <v>1.37</v>
@@ -44007,7 +44022,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ207">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR207">
         <v>1.37</v>
@@ -44132,7 +44147,7 @@
         <v>204</v>
       </c>
       <c r="P208" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q208">
         <v>2.63</v>
@@ -44338,7 +44353,7 @@
         <v>234</v>
       </c>
       <c r="P209" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q209">
         <v>4.5</v>
@@ -44544,7 +44559,7 @@
         <v>82</v>
       </c>
       <c r="P210" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q210">
         <v>3.75</v>
@@ -44750,7 +44765,7 @@
         <v>128</v>
       </c>
       <c r="P211" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q211">
         <v>4</v>
@@ -44956,7 +44971,7 @@
         <v>235</v>
       </c>
       <c r="P212" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q212">
         <v>2.88</v>
@@ -45162,7 +45177,7 @@
         <v>236</v>
       </c>
       <c r="P213" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q213">
         <v>2.38</v>
@@ -45368,7 +45383,7 @@
         <v>82</v>
       </c>
       <c r="P214" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q214">
         <v>2.88</v>
@@ -45446,10 +45461,10 @@
         <v>1.06</v>
       </c>
       <c r="AP214">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ214">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR214">
         <v>1.39</v>
@@ -45652,7 +45667,7 @@
         <v>1.24</v>
       </c>
       <c r="AP215">
-        <v>2.72</v>
+        <v>2.63</v>
       </c>
       <c r="AQ215">
         <v>1.16</v>
@@ -46067,7 +46082,7 @@
         <v>2.32</v>
       </c>
       <c r="AQ217">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR217">
         <v>2.11</v>
@@ -46192,7 +46207,7 @@
         <v>240</v>
       </c>
       <c r="P218" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q218">
         <v>1.95</v>
@@ -46398,7 +46413,7 @@
         <v>241</v>
       </c>
       <c r="P219" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q219">
         <v>3.4</v>
@@ -46810,7 +46825,7 @@
         <v>243</v>
       </c>
       <c r="P221" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q221">
         <v>2.25</v>
@@ -47222,7 +47237,7 @@
         <v>245</v>
       </c>
       <c r="P223" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q223">
         <v>5</v>
@@ -47379,6 +47394,624 @@
       </c>
       <c r="BP223">
         <v>1.61</v>
+      </c>
+    </row>
+    <row r="224" spans="1:68">
+      <c r="A224" s="1">
+        <v>223</v>
+      </c>
+      <c r="B224">
+        <v>7881862</v>
+      </c>
+      <c r="C224" t="s">
+        <v>68</v>
+      </c>
+      <c r="D224" t="s">
+        <v>69</v>
+      </c>
+      <c r="E224" s="2">
+        <v>45794.35416666666</v>
+      </c>
+      <c r="F224">
+        <v>38</v>
+      </c>
+      <c r="G224" t="s">
+        <v>72</v>
+      </c>
+      <c r="H224" t="s">
+        <v>80</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>1</v>
+      </c>
+      <c r="K224">
+        <v>1</v>
+      </c>
+      <c r="L224">
+        <v>2</v>
+      </c>
+      <c r="M224">
+        <v>1</v>
+      </c>
+      <c r="N224">
+        <v>3</v>
+      </c>
+      <c r="O224" t="s">
+        <v>246</v>
+      </c>
+      <c r="P224" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q224">
+        <v>3.1</v>
+      </c>
+      <c r="R224">
+        <v>2.05</v>
+      </c>
+      <c r="S224">
+        <v>3.2</v>
+      </c>
+      <c r="T224">
+        <v>1.4</v>
+      </c>
+      <c r="U224">
+        <v>2.7</v>
+      </c>
+      <c r="V224">
+        <v>2.95</v>
+      </c>
+      <c r="W224">
+        <v>1.35</v>
+      </c>
+      <c r="X224">
+        <v>7</v>
+      </c>
+      <c r="Y224">
+        <v>1.06</v>
+      </c>
+      <c r="Z224">
+        <v>2.7</v>
+      </c>
+      <c r="AA224">
+        <v>3.25</v>
+      </c>
+      <c r="AB224">
+        <v>2.27</v>
+      </c>
+      <c r="AC224">
+        <v>1.06</v>
+      </c>
+      <c r="AD224">
+        <v>8.5</v>
+      </c>
+      <c r="AE224">
+        <v>1.33</v>
+      </c>
+      <c r="AF224">
+        <v>3.25</v>
+      </c>
+      <c r="AG224">
+        <v>1.77</v>
+      </c>
+      <c r="AH224">
+        <v>1.93</v>
+      </c>
+      <c r="AI224">
+        <v>1.77</v>
+      </c>
+      <c r="AJ224">
+        <v>1.95</v>
+      </c>
+      <c r="AK224">
+        <v>1.48</v>
+      </c>
+      <c r="AL224">
+        <v>1.25</v>
+      </c>
+      <c r="AM224">
+        <v>1.5</v>
+      </c>
+      <c r="AN224">
+        <v>1.33</v>
+      </c>
+      <c r="AO224">
+        <v>1.06</v>
+      </c>
+      <c r="AP224">
+        <v>1.42</v>
+      </c>
+      <c r="AQ224">
+        <v>1</v>
+      </c>
+      <c r="AR224">
+        <v>1.37</v>
+      </c>
+      <c r="AS224">
+        <v>1.22</v>
+      </c>
+      <c r="AT224">
+        <v>2.59</v>
+      </c>
+      <c r="AU224">
+        <v>-1</v>
+      </c>
+      <c r="AV224">
+        <v>-1</v>
+      </c>
+      <c r="AW224">
+        <v>-1</v>
+      </c>
+      <c r="AX224">
+        <v>-1</v>
+      </c>
+      <c r="AY224">
+        <v>-1</v>
+      </c>
+      <c r="AZ224">
+        <v>-1</v>
+      </c>
+      <c r="BA224">
+        <v>-1</v>
+      </c>
+      <c r="BB224">
+        <v>-1</v>
+      </c>
+      <c r="BC224">
+        <v>-1</v>
+      </c>
+      <c r="BD224">
+        <v>1.9</v>
+      </c>
+      <c r="BE224">
+        <v>6.75</v>
+      </c>
+      <c r="BF224">
+        <v>2.07</v>
+      </c>
+      <c r="BG224">
+        <v>1.21</v>
+      </c>
+      <c r="BH224">
+        <v>3.8</v>
+      </c>
+      <c r="BI224">
+        <v>1.37</v>
+      </c>
+      <c r="BJ224">
+        <v>2.8</v>
+      </c>
+      <c r="BK224">
+        <v>1.61</v>
+      </c>
+      <c r="BL224">
+        <v>2.15</v>
+      </c>
+      <c r="BM224">
+        <v>1.96</v>
+      </c>
+      <c r="BN224">
+        <v>1.73</v>
+      </c>
+      <c r="BO224">
+        <v>2.48</v>
+      </c>
+      <c r="BP224">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="225" spans="1:68">
+      <c r="A225" s="1">
+        <v>224</v>
+      </c>
+      <c r="B225">
+        <v>7881861</v>
+      </c>
+      <c r="C225" t="s">
+        <v>68</v>
+      </c>
+      <c r="D225" t="s">
+        <v>69</v>
+      </c>
+      <c r="E225" s="2">
+        <v>45794.35416666666</v>
+      </c>
+      <c r="F225">
+        <v>38</v>
+      </c>
+      <c r="G225" t="s">
+        <v>74</v>
+      </c>
+      <c r="H225" t="s">
+        <v>73</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225">
+        <v>1</v>
+      </c>
+      <c r="M225">
+        <v>1</v>
+      </c>
+      <c r="N225">
+        <v>2</v>
+      </c>
+      <c r="O225" t="s">
+        <v>136</v>
+      </c>
+      <c r="P225" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q225">
+        <v>1.38</v>
+      </c>
+      <c r="R225">
+        <v>3.2</v>
+      </c>
+      <c r="S225">
+        <v>12</v>
+      </c>
+      <c r="T225">
+        <v>1.18</v>
+      </c>
+      <c r="U225">
+        <v>4.33</v>
+      </c>
+      <c r="V225">
+        <v>1.85</v>
+      </c>
+      <c r="W225">
+        <v>1.85</v>
+      </c>
+      <c r="X225">
+        <v>3.7</v>
+      </c>
+      <c r="Y225">
+        <v>1.22</v>
+      </c>
+      <c r="Z225">
+        <v>1.15</v>
+      </c>
+      <c r="AA225">
+        <v>6.6</v>
+      </c>
+      <c r="AB225">
+        <v>10</v>
+      </c>
+      <c r="AC225">
+        <v>1.01</v>
+      </c>
+      <c r="AD225">
+        <v>18</v>
+      </c>
+      <c r="AE225">
+        <v>1.09</v>
+      </c>
+      <c r="AF225">
+        <v>7</v>
+      </c>
+      <c r="AG225">
+        <v>1.57</v>
+      </c>
+      <c r="AH225">
+        <v>2.25</v>
+      </c>
+      <c r="AI225">
+        <v>2.1</v>
+      </c>
+      <c r="AJ225">
+        <v>1.65</v>
+      </c>
+      <c r="AK225">
+        <v>1.02</v>
+      </c>
+      <c r="AL225">
+        <v>1.06</v>
+      </c>
+      <c r="AM225">
+        <v>5.5</v>
+      </c>
+      <c r="AN225">
+        <v>2.72</v>
+      </c>
+      <c r="AO225">
+        <v>1.18</v>
+      </c>
+      <c r="AP225">
+        <v>2.63</v>
+      </c>
+      <c r="AQ225">
+        <v>1.17</v>
+      </c>
+      <c r="AR225">
+        <v>2.21</v>
+      </c>
+      <c r="AS225">
+        <v>1.33</v>
+      </c>
+      <c r="AT225">
+        <v>3.54</v>
+      </c>
+      <c r="AU225">
+        <v>-1</v>
+      </c>
+      <c r="AV225">
+        <v>-1</v>
+      </c>
+      <c r="AW225">
+        <v>-1</v>
+      </c>
+      <c r="AX225">
+        <v>-1</v>
+      </c>
+      <c r="AY225">
+        <v>-1</v>
+      </c>
+      <c r="AZ225">
+        <v>-1</v>
+      </c>
+      <c r="BA225">
+        <v>-1</v>
+      </c>
+      <c r="BB225">
+        <v>-1</v>
+      </c>
+      <c r="BC225">
+        <v>-1</v>
+      </c>
+      <c r="BD225">
+        <v>1.08</v>
+      </c>
+      <c r="BE225">
+        <v>11.5</v>
+      </c>
+      <c r="BF225">
+        <v>7.5</v>
+      </c>
+      <c r="BG225">
+        <v>1.14</v>
+      </c>
+      <c r="BH225">
+        <v>4.8</v>
+      </c>
+      <c r="BI225">
+        <v>1.25</v>
+      </c>
+      <c r="BJ225">
+        <v>3.45</v>
+      </c>
+      <c r="BK225">
+        <v>1.43</v>
+      </c>
+      <c r="BL225">
+        <v>2.55</v>
+      </c>
+      <c r="BM225">
+        <v>1.66</v>
+      </c>
+      <c r="BN225">
+        <v>2.06</v>
+      </c>
+      <c r="BO225">
+        <v>1.98</v>
+      </c>
+      <c r="BP225">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="226" spans="1:68">
+      <c r="A226" s="1">
+        <v>225</v>
+      </c>
+      <c r="B226">
+        <v>7881863</v>
+      </c>
+      <c r="C226" t="s">
+        <v>68</v>
+      </c>
+      <c r="D226" t="s">
+        <v>69</v>
+      </c>
+      <c r="E226" s="2">
+        <v>45794.35416666666</v>
+      </c>
+      <c r="F226">
+        <v>38</v>
+      </c>
+      <c r="G226" t="s">
+        <v>79</v>
+      </c>
+      <c r="H226" t="s">
+        <v>76</v>
+      </c>
+      <c r="I226">
+        <v>1</v>
+      </c>
+      <c r="J226">
+        <v>1</v>
+      </c>
+      <c r="K226">
+        <v>2</v>
+      </c>
+      <c r="L226">
+        <v>2</v>
+      </c>
+      <c r="M226">
+        <v>2</v>
+      </c>
+      <c r="N226">
+        <v>4</v>
+      </c>
+      <c r="O226" t="s">
+        <v>247</v>
+      </c>
+      <c r="P226" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q226">
+        <v>4</v>
+      </c>
+      <c r="R226">
+        <v>2.3</v>
+      </c>
+      <c r="S226">
+        <v>2.3</v>
+      </c>
+      <c r="T226">
+        <v>1.3</v>
+      </c>
+      <c r="U226">
+        <v>3.25</v>
+      </c>
+      <c r="V226">
+        <v>2.35</v>
+      </c>
+      <c r="W226">
+        <v>1.53</v>
+      </c>
+      <c r="X226">
+        <v>5.25</v>
+      </c>
+      <c r="Y226">
+        <v>1.12</v>
+      </c>
+      <c r="Z226">
+        <v>3.29</v>
+      </c>
+      <c r="AA226">
+        <v>3.55</v>
+      </c>
+      <c r="AB226">
+        <v>1.87</v>
+      </c>
+      <c r="AC226">
+        <v>1.04</v>
+      </c>
+      <c r="AD226">
+        <v>10</v>
+      </c>
+      <c r="AE226">
+        <v>1.2</v>
+      </c>
+      <c r="AF226">
+        <v>4.33</v>
+      </c>
+      <c r="AG226">
+        <v>1.73</v>
+      </c>
+      <c r="AH226">
+        <v>2</v>
+      </c>
+      <c r="AI226">
+        <v>1.57</v>
+      </c>
+      <c r="AJ226">
+        <v>2.25</v>
+      </c>
+      <c r="AK226">
+        <v>1.91</v>
+      </c>
+      <c r="AL226">
+        <v>1.2</v>
+      </c>
+      <c r="AM226">
+        <v>1.25</v>
+      </c>
+      <c r="AN226">
+        <v>1.94</v>
+      </c>
+      <c r="AO226">
+        <v>1.67</v>
+      </c>
+      <c r="AP226">
+        <v>1.89</v>
+      </c>
+      <c r="AQ226">
+        <v>1.63</v>
+      </c>
+      <c r="AR226">
+        <v>1.5</v>
+      </c>
+      <c r="AS226">
+        <v>1.89</v>
+      </c>
+      <c r="AT226">
+        <v>3.39</v>
+      </c>
+      <c r="AU226">
+        <v>-1</v>
+      </c>
+      <c r="AV226">
+        <v>-1</v>
+      </c>
+      <c r="AW226">
+        <v>-1</v>
+      </c>
+      <c r="AX226">
+        <v>-1</v>
+      </c>
+      <c r="AY226">
+        <v>-1</v>
+      </c>
+      <c r="AZ226">
+        <v>-1</v>
+      </c>
+      <c r="BA226">
+        <v>-1</v>
+      </c>
+      <c r="BB226">
+        <v>-1</v>
+      </c>
+      <c r="BC226">
+        <v>-1</v>
+      </c>
+      <c r="BD226">
+        <v>2.5</v>
+      </c>
+      <c r="BE226">
+        <v>7</v>
+      </c>
+      <c r="BF226">
+        <v>1.61</v>
+      </c>
+      <c r="BG226">
+        <v>1.14</v>
+      </c>
+      <c r="BH226">
+        <v>4.8</v>
+      </c>
+      <c r="BI226">
+        <v>1.25</v>
+      </c>
+      <c r="BJ226">
+        <v>3.45</v>
+      </c>
+      <c r="BK226">
+        <v>1.43</v>
+      </c>
+      <c r="BL226">
+        <v>2.6</v>
+      </c>
+      <c r="BM226">
+        <v>1.67</v>
+      </c>
+      <c r="BN226">
+        <v>2.05</v>
+      </c>
+      <c r="BO226">
+        <v>2.02</v>
+      </c>
+      <c r="BP226">
+        <v>1.7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Scotland Premiership_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Scotland Premiership_20242025.xlsx
@@ -47536,31 +47536,31 @@
         <v>2.59</v>
       </c>
       <c r="AU224">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AV224">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW224">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AX224">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="AY224">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="AZ224">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="BA224">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BB224">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BC224">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="BD224">
         <v>1.9</v>
@@ -47742,31 +47742,31 @@
         <v>3.54</v>
       </c>
       <c r="AU225">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV225">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW225">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="AX225">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AY225">
-        <v>-1</v>
+        <v>29</v>
       </c>
       <c r="AZ225">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BA225">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BB225">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BC225">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BD225">
         <v>1.08</v>
@@ -47948,31 +47948,31 @@
         <v>3.39</v>
       </c>
       <c r="AU226">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AV226">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="AW226">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AX226">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AY226">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AZ226">
-        <v>-1</v>
+        <v>26</v>
       </c>
       <c r="BA226">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BB226">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BC226">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="BD226">
         <v>2.5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Scotland Premiership_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Scotland Premiership_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="360">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -760,6 +760,9 @@
     <t>['16', '66']</t>
   </si>
   <si>
+    <t>['29']</t>
+  </si>
+  <si>
     <t>['18', '79']</t>
   </si>
   <si>
@@ -1036,9 +1039,6 @@
     <t>['33']</t>
   </si>
   <si>
-    <t>['29']</t>
-  </si>
-  <si>
     <t>['22', '63']</t>
   </si>
   <si>
@@ -1091,6 +1091,9 @@
   </si>
   <si>
     <t>['2', '50']</t>
+  </si>
+  <si>
+    <t>['89']</t>
   </si>
 </sst>
 </file>
@@ -1452,7 +1455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP226"/>
+  <dimension ref="A1:BP228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2123,7 +2126,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -2741,7 +2744,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q7">
         <v>3.6</v>
@@ -3153,7 +3156,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q9">
         <v>3.2</v>
@@ -3440,7 +3443,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ10">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3565,7 +3568,7 @@
         <v>82</v>
       </c>
       <c r="P11" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3771,7 +3774,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3977,7 +3980,7 @@
         <v>82</v>
       </c>
       <c r="P13" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q13">
         <v>2.4</v>
@@ -4055,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ13">
         <v>0.63</v>
@@ -4595,7 +4598,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4801,7 +4804,7 @@
         <v>82</v>
       </c>
       <c r="P17" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q17">
         <v>7.5</v>
@@ -5088,7 +5091,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ18">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR18">
         <v>1.47</v>
@@ -5419,7 +5422,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q20">
         <v>2.75</v>
@@ -5625,7 +5628,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5831,7 +5834,7 @@
         <v>82</v>
       </c>
       <c r="P22" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -6243,7 +6246,7 @@
         <v>82</v>
       </c>
       <c r="P24" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q24">
         <v>2.38</v>
@@ -6449,7 +6452,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6527,7 +6530,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ25">
         <v>1.16</v>
@@ -7067,7 +7070,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -7354,7 +7357,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ29">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR29">
         <v>2.21</v>
@@ -7972,7 +7975,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ32">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR32">
         <v>0.87</v>
@@ -8097,7 +8100,7 @@
         <v>106</v>
       </c>
       <c r="P33" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q33">
         <v>2.75</v>
@@ -8303,7 +8306,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q34">
         <v>3.5</v>
@@ -8715,7 +8718,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8793,7 +8796,7 @@
         <v>2</v>
       </c>
       <c r="AP36">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ36">
         <v>1.37</v>
@@ -8921,7 +8924,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -9127,7 +9130,7 @@
         <v>82</v>
       </c>
       <c r="P38" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q38">
         <v>10</v>
@@ -9539,7 +9542,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9745,7 +9748,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q41">
         <v>2.63</v>
@@ -9951,7 +9954,7 @@
         <v>82</v>
       </c>
       <c r="P42" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -10157,7 +10160,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q43">
         <v>9.5</v>
@@ -10363,7 +10366,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q44">
         <v>2.25</v>
@@ -10444,7 +10447,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ44">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR44">
         <v>1.19</v>
@@ -10981,7 +10984,7 @@
         <v>118</v>
       </c>
       <c r="P47" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q47">
         <v>1.67</v>
@@ -11393,7 +11396,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11599,7 +11602,7 @@
         <v>82</v>
       </c>
       <c r="P50" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q50">
         <v>2.63</v>
@@ -11883,7 +11886,7 @@
         <v>1.33</v>
       </c>
       <c r="AP51">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ51">
         <v>1.63</v>
@@ -12011,7 +12014,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -12217,7 +12220,7 @@
         <v>123</v>
       </c>
       <c r="P53" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q53">
         <v>3.75</v>
@@ -12710,7 +12713,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ55">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR55">
         <v>1.27</v>
@@ -12835,7 +12838,7 @@
         <v>82</v>
       </c>
       <c r="P56" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q56">
         <v>7.5</v>
@@ -13247,7 +13250,7 @@
         <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q58">
         <v>2.38</v>
@@ -13453,7 +13456,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q59">
         <v>2.4</v>
@@ -13659,7 +13662,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q60">
         <v>2.75</v>
@@ -14277,7 +14280,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q63">
         <v>4.33</v>
@@ -14483,7 +14486,7 @@
         <v>132</v>
       </c>
       <c r="P64" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q64">
         <v>4.5</v>
@@ -14564,7 +14567,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ64">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR64">
         <v>1.33</v>
@@ -14895,7 +14898,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q66">
         <v>2.4</v>
@@ -15101,7 +15104,7 @@
         <v>134</v>
       </c>
       <c r="P67" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -15307,7 +15310,7 @@
         <v>135</v>
       </c>
       <c r="P68" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q68">
         <v>2.5</v>
@@ -15513,7 +15516,7 @@
         <v>136</v>
       </c>
       <c r="P69" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q69">
         <v>2.5</v>
@@ -15925,7 +15928,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q71">
         <v>2.25</v>
@@ -16131,7 +16134,7 @@
         <v>82</v>
       </c>
       <c r="P72" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -16209,7 +16212,7 @@
         <v>3</v>
       </c>
       <c r="AP72">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ72">
         <v>2.21</v>
@@ -16418,7 +16421,7 @@
         <v>2.32</v>
       </c>
       <c r="AQ73">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR73">
         <v>1.87</v>
@@ -16543,7 +16546,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q74">
         <v>3.4</v>
@@ -17161,7 +17164,7 @@
         <v>143</v>
       </c>
       <c r="P77" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q77">
         <v>3.6</v>
@@ -17367,7 +17370,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q78">
         <v>3.25</v>
@@ -17573,7 +17576,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q79">
         <v>6.5</v>
@@ -17779,7 +17782,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q80">
         <v>3.4</v>
@@ -18191,7 +18194,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q82">
         <v>2.63</v>
@@ -18269,7 +18272,7 @@
         <v>0.83</v>
       </c>
       <c r="AP82">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ82">
         <v>1</v>
@@ -18397,7 +18400,7 @@
         <v>82</v>
       </c>
       <c r="P83" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q83">
         <v>3.25</v>
@@ -18809,7 +18812,7 @@
         <v>82</v>
       </c>
       <c r="P85" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q85">
         <v>7.5</v>
@@ -19015,7 +19018,7 @@
         <v>150</v>
       </c>
       <c r="P86" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -19633,7 +19636,7 @@
         <v>82</v>
       </c>
       <c r="P89" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -20869,7 +20872,7 @@
         <v>82</v>
       </c>
       <c r="P95" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q95">
         <v>10</v>
@@ -21075,7 +21078,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -21281,7 +21284,7 @@
         <v>158</v>
       </c>
       <c r="P97" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q97">
         <v>3.5</v>
@@ -21487,7 +21490,7 @@
         <v>159</v>
       </c>
       <c r="P98" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q98">
         <v>2.05</v>
@@ -21771,10 +21774,10 @@
         <v>0.5</v>
       </c>
       <c r="AP99">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ99">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR99">
         <v>1.4</v>
@@ -21899,7 +21902,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q100">
         <v>3.1</v>
@@ -22311,7 +22314,7 @@
         <v>162</v>
       </c>
       <c r="P102" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q102">
         <v>4</v>
@@ -22517,7 +22520,7 @@
         <v>163</v>
       </c>
       <c r="P103" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -23135,7 +23138,7 @@
         <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q106">
         <v>2.75</v>
@@ -23341,7 +23344,7 @@
         <v>128</v>
       </c>
       <c r="P107" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23625,7 +23628,7 @@
         <v>1.71</v>
       </c>
       <c r="AP108">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ108">
         <v>1</v>
@@ -23753,7 +23756,7 @@
         <v>82</v>
       </c>
       <c r="P109" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q109">
         <v>2.38</v>
@@ -24371,7 +24374,7 @@
         <v>169</v>
       </c>
       <c r="P112" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -24452,7 +24455,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ112">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR112">
         <v>1.24</v>
@@ -24577,7 +24580,7 @@
         <v>170</v>
       </c>
       <c r="P113" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q113">
         <v>2.65</v>
@@ -24783,7 +24786,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q114">
         <v>7</v>
@@ -25607,7 +25610,7 @@
         <v>174</v>
       </c>
       <c r="P118" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q118">
         <v>2</v>
@@ -26097,7 +26100,7 @@
         <v>1.11</v>
       </c>
       <c r="AP120">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ120">
         <v>1.17</v>
@@ -26637,7 +26640,7 @@
         <v>179</v>
       </c>
       <c r="P123" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q123">
         <v>3.2</v>
@@ -26843,7 +26846,7 @@
         <v>180</v>
       </c>
       <c r="P124" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q124">
         <v>6.5</v>
@@ -27255,7 +27258,7 @@
         <v>82</v>
       </c>
       <c r="P126" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q126">
         <v>3</v>
@@ -27336,7 +27339,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ126">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR126">
         <v>1.36</v>
@@ -27461,7 +27464,7 @@
         <v>182</v>
       </c>
       <c r="P127" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q127">
         <v>3.2</v>
@@ -27667,7 +27670,7 @@
         <v>82</v>
       </c>
       <c r="P128" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q128">
         <v>2.05</v>
@@ -27745,7 +27748,7 @@
         <v>0.9</v>
       </c>
       <c r="AP128">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ128">
         <v>0.84</v>
@@ -28363,7 +28366,7 @@
         <v>1.2</v>
       </c>
       <c r="AP131">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ131">
         <v>1</v>
@@ -28697,7 +28700,7 @@
         <v>185</v>
       </c>
       <c r="P133" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q133">
         <v>10</v>
@@ -28903,7 +28906,7 @@
         <v>186</v>
       </c>
       <c r="P134" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q134">
         <v>2.35</v>
@@ -29396,7 +29399,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ136">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR136">
         <v>1.38</v>
@@ -29727,7 +29730,7 @@
         <v>188</v>
       </c>
       <c r="P138" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q138">
         <v>10</v>
@@ -30139,7 +30142,7 @@
         <v>190</v>
       </c>
       <c r="P140" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q140">
         <v>2.5</v>
@@ -30757,7 +30760,7 @@
         <v>82</v>
       </c>
       <c r="P143" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q143">
         <v>2.63</v>
@@ -30963,7 +30966,7 @@
         <v>192</v>
       </c>
       <c r="P144" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q144">
         <v>5.5</v>
@@ -31169,7 +31172,7 @@
         <v>82</v>
       </c>
       <c r="P145" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q145">
         <v>3.5</v>
@@ -31250,7 +31253,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ145">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR145">
         <v>1.31</v>
@@ -31581,7 +31584,7 @@
         <v>82</v>
       </c>
       <c r="P147" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q147">
         <v>2.5</v>
@@ -31865,7 +31868,7 @@
         <v>1.58</v>
       </c>
       <c r="AP148">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ148">
         <v>1.37</v>
@@ -31993,7 +31996,7 @@
         <v>195</v>
       </c>
       <c r="P149" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q149">
         <v>10</v>
@@ -32611,7 +32614,7 @@
         <v>198</v>
       </c>
       <c r="P152" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q152">
         <v>3.2</v>
@@ -33023,7 +33026,7 @@
         <v>82</v>
       </c>
       <c r="P154" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q154">
         <v>2.75</v>
@@ -33307,7 +33310,7 @@
         <v>0.85</v>
       </c>
       <c r="AP155">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ155">
         <v>0.63</v>
@@ -33435,7 +33438,7 @@
         <v>201</v>
       </c>
       <c r="P156" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q156">
         <v>5</v>
@@ -34671,7 +34674,7 @@
         <v>82</v>
       </c>
       <c r="P162" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q162">
         <v>1.57</v>
@@ -34877,7 +34880,7 @@
         <v>141</v>
       </c>
       <c r="P163" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q163">
         <v>4.33</v>
@@ -34958,7 +34961,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ163">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR163">
         <v>1.34</v>
@@ -35083,7 +35086,7 @@
         <v>206</v>
       </c>
       <c r="P164" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q164">
         <v>1.57</v>
@@ -35495,7 +35498,7 @@
         <v>139</v>
       </c>
       <c r="P166" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q166">
         <v>3.4</v>
@@ -35701,7 +35704,7 @@
         <v>208</v>
       </c>
       <c r="P167" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q167">
         <v>2.4</v>
@@ -36113,7 +36116,7 @@
         <v>209</v>
       </c>
       <c r="P169" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q169">
         <v>5.5</v>
@@ -36191,7 +36194,7 @@
         <v>1.46</v>
       </c>
       <c r="AP169">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ169">
         <v>1.63</v>
@@ -36319,7 +36322,7 @@
         <v>198</v>
       </c>
       <c r="P170" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q170">
         <v>1.53</v>
@@ -36937,7 +36940,7 @@
         <v>211</v>
       </c>
       <c r="P173" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q173">
         <v>10</v>
@@ -37143,7 +37146,7 @@
         <v>212</v>
       </c>
       <c r="P174" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q174">
         <v>3</v>
@@ -37224,7 +37227,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ174">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR174">
         <v>1.38</v>
@@ -37349,7 +37352,7 @@
         <v>213</v>
       </c>
       <c r="P175" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q175">
         <v>2.88</v>
@@ -37839,7 +37842,7 @@
         <v>1.21</v>
       </c>
       <c r="AP177">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ177">
         <v>1.16</v>
@@ -37967,7 +37970,7 @@
         <v>215</v>
       </c>
       <c r="P178" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q178">
         <v>3.4</v>
@@ -38379,7 +38382,7 @@
         <v>216</v>
       </c>
       <c r="P180" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q180">
         <v>2.25</v>
@@ -38585,7 +38588,7 @@
         <v>217</v>
       </c>
       <c r="P181" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q181">
         <v>2.4</v>
@@ -38872,7 +38875,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ182">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR182">
         <v>2.24</v>
@@ -39409,7 +39412,7 @@
         <v>221</v>
       </c>
       <c r="P185" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q185">
         <v>2.3</v>
@@ -39615,7 +39618,7 @@
         <v>222</v>
       </c>
       <c r="P186" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q186">
         <v>6.5</v>
@@ -39821,7 +39824,7 @@
         <v>82</v>
       </c>
       <c r="P187" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q187">
         <v>3.6</v>
@@ -40027,7 +40030,7 @@
         <v>82</v>
       </c>
       <c r="P188" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q188">
         <v>1.95</v>
@@ -40233,7 +40236,7 @@
         <v>82</v>
       </c>
       <c r="P189" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q189">
         <v>3.75</v>
@@ -40517,7 +40520,7 @@
         <v>1</v>
       </c>
       <c r="AP190">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ190">
         <v>1</v>
@@ -41263,7 +41266,7 @@
         <v>226</v>
       </c>
       <c r="P194" t="s">
-        <v>340</v>
+        <v>248</v>
       </c>
       <c r="Q194">
         <v>1.57</v>
@@ -41756,7 +41759,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ196">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR196">
         <v>1.14</v>
@@ -43117,7 +43120,7 @@
         <v>82</v>
       </c>
       <c r="P203" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q203">
         <v>2.05</v>
@@ -43401,7 +43404,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP204">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ204">
         <v>0.84</v>
@@ -43735,7 +43738,7 @@
         <v>233</v>
       </c>
       <c r="P206" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q206">
         <v>2.3</v>
@@ -44434,7 +44437,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ209">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR209">
         <v>1.25</v>
@@ -45255,7 +45258,7 @@
         <v>1.06</v>
       </c>
       <c r="AP213">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ213">
         <v>1</v>
@@ -46825,7 +46828,7 @@
         <v>243</v>
       </c>
       <c r="P221" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q221">
         <v>2.25</v>
@@ -48012,6 +48015,418 @@
       </c>
       <c r="BP226">
         <v>1.7</v>
+      </c>
+    </row>
+    <row r="227" spans="1:68">
+      <c r="A227" s="1">
+        <v>226</v>
+      </c>
+      <c r="B227">
+        <v>7881865</v>
+      </c>
+      <c r="C227" t="s">
+        <v>68</v>
+      </c>
+      <c r="D227" t="s">
+        <v>69</v>
+      </c>
+      <c r="E227" s="2">
+        <v>45795.45833333334</v>
+      </c>
+      <c r="F227">
+        <v>38</v>
+      </c>
+      <c r="G227" t="s">
+        <v>77</v>
+      </c>
+      <c r="H227" t="s">
+        <v>71</v>
+      </c>
+      <c r="I227">
+        <v>1</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>1</v>
+      </c>
+      <c r="L227">
+        <v>1</v>
+      </c>
+      <c r="M227">
+        <v>1</v>
+      </c>
+      <c r="N227">
+        <v>2</v>
+      </c>
+      <c r="O227" t="s">
+        <v>248</v>
+      </c>
+      <c r="P227" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q227">
+        <v>2.6</v>
+      </c>
+      <c r="R227">
+        <v>2.15</v>
+      </c>
+      <c r="S227">
+        <v>3.7</v>
+      </c>
+      <c r="T227">
+        <v>1.33</v>
+      </c>
+      <c r="U227">
+        <v>3</v>
+      </c>
+      <c r="V227">
+        <v>2.45</v>
+      </c>
+      <c r="W227">
+        <v>1.48</v>
+      </c>
+      <c r="X227">
+        <v>5.5</v>
+      </c>
+      <c r="Y227">
+        <v>1.11</v>
+      </c>
+      <c r="Z227">
+        <v>2.41</v>
+      </c>
+      <c r="AA227">
+        <v>2.99</v>
+      </c>
+      <c r="AB227">
+        <v>2.7</v>
+      </c>
+      <c r="AC227">
+        <v>1.05</v>
+      </c>
+      <c r="AD227">
+        <v>9.5</v>
+      </c>
+      <c r="AE227">
+        <v>1.25</v>
+      </c>
+      <c r="AF227">
+        <v>3.8</v>
+      </c>
+      <c r="AG227">
+        <v>1.91</v>
+      </c>
+      <c r="AH227">
+        <v>1.79</v>
+      </c>
+      <c r="AI227">
+        <v>1.6</v>
+      </c>
+      <c r="AJ227">
+        <v>2.2</v>
+      </c>
+      <c r="AK227">
+        <v>1.33</v>
+      </c>
+      <c r="AL227">
+        <v>1.25</v>
+      </c>
+      <c r="AM227">
+        <v>1.67</v>
+      </c>
+      <c r="AN227">
+        <v>1.11</v>
+      </c>
+      <c r="AO227">
+        <v>1</v>
+      </c>
+      <c r="AP227">
+        <v>1.11</v>
+      </c>
+      <c r="AQ227">
+        <v>1</v>
+      </c>
+      <c r="AR227">
+        <v>1.28</v>
+      </c>
+      <c r="AS227">
+        <v>1.1</v>
+      </c>
+      <c r="AT227">
+        <v>2.38</v>
+      </c>
+      <c r="AU227">
+        <v>-1</v>
+      </c>
+      <c r="AV227">
+        <v>-1</v>
+      </c>
+      <c r="AW227">
+        <v>-1</v>
+      </c>
+      <c r="AX227">
+        <v>-1</v>
+      </c>
+      <c r="AY227">
+        <v>-1</v>
+      </c>
+      <c r="AZ227">
+        <v>-1</v>
+      </c>
+      <c r="BA227">
+        <v>-1</v>
+      </c>
+      <c r="BB227">
+        <v>-1</v>
+      </c>
+      <c r="BC227">
+        <v>-1</v>
+      </c>
+      <c r="BD227">
+        <v>1.68</v>
+      </c>
+      <c r="BE227">
+        <v>6.75</v>
+      </c>
+      <c r="BF227">
+        <v>2.4</v>
+      </c>
+      <c r="BG227">
+        <v>1.17</v>
+      </c>
+      <c r="BH227">
+        <v>4.3</v>
+      </c>
+      <c r="BI227">
+        <v>1.3</v>
+      </c>
+      <c r="BJ227">
+        <v>3.05</v>
+      </c>
+      <c r="BK227">
+        <v>1.5</v>
+      </c>
+      <c r="BL227">
+        <v>2.35</v>
+      </c>
+      <c r="BM227">
+        <v>1.81</v>
+      </c>
+      <c r="BN227">
+        <v>1.88</v>
+      </c>
+      <c r="BO227">
+        <v>2.23</v>
+      </c>
+      <c r="BP227">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="228" spans="1:68">
+      <c r="A228" s="1">
+        <v>227</v>
+      </c>
+      <c r="B228">
+        <v>7881864</v>
+      </c>
+      <c r="C228" t="s">
+        <v>68</v>
+      </c>
+      <c r="D228" t="s">
+        <v>69</v>
+      </c>
+      <c r="E228" s="2">
+        <v>45795.45833333334</v>
+      </c>
+      <c r="F228">
+        <v>38</v>
+      </c>
+      <c r="G228" t="s">
+        <v>81</v>
+      </c>
+      <c r="H228" t="s">
+        <v>70</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>0</v>
+      </c>
+      <c r="L228">
+        <v>0</v>
+      </c>
+      <c r="M228">
+        <v>1</v>
+      </c>
+      <c r="N228">
+        <v>1</v>
+      </c>
+      <c r="O228" t="s">
+        <v>82</v>
+      </c>
+      <c r="P228" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q228">
+        <v>3.4</v>
+      </c>
+      <c r="R228">
+        <v>2.1</v>
+      </c>
+      <c r="S228">
+        <v>2.9</v>
+      </c>
+      <c r="T228">
+        <v>1.4</v>
+      </c>
+      <c r="U228">
+        <v>2.7</v>
+      </c>
+      <c r="V228">
+        <v>2.9</v>
+      </c>
+      <c r="W228">
+        <v>1.36</v>
+      </c>
+      <c r="X228">
+        <v>7</v>
+      </c>
+      <c r="Y228">
+        <v>1.06</v>
+      </c>
+      <c r="Z228">
+        <v>2.48</v>
+      </c>
+      <c r="AA228">
+        <v>3.19</v>
+      </c>
+      <c r="AB228">
+        <v>2.48</v>
+      </c>
+      <c r="AC228">
+        <v>1.05</v>
+      </c>
+      <c r="AD228">
+        <v>9</v>
+      </c>
+      <c r="AE228">
+        <v>1.33</v>
+      </c>
+      <c r="AF228">
+        <v>3.25</v>
+      </c>
+      <c r="AG228">
+        <v>1.79</v>
+      </c>
+      <c r="AH228">
+        <v>1.91</v>
+      </c>
+      <c r="AI228">
+        <v>1.77</v>
+      </c>
+      <c r="AJ228">
+        <v>1.95</v>
+      </c>
+      <c r="AK228">
+        <v>1.57</v>
+      </c>
+      <c r="AL228">
+        <v>1.25</v>
+      </c>
+      <c r="AM228">
+        <v>1.4</v>
+      </c>
+      <c r="AN228">
+        <v>1.78</v>
+      </c>
+      <c r="AO228">
+        <v>1.06</v>
+      </c>
+      <c r="AP228">
+        <v>1.68</v>
+      </c>
+      <c r="AQ228">
+        <v>1.16</v>
+      </c>
+      <c r="AR228">
+        <v>1.49</v>
+      </c>
+      <c r="AS228">
+        <v>1.3</v>
+      </c>
+      <c r="AT228">
+        <v>2.79</v>
+      </c>
+      <c r="AU228">
+        <v>2</v>
+      </c>
+      <c r="AV228">
+        <v>6</v>
+      </c>
+      <c r="AW228">
+        <v>15</v>
+      </c>
+      <c r="AX228">
+        <v>6</v>
+      </c>
+      <c r="AY228">
+        <v>18</v>
+      </c>
+      <c r="AZ228">
+        <v>12</v>
+      </c>
+      <c r="BA228">
+        <v>3</v>
+      </c>
+      <c r="BB228">
+        <v>4</v>
+      </c>
+      <c r="BC228">
+        <v>7</v>
+      </c>
+      <c r="BD228">
+        <v>1.98</v>
+      </c>
+      <c r="BE228">
+        <v>6.75</v>
+      </c>
+      <c r="BF228">
+        <v>1.98</v>
+      </c>
+      <c r="BG228">
+        <v>1.2</v>
+      </c>
+      <c r="BH228">
+        <v>3.95</v>
+      </c>
+      <c r="BI228">
+        <v>1.34</v>
+      </c>
+      <c r="BJ228">
+        <v>2.9</v>
+      </c>
+      <c r="BK228">
+        <v>1.57</v>
+      </c>
+      <c r="BL228">
+        <v>2.23</v>
+      </c>
+      <c r="BM228">
+        <v>1.9</v>
+      </c>
+      <c r="BN228">
+        <v>1.79</v>
+      </c>
+      <c r="BO228">
+        <v>2.35</v>
+      </c>
+      <c r="BP228">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Scotland Premiership_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Scotland Premiership_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="361">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1095,6 +1095,9 @@
   <si>
     <t>['89']</t>
   </si>
+  <si>
+    <t>['28', '90+6']</t>
+  </si>
 </sst>
 </file>
 
@@ -1455,7 +1458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP228"/>
+  <dimension ref="A1:BP229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2207,7 +2210,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ4">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2822,7 +2825,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ7">
         <v>1</v>
@@ -4679,7 +4682,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ16">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR16">
         <v>0.53</v>
@@ -5706,7 +5709,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ21">
         <v>1</v>
@@ -6739,7 +6742,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ26">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR26">
         <v>1.33</v>
@@ -9208,7 +9211,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ38">
         <v>2.21</v>
@@ -10856,7 +10859,7 @@
         <v>0.67</v>
       </c>
       <c r="AP46">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ46">
         <v>0.84</v>
@@ -11683,7 +11686,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ50">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR50">
         <v>1.3</v>
@@ -13949,7 +13952,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ61">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR61">
         <v>2.17</v>
@@ -14564,7 +14567,7 @@
         <v>0.17</v>
       </c>
       <c r="AP64">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ64">
         <v>1.16</v>
@@ -16009,7 +16012,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ71">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR71">
         <v>1.32</v>
@@ -16830,7 +16833,7 @@
         <v>1</v>
       </c>
       <c r="AP75">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ75">
         <v>0.63</v>
@@ -18275,7 +18278,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ82">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR82">
         <v>1.34</v>
@@ -18890,7 +18893,7 @@
         <v>0.8</v>
       </c>
       <c r="AP85">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ85">
         <v>1.63</v>
@@ -20541,7 +20544,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ93">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR93">
         <v>1.63</v>
@@ -21362,7 +21365,7 @@
         <v>0.57</v>
       </c>
       <c r="AP97">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ97">
         <v>1.17</v>
@@ -22189,7 +22192,7 @@
         <v>2.32</v>
       </c>
       <c r="AQ101">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR101">
         <v>2.07</v>
@@ -23422,7 +23425,7 @@
         <v>1.25</v>
       </c>
       <c r="AP107">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ107">
         <v>1.37</v>
@@ -24661,7 +24664,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ113">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR113">
         <v>1.2</v>
@@ -26512,7 +26515,7 @@
         <v>1.1</v>
       </c>
       <c r="AP122">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ122">
         <v>1.16</v>
@@ -27542,10 +27545,10 @@
         <v>0.9</v>
       </c>
       <c r="AP127">
+        <v>1.05</v>
+      </c>
+      <c r="AQ127">
         <v>1.11</v>
-      </c>
-      <c r="AQ127">
-        <v>1</v>
       </c>
       <c r="AR127">
         <v>1.19</v>
@@ -30426,7 +30429,7 @@
         <v>1.08</v>
       </c>
       <c r="AP141">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ141">
         <v>1</v>
@@ -32489,7 +32492,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ151">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR151">
         <v>2.26</v>
@@ -34549,7 +34552,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ161">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR161">
         <v>1.18</v>
@@ -34958,7 +34961,7 @@
         <v>0.92</v>
       </c>
       <c r="AP163">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ163">
         <v>1.16</v>
@@ -35373,7 +35376,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ165">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR165">
         <v>1.16</v>
@@ -35988,7 +35991,7 @@
         <v>1.15</v>
       </c>
       <c r="AP168">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ168">
         <v>0.84</v>
@@ -38254,7 +38257,7 @@
         <v>1.07</v>
       </c>
       <c r="AP179">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ179">
         <v>1</v>
@@ -38669,7 +38672,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ181">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR181">
         <v>1.35</v>
@@ -40932,7 +40935,7 @@
         <v>2.33</v>
       </c>
       <c r="AP192">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ192">
         <v>2.21</v>
@@ -42377,7 +42380,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ199">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR199">
         <v>1.41</v>
@@ -43201,7 +43204,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ203">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR203">
         <v>1.75</v>
@@ -44640,7 +44643,7 @@
         <v>0.53</v>
       </c>
       <c r="AP210">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ210">
         <v>0.63</v>
@@ -45052,7 +45055,7 @@
         <v>0.88</v>
       </c>
       <c r="AP212">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ212">
         <v>0.84</v>
@@ -45261,7 +45264,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ213">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR213">
         <v>1.46</v>
@@ -48157,31 +48160,31 @@
         <v>2.38</v>
       </c>
       <c r="AU227">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AV227">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AW227">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AX227">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AY227">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="AZ227">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="BA227">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BB227">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BC227">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BD227">
         <v>1.68</v>
@@ -48427,6 +48430,212 @@
       </c>
       <c r="BP228">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="229" spans="1:68">
+      <c r="A229" s="1">
+        <v>228</v>
+      </c>
+      <c r="B229">
+        <v>7881866</v>
+      </c>
+      <c r="C229" t="s">
+        <v>68</v>
+      </c>
+      <c r="D229" t="s">
+        <v>69</v>
+      </c>
+      <c r="E229" s="2">
+        <v>45795.45833333334</v>
+      </c>
+      <c r="F229">
+        <v>38</v>
+      </c>
+      <c r="G229" t="s">
+        <v>75</v>
+      </c>
+      <c r="H229" t="s">
+        <v>78</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>1</v>
+      </c>
+      <c r="K229">
+        <v>1</v>
+      </c>
+      <c r="L229">
+        <v>0</v>
+      </c>
+      <c r="M229">
+        <v>2</v>
+      </c>
+      <c r="N229">
+        <v>2</v>
+      </c>
+      <c r="O229" t="s">
+        <v>82</v>
+      </c>
+      <c r="P229" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q229">
+        <v>2.8</v>
+      </c>
+      <c r="R229">
+        <v>2.1</v>
+      </c>
+      <c r="S229">
+        <v>3.6</v>
+      </c>
+      <c r="T229">
+        <v>1.4</v>
+      </c>
+      <c r="U229">
+        <v>2.75</v>
+      </c>
+      <c r="V229">
+        <v>2.8</v>
+      </c>
+      <c r="W229">
+        <v>1.38</v>
+      </c>
+      <c r="X229">
+        <v>7</v>
+      </c>
+      <c r="Y229">
+        <v>1.07</v>
+      </c>
+      <c r="Z229">
+        <v>2.05</v>
+      </c>
+      <c r="AA229">
+        <v>3.27</v>
+      </c>
+      <c r="AB229">
+        <v>3.08</v>
+      </c>
+      <c r="AC229">
+        <v>1.06</v>
+      </c>
+      <c r="AD229">
+        <v>8.5</v>
+      </c>
+      <c r="AE229">
+        <v>1.3</v>
+      </c>
+      <c r="AF229">
+        <v>3.35</v>
+      </c>
+      <c r="AG229">
+        <v>1.83</v>
+      </c>
+      <c r="AH229">
+        <v>1.91</v>
+      </c>
+      <c r="AI229">
+        <v>1.75</v>
+      </c>
+      <c r="AJ229">
+        <v>1.95</v>
+      </c>
+      <c r="AK229">
+        <v>1.35</v>
+      </c>
+      <c r="AL229">
+        <v>1.25</v>
+      </c>
+      <c r="AM229">
+        <v>1.62</v>
+      </c>
+      <c r="AN229">
+        <v>1.11</v>
+      </c>
+      <c r="AO229">
+        <v>1</v>
+      </c>
+      <c r="AP229">
+        <v>1.05</v>
+      </c>
+      <c r="AQ229">
+        <v>1.11</v>
+      </c>
+      <c r="AR229">
+        <v>1.39</v>
+      </c>
+      <c r="AS229">
+        <v>1.19</v>
+      </c>
+      <c r="AT229">
+        <v>2.58</v>
+      </c>
+      <c r="AU229">
+        <v>2</v>
+      </c>
+      <c r="AV229">
+        <v>7</v>
+      </c>
+      <c r="AW229">
+        <v>11</v>
+      </c>
+      <c r="AX229">
+        <v>12</v>
+      </c>
+      <c r="AY229">
+        <v>15</v>
+      </c>
+      <c r="AZ229">
+        <v>19</v>
+      </c>
+      <c r="BA229">
+        <v>1</v>
+      </c>
+      <c r="BB229">
+        <v>9</v>
+      </c>
+      <c r="BC229">
+        <v>10</v>
+      </c>
+      <c r="BD229">
+        <v>1.85</v>
+      </c>
+      <c r="BE229">
+        <v>6.75</v>
+      </c>
+      <c r="BF229">
+        <v>2.12</v>
+      </c>
+      <c r="BG229">
+        <v>1.21</v>
+      </c>
+      <c r="BH229">
+        <v>3.7</v>
+      </c>
+      <c r="BI229">
+        <v>1.4</v>
+      </c>
+      <c r="BJ229">
+        <v>2.7</v>
+      </c>
+      <c r="BK229">
+        <v>1.65</v>
+      </c>
+      <c r="BL229">
+        <v>2.08</v>
+      </c>
+      <c r="BM229">
+        <v>2.02</v>
+      </c>
+      <c r="BN229">
+        <v>1.68</v>
+      </c>
+      <c r="BO229">
+        <v>2.55</v>
+      </c>
+      <c r="BP229">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>
